--- a/documents/02_画面遷移図_E4チーム[村人]0608.xlsx
+++ b/documents/02_画面遷移図_E4チーム[村人]0608.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\【6月プロジェクト】\【作成ドキュメント】\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FA8B45F-554A-46CE-845F-2048FB296C74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DC234EC-8A1A-419F-91A1-70780E87A40B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="1" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="画面遷移図(メイン)" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="88">
   <si>
     <t>プロジェクト名</t>
     <rPh sb="6" eb="7">
@@ -765,10 +765,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>PASS</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>PW</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -782,9 +778,6 @@
       <t>トウロク</t>
     </rPh>
     <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>&lt;login.jsp&gt;</t>
   </si>
   <si>
     <t>☒</t>
@@ -829,17 +822,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>＜ポップアップ＞</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ポップアップを閉じる</t>
-    <rPh sb="7" eb="8">
-      <t>ト</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>更新</t>
     <rPh sb="0" eb="2">
       <t>コウシン</t>
@@ -847,9 +829,149 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>各ボタンをクリック</t>
-    <rPh sb="0" eb="1">
-      <t>カク</t>
+    <t>※ログインページ へ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>&lt; regist.jsp &gt;</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>＜ regist_f.jsp ＞</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>登録</t>
+    <rPh sb="0" eb="2">
+      <t>トウロク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>新規登録</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>をクリック</t>
+    </r>
+    <rPh sb="0" eb="4">
+      <t>シンキトウロク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ログイン画面へ戻る</t>
+    <rPh sb="4" eb="6">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>モド</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>登録完了画面</t>
+    <rPh sb="0" eb="2">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>カンリョウ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>ログイン画面へ戻る</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>をクリック</t>
+    </r>
+    <rPh sb="4" eb="6">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>モド</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>パスワードを忘れた方</t>
+    <rPh sb="6" eb="7">
+      <t>ワス</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>カタ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>パスワード再設定画面</t>
+    <rPh sb="5" eb="8">
+      <t>サイセッテイ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">パスワードを
+忘れた方
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>をクリック</t>
+    </r>
+    <rPh sb="7" eb="8">
+      <t>ワス</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>カタ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -858,7 +980,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="17" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -970,6 +1092,13 @@
     <font>
       <sz val="20"/>
       <color theme="1"/>
+      <name val="メイリオ"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <name val="メイリオ"/>
       <family val="3"/>
       <charset val="128"/>
@@ -1135,7 +1264,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="174">
+  <cellXfs count="178">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1370,32 +1499,26 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1406,6 +1529,9 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1413,6 +1539,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1445,20 +1574,44 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1466,16 +1619,40 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1496,17 +1673,20 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1520,10 +1700,10 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1559,6 +1739,12 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1571,80 +1757,35 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2153,6 +2294,59 @@
     </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>13609</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>13609</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>190499</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="5" name="直線矢印コネクタ 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{49D7739E-5DF5-4D64-AC3E-127244A39AD4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="625930" y="3891643"/>
+          <a:ext cx="0" cy="830035"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -2241,6 +2435,59 @@
         <a:xfrm>
           <a:off x="5959929" y="5021036"/>
           <a:ext cx="1002366" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>95249</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>54427</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="6" name="直線矢印コネクタ 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{762520B6-A19D-4049-A263-863A1E86827A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1006929" y="3891642"/>
+          <a:ext cx="0" cy="449035"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -3755,104 +4002,104 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:54" x14ac:dyDescent="0.15">
-      <c r="A1" s="107" t="s">
+      <c r="A1" s="87" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="107"/>
-      <c r="C1" s="107"/>
-      <c r="D1" s="107"/>
-      <c r="E1" s="107"/>
-      <c r="F1" s="108" t="s">
+      <c r="B1" s="87"/>
+      <c r="C1" s="87"/>
+      <c r="D1" s="87"/>
+      <c r="E1" s="87"/>
+      <c r="F1" s="88" t="s">
         <v>7</v>
       </c>
-      <c r="G1" s="108"/>
-      <c r="H1" s="108"/>
-      <c r="I1" s="108"/>
-      <c r="J1" s="108"/>
-      <c r="K1" s="108"/>
-      <c r="L1" s="108"/>
-      <c r="M1" s="107" t="s">
+      <c r="G1" s="88"/>
+      <c r="H1" s="88"/>
+      <c r="I1" s="88"/>
+      <c r="J1" s="88"/>
+      <c r="K1" s="88"/>
+      <c r="L1" s="88"/>
+      <c r="M1" s="87" t="s">
         <v>1</v>
       </c>
-      <c r="N1" s="107"/>
-      <c r="O1" s="107"/>
-      <c r="P1" s="107"/>
-      <c r="Q1" s="108" t="s">
+      <c r="N1" s="87"/>
+      <c r="O1" s="87"/>
+      <c r="P1" s="87"/>
+      <c r="Q1" s="88" t="s">
         <v>9</v>
       </c>
-      <c r="R1" s="108"/>
-      <c r="S1" s="108"/>
-      <c r="T1" s="108"/>
-      <c r="U1" s="108"/>
-      <c r="V1" s="108"/>
-      <c r="W1" s="108"/>
+      <c r="R1" s="88"/>
+      <c r="S1" s="88"/>
+      <c r="T1" s="88"/>
+      <c r="U1" s="88"/>
+      <c r="V1" s="88"/>
+      <c r="W1" s="88"/>
     </row>
     <row r="2" spans="1:54" x14ac:dyDescent="0.15">
-      <c r="A2" s="107" t="s">
+      <c r="A2" s="87" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="107"/>
-      <c r="C2" s="107"/>
-      <c r="D2" s="107"/>
-      <c r="E2" s="107"/>
-      <c r="F2" s="108" t="s">
+      <c r="B2" s="87"/>
+      <c r="C2" s="87"/>
+      <c r="D2" s="87"/>
+      <c r="E2" s="87"/>
+      <c r="F2" s="88" t="s">
         <v>8</v>
       </c>
-      <c r="G2" s="108"/>
-      <c r="H2" s="108"/>
-      <c r="I2" s="108"/>
-      <c r="J2" s="108"/>
-      <c r="K2" s="108"/>
-      <c r="L2" s="108"/>
-      <c r="M2" s="107" t="s">
+      <c r="G2" s="88"/>
+      <c r="H2" s="88"/>
+      <c r="I2" s="88"/>
+      <c r="J2" s="88"/>
+      <c r="K2" s="88"/>
+      <c r="L2" s="88"/>
+      <c r="M2" s="87" t="s">
         <v>3</v>
       </c>
-      <c r="N2" s="107"/>
-      <c r="O2" s="107"/>
-      <c r="P2" s="107"/>
-      <c r="Q2" s="108" t="s">
+      <c r="N2" s="87"/>
+      <c r="O2" s="87"/>
+      <c r="P2" s="87"/>
+      <c r="Q2" s="88" t="s">
         <v>10</v>
       </c>
-      <c r="R2" s="108"/>
-      <c r="S2" s="108"/>
-      <c r="T2" s="108"/>
-      <c r="U2" s="108"/>
-      <c r="V2" s="108"/>
-      <c r="W2" s="108"/>
+      <c r="R2" s="88"/>
+      <c r="S2" s="88"/>
+      <c r="T2" s="88"/>
+      <c r="U2" s="88"/>
+      <c r="V2" s="88"/>
+      <c r="W2" s="88"/>
     </row>
     <row r="3" spans="1:54" x14ac:dyDescent="0.15">
-      <c r="M3" s="107" t="s">
+      <c r="M3" s="87" t="s">
         <v>4</v>
       </c>
-      <c r="N3" s="107"/>
-      <c r="O3" s="107"/>
-      <c r="P3" s="107"/>
-      <c r="Q3" s="108" t="s">
+      <c r="N3" s="87"/>
+      <c r="O3" s="87"/>
+      <c r="P3" s="87"/>
+      <c r="Q3" s="88" t="s">
         <v>9</v>
       </c>
-      <c r="R3" s="108"/>
-      <c r="S3" s="108"/>
-      <c r="T3" s="108"/>
-      <c r="U3" s="108"/>
-      <c r="V3" s="108"/>
-      <c r="W3" s="108"/>
+      <c r="R3" s="88"/>
+      <c r="S3" s="88"/>
+      <c r="T3" s="88"/>
+      <c r="U3" s="88"/>
+      <c r="V3" s="88"/>
+      <c r="W3" s="88"/>
     </row>
     <row r="4" spans="1:54" x14ac:dyDescent="0.15">
-      <c r="M4" s="107" t="s">
+      <c r="M4" s="87" t="s">
         <v>5</v>
       </c>
-      <c r="N4" s="107"/>
-      <c r="O4" s="107"/>
-      <c r="P4" s="107"/>
-      <c r="Q4" s="108" t="s">
+      <c r="N4" s="87"/>
+      <c r="O4" s="87"/>
+      <c r="P4" s="87"/>
+      <c r="Q4" s="88" t="s">
         <v>10</v>
       </c>
-      <c r="R4" s="108"/>
-      <c r="S4" s="108"/>
-      <c r="T4" s="108"/>
-      <c r="U4" s="108"/>
-      <c r="V4" s="108"/>
-      <c r="W4" s="108"/>
+      <c r="R4" s="88"/>
+      <c r="S4" s="88"/>
+      <c r="T4" s="88"/>
+      <c r="U4" s="88"/>
+      <c r="V4" s="88"/>
+      <c r="W4" s="88"/>
     </row>
     <row r="5" spans="1:54" ht="28.5" x14ac:dyDescent="0.15">
       <c r="A5" s="2" t="s">
@@ -3920,47 +4167,47 @@
     </row>
     <row r="7" spans="1:54" x14ac:dyDescent="0.15">
       <c r="A7" s="6"/>
-      <c r="B7" s="85" t="s">
+      <c r="B7" s="92" t="s">
         <v>17</v>
       </c>
-      <c r="C7" s="85"/>
-      <c r="D7" s="85"/>
-      <c r="E7" s="85"/>
-      <c r="F7" s="85"/>
-      <c r="G7" s="85"/>
-      <c r="H7" s="85"/>
-      <c r="I7" s="85"/>
+      <c r="C7" s="92"/>
+      <c r="D7" s="92"/>
+      <c r="E7" s="92"/>
+      <c r="F7" s="92"/>
+      <c r="G7" s="92"/>
+      <c r="H7" s="92"/>
+      <c r="I7" s="92"/>
       <c r="J7" s="7"/>
-      <c r="O7" s="85" t="s">
+      <c r="O7" s="92" t="s">
         <v>19</v>
       </c>
-      <c r="P7" s="85"/>
-      <c r="Q7" s="85"/>
-      <c r="R7" s="85"/>
-      <c r="S7" s="85"/>
-      <c r="T7" s="85"/>
-      <c r="U7" s="85"/>
-      <c r="V7" s="85"/>
-      <c r="AA7" s="85" t="s">
+      <c r="P7" s="92"/>
+      <c r="Q7" s="92"/>
+      <c r="R7" s="92"/>
+      <c r="S7" s="92"/>
+      <c r="T7" s="92"/>
+      <c r="U7" s="92"/>
+      <c r="V7" s="92"/>
+      <c r="AA7" s="92" t="s">
         <v>25</v>
       </c>
-      <c r="AB7" s="85"/>
-      <c r="AC7" s="85"/>
-      <c r="AD7" s="85"/>
-      <c r="AE7" s="85"/>
-      <c r="AF7" s="85"/>
-      <c r="AG7" s="85"/>
-      <c r="AH7" s="85"/>
-      <c r="AM7" s="85" t="s">
+      <c r="AB7" s="92"/>
+      <c r="AC7" s="92"/>
+      <c r="AD7" s="92"/>
+      <c r="AE7" s="92"/>
+      <c r="AF7" s="92"/>
+      <c r="AG7" s="92"/>
+      <c r="AH7" s="92"/>
+      <c r="AM7" s="92" t="s">
         <v>26</v>
       </c>
-      <c r="AN7" s="85"/>
-      <c r="AO7" s="85"/>
-      <c r="AP7" s="85"/>
-      <c r="AQ7" s="85"/>
-      <c r="AR7" s="85"/>
-      <c r="AS7" s="85"/>
-      <c r="AT7" s="85"/>
+      <c r="AN7" s="92"/>
+      <c r="AO7" s="92"/>
+      <c r="AP7" s="92"/>
+      <c r="AQ7" s="92"/>
+      <c r="AR7" s="92"/>
+      <c r="AS7" s="92"/>
+      <c r="AT7" s="92"/>
       <c r="BB7" s="9"/>
     </row>
     <row r="8" spans="1:54" x14ac:dyDescent="0.15">
@@ -4018,14 +4265,14 @@
       <c r="M9" s="18"/>
       <c r="N9" s="18"/>
       <c r="O9" s="22"/>
-      <c r="P9" s="89" t="s">
+      <c r="P9" s="112" t="s">
         <v>21</v>
       </c>
-      <c r="Q9" s="89"/>
-      <c r="R9" s="89"/>
-      <c r="S9" s="89"/>
-      <c r="T9" s="89"/>
-      <c r="U9" s="89"/>
+      <c r="Q9" s="112"/>
+      <c r="R9" s="112"/>
+      <c r="S9" s="112"/>
+      <c r="T9" s="112"/>
+      <c r="U9" s="112"/>
       <c r="V9" s="23"/>
       <c r="AA9" s="22"/>
       <c r="AB9" s="24"/>
@@ -4055,25 +4302,25 @@
       <c r="G10" s="106"/>
       <c r="H10" s="24"/>
       <c r="I10" s="23"/>
-      <c r="J10" s="91" t="s">
+      <c r="J10" s="89" t="s">
         <v>65</v>
       </c>
-      <c r="K10" s="92"/>
-      <c r="L10" s="92"/>
-      <c r="M10" s="92"/>
-      <c r="N10" s="93"/>
+      <c r="K10" s="90"/>
+      <c r="L10" s="90"/>
+      <c r="M10" s="90"/>
+      <c r="N10" s="91"/>
       <c r="O10" s="22"/>
-      <c r="P10" s="89"/>
-      <c r="Q10" s="89"/>
-      <c r="R10" s="89"/>
-      <c r="S10" s="89"/>
-      <c r="T10" s="89"/>
-      <c r="U10" s="89"/>
+      <c r="P10" s="112"/>
+      <c r="Q10" s="112"/>
+      <c r="R10" s="112"/>
+      <c r="S10" s="112"/>
+      <c r="T10" s="112"/>
+      <c r="U10" s="112"/>
       <c r="V10" s="23"/>
-      <c r="X10" s="86" t="s">
+      <c r="X10" s="96" t="s">
         <v>12</v>
       </c>
-      <c r="Y10" s="86"/>
+      <c r="Y10" s="96"/>
       <c r="AA10" s="22"/>
       <c r="AB10" s="24"/>
       <c r="AC10" s="24"/>
@@ -4082,10 +4329,10 @@
       <c r="AF10" s="24"/>
       <c r="AG10" s="24"/>
       <c r="AH10" s="23"/>
-      <c r="AJ10" s="86" t="s">
+      <c r="AJ10" s="96" t="s">
         <v>15</v>
       </c>
-      <c r="AK10" s="86"/>
+      <c r="AK10" s="96"/>
       <c r="AM10" s="22"/>
       <c r="AN10" s="24"/>
       <c r="AO10" s="24"/>
@@ -4106,44 +4353,44 @@
       <c r="G11" s="24"/>
       <c r="H11" s="24"/>
       <c r="I11" s="23"/>
-      <c r="J11" s="91"/>
-      <c r="K11" s="92"/>
-      <c r="L11" s="92"/>
-      <c r="M11" s="92"/>
-      <c r="N11" s="93"/>
+      <c r="J11" s="89"/>
+      <c r="K11" s="90"/>
+      <c r="L11" s="90"/>
+      <c r="M11" s="90"/>
+      <c r="N11" s="91"/>
       <c r="O11" s="22"/>
-      <c r="P11" s="84" t="s">
+      <c r="P11" s="107" t="s">
         <v>20</v>
       </c>
-      <c r="Q11" s="84"/>
-      <c r="R11" s="84"/>
-      <c r="S11" s="84"/>
-      <c r="T11" s="84"/>
-      <c r="U11" s="84"/>
+      <c r="Q11" s="107"/>
+      <c r="R11" s="107"/>
+      <c r="S11" s="107"/>
+      <c r="T11" s="107"/>
+      <c r="U11" s="107"/>
       <c r="V11" s="23"/>
-      <c r="X11" s="86"/>
-      <c r="Y11" s="86"/>
+      <c r="X11" s="96"/>
+      <c r="Y11" s="96"/>
       <c r="AA11" s="22"/>
-      <c r="AB11" s="84" t="s">
+      <c r="AB11" s="107" t="s">
         <v>22</v>
       </c>
-      <c r="AC11" s="84"/>
-      <c r="AD11" s="84"/>
-      <c r="AE11" s="84"/>
-      <c r="AF11" s="84"/>
-      <c r="AG11" s="84"/>
+      <c r="AC11" s="107"/>
+      <c r="AD11" s="107"/>
+      <c r="AE11" s="107"/>
+      <c r="AF11" s="107"/>
+      <c r="AG11" s="107"/>
       <c r="AH11" s="23"/>
-      <c r="AJ11" s="86"/>
-      <c r="AK11" s="86"/>
+      <c r="AJ11" s="96"/>
+      <c r="AK11" s="96"/>
       <c r="AM11" s="22"/>
-      <c r="AN11" s="84" t="s">
+      <c r="AN11" s="107" t="s">
         <v>27</v>
       </c>
-      <c r="AO11" s="84"/>
-      <c r="AP11" s="84"/>
-      <c r="AQ11" s="84"/>
-      <c r="AR11" s="84"/>
-      <c r="AS11" s="84"/>
+      <c r="AO11" s="107"/>
+      <c r="AP11" s="107"/>
+      <c r="AQ11" s="107"/>
+      <c r="AR11" s="107"/>
+      <c r="AS11" s="107"/>
       <c r="AT11" s="23"/>
       <c r="BB11" s="9"/>
     </row>
@@ -4158,28 +4405,28 @@
       <c r="H12" s="18"/>
       <c r="I12" s="13"/>
       <c r="O12" s="12"/>
-      <c r="P12" s="84"/>
-      <c r="Q12" s="84"/>
-      <c r="R12" s="84"/>
-      <c r="S12" s="84"/>
-      <c r="T12" s="84"/>
-      <c r="U12" s="84"/>
+      <c r="P12" s="107"/>
+      <c r="Q12" s="107"/>
+      <c r="R12" s="107"/>
+      <c r="S12" s="107"/>
+      <c r="T12" s="107"/>
+      <c r="U12" s="107"/>
       <c r="V12" s="13"/>
       <c r="AA12" s="12"/>
-      <c r="AB12" s="84"/>
-      <c r="AC12" s="84"/>
-      <c r="AD12" s="84"/>
-      <c r="AE12" s="84"/>
-      <c r="AF12" s="84"/>
-      <c r="AG12" s="84"/>
+      <c r="AB12" s="107"/>
+      <c r="AC12" s="107"/>
+      <c r="AD12" s="107"/>
+      <c r="AE12" s="107"/>
+      <c r="AF12" s="107"/>
+      <c r="AG12" s="107"/>
       <c r="AH12" s="13"/>
       <c r="AM12" s="12"/>
-      <c r="AN12" s="84"/>
-      <c r="AO12" s="84"/>
-      <c r="AP12" s="84"/>
-      <c r="AQ12" s="84"/>
-      <c r="AR12" s="84"/>
-      <c r="AS12" s="84"/>
+      <c r="AN12" s="107"/>
+      <c r="AO12" s="107"/>
+      <c r="AP12" s="107"/>
+      <c r="AQ12" s="107"/>
+      <c r="AR12" s="107"/>
+      <c r="AS12" s="107"/>
       <c r="AT12" s="13"/>
       <c r="BB12" s="9"/>
     </row>
@@ -4297,14 +4544,14 @@
       <c r="A16" s="6"/>
       <c r="B16" s="8"/>
       <c r="C16" s="8"/>
-      <c r="G16" s="95" t="s">
+      <c r="G16" s="94" t="s">
         <v>16</v>
       </c>
-      <c r="H16" s="96"/>
-      <c r="I16" s="96"/>
-      <c r="L16" s="150"/>
-      <c r="M16" s="150"/>
-      <c r="N16" s="150"/>
+      <c r="H16" s="95"/>
+      <c r="I16" s="95"/>
+      <c r="L16" s="82"/>
+      <c r="M16" s="82"/>
+      <c r="N16" s="82"/>
       <c r="O16" s="31"/>
       <c r="BB16" s="9"/>
     </row>
@@ -4314,12 +4561,12 @@
       <c r="C17" s="8"/>
       <c r="E17" s="17"/>
       <c r="F17" s="18"/>
-      <c r="G17" s="86"/>
-      <c r="H17" s="86"/>
-      <c r="I17" s="86"/>
-      <c r="L17" s="150"/>
-      <c r="M17" s="150"/>
-      <c r="N17" s="150"/>
+      <c r="G17" s="96"/>
+      <c r="H17" s="96"/>
+      <c r="I17" s="96"/>
+      <c r="L17" s="82"/>
+      <c r="M17" s="82"/>
+      <c r="N17" s="82"/>
       <c r="BB17" s="9"/>
     </row>
     <row r="18" spans="1:60" x14ac:dyDescent="0.35">
@@ -4448,14 +4695,14 @@
     <row r="22" spans="1:60" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="6"/>
       <c r="B22" s="22"/>
-      <c r="C22" s="84" t="s">
+      <c r="C22" s="107" t="s">
         <v>14</v>
       </c>
-      <c r="D22" s="84"/>
-      <c r="E22" s="84"/>
-      <c r="F22" s="84"/>
-      <c r="G22" s="84"/>
-      <c r="H22" s="84"/>
+      <c r="D22" s="107"/>
+      <c r="E22" s="107"/>
+      <c r="F22" s="107"/>
+      <c r="G22" s="107"/>
+      <c r="H22" s="107"/>
       <c r="I22" s="23"/>
       <c r="O22" s="24"/>
       <c r="P22" s="40"/>
@@ -4468,36 +4715,36 @@
       <c r="X22" s="31"/>
       <c r="Y22" s="31"/>
       <c r="AA22" s="22"/>
-      <c r="AB22" s="84" t="s">
+      <c r="AB22" s="107" t="s">
         <v>23</v>
       </c>
-      <c r="AC22" s="84"/>
-      <c r="AD22" s="84"/>
-      <c r="AE22" s="84"/>
-      <c r="AF22" s="84"/>
-      <c r="AG22" s="84"/>
+      <c r="AC22" s="107"/>
+      <c r="AD22" s="107"/>
+      <c r="AE22" s="107"/>
+      <c r="AF22" s="107"/>
+      <c r="AG22" s="107"/>
       <c r="AH22" s="23"/>
       <c r="AM22" s="22"/>
-      <c r="AN22" s="82" t="s">
+      <c r="AN22" s="108" t="s">
         <v>28</v>
       </c>
-      <c r="AO22" s="83"/>
-      <c r="AP22" s="83"/>
-      <c r="AQ22" s="83"/>
-      <c r="AR22" s="83"/>
-      <c r="AS22" s="83"/>
+      <c r="AO22" s="109"/>
+      <c r="AP22" s="109"/>
+      <c r="AQ22" s="109"/>
+      <c r="AR22" s="109"/>
+      <c r="AS22" s="109"/>
       <c r="AT22" s="23"/>
       <c r="BB22" s="9"/>
     </row>
     <row r="23" spans="1:60" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="6"/>
       <c r="B23" s="12"/>
-      <c r="C23" s="84"/>
-      <c r="D23" s="84"/>
-      <c r="E23" s="84"/>
-      <c r="F23" s="84"/>
-      <c r="G23" s="84"/>
-      <c r="H23" s="84"/>
+      <c r="C23" s="107"/>
+      <c r="D23" s="107"/>
+      <c r="E23" s="107"/>
+      <c r="F23" s="107"/>
+      <c r="G23" s="107"/>
+      <c r="H23" s="107"/>
       <c r="I23" s="13"/>
       <c r="O23" s="25"/>
       <c r="P23" s="40"/>
@@ -4508,20 +4755,20 @@
       <c r="U23" s="40"/>
       <c r="V23" s="25"/>
       <c r="AA23" s="12"/>
-      <c r="AB23" s="84"/>
-      <c r="AC23" s="84"/>
-      <c r="AD23" s="84"/>
-      <c r="AE23" s="84"/>
-      <c r="AF23" s="84"/>
-      <c r="AG23" s="84"/>
+      <c r="AB23" s="107"/>
+      <c r="AC23" s="107"/>
+      <c r="AD23" s="107"/>
+      <c r="AE23" s="107"/>
+      <c r="AF23" s="107"/>
+      <c r="AG23" s="107"/>
       <c r="AH23" s="13"/>
       <c r="AM23" s="12"/>
-      <c r="AN23" s="83"/>
-      <c r="AO23" s="83"/>
-      <c r="AP23" s="83"/>
-      <c r="AQ23" s="83"/>
-      <c r="AR23" s="83"/>
-      <c r="AS23" s="83"/>
+      <c r="AN23" s="109"/>
+      <c r="AO23" s="109"/>
+      <c r="AP23" s="109"/>
+      <c r="AQ23" s="109"/>
+      <c r="AR23" s="109"/>
+      <c r="AS23" s="109"/>
       <c r="AT23" s="13"/>
       <c r="BB23" s="9"/>
     </row>
@@ -4552,12 +4799,12 @@
       <c r="AF24" s="18"/>
       <c r="AG24" s="18"/>
       <c r="AH24" s="13"/>
-      <c r="AI24" s="87" t="s">
+      <c r="AI24" s="110" t="s">
         <v>31</v>
       </c>
-      <c r="AJ24" s="86"/>
-      <c r="AK24" s="86"/>
-      <c r="AL24" s="88"/>
+      <c r="AJ24" s="96"/>
+      <c r="AK24" s="96"/>
+      <c r="AL24" s="111"/>
       <c r="AM24" s="12"/>
       <c r="AN24" s="25"/>
       <c r="AO24" s="25"/>
@@ -4595,10 +4842,10 @@
       <c r="AF25" s="24"/>
       <c r="AG25" s="24"/>
       <c r="AH25" s="23"/>
-      <c r="AI25" s="87"/>
-      <c r="AJ25" s="86"/>
-      <c r="AK25" s="86"/>
-      <c r="AL25" s="88"/>
+      <c r="AI25" s="110"/>
+      <c r="AJ25" s="96"/>
+      <c r="AK25" s="96"/>
+      <c r="AL25" s="111"/>
       <c r="AM25" s="22"/>
       <c r="AN25" s="24"/>
       <c r="AO25" s="24"/>
@@ -4648,44 +4895,44 @@
     </row>
     <row r="27" spans="1:60" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="29"/>
-      <c r="B27" s="94" t="s">
+      <c r="B27" s="93" t="s">
         <v>18</v>
       </c>
-      <c r="C27" s="94"/>
-      <c r="D27" s="94"/>
-      <c r="E27" s="94"/>
-      <c r="F27" s="94"/>
-      <c r="G27" s="94"/>
-      <c r="H27" s="94"/>
-      <c r="I27" s="94"/>
-      <c r="O27" s="85"/>
-      <c r="P27" s="85"/>
-      <c r="Q27" s="85"/>
-      <c r="R27" s="85"/>
-      <c r="S27" s="85"/>
-      <c r="T27" s="85"/>
-      <c r="U27" s="85"/>
-      <c r="V27" s="85"/>
-      <c r="AA27" s="85" t="s">
+      <c r="C27" s="93"/>
+      <c r="D27" s="93"/>
+      <c r="E27" s="93"/>
+      <c r="F27" s="93"/>
+      <c r="G27" s="93"/>
+      <c r="H27" s="93"/>
+      <c r="I27" s="93"/>
+      <c r="O27" s="92"/>
+      <c r="P27" s="92"/>
+      <c r="Q27" s="92"/>
+      <c r="R27" s="92"/>
+      <c r="S27" s="92"/>
+      <c r="T27" s="92"/>
+      <c r="U27" s="92"/>
+      <c r="V27" s="92"/>
+      <c r="AA27" s="92" t="s">
         <v>24</v>
       </c>
-      <c r="AB27" s="85"/>
-      <c r="AC27" s="85"/>
-      <c r="AD27" s="85"/>
-      <c r="AE27" s="85"/>
-      <c r="AF27" s="85"/>
-      <c r="AG27" s="85"/>
-      <c r="AH27" s="85"/>
-      <c r="AM27" s="85" t="s">
+      <c r="AB27" s="92"/>
+      <c r="AC27" s="92"/>
+      <c r="AD27" s="92"/>
+      <c r="AE27" s="92"/>
+      <c r="AF27" s="92"/>
+      <c r="AG27" s="92"/>
+      <c r="AH27" s="92"/>
+      <c r="AM27" s="92" t="s">
         <v>29</v>
       </c>
-      <c r="AN27" s="85"/>
-      <c r="AO27" s="85"/>
-      <c r="AP27" s="85"/>
-      <c r="AQ27" s="85"/>
-      <c r="AR27" s="85"/>
-      <c r="AS27" s="85"/>
-      <c r="AT27" s="85"/>
+      <c r="AN27" s="92"/>
+      <c r="AO27" s="92"/>
+      <c r="AP27" s="92"/>
+      <c r="AQ27" s="92"/>
+      <c r="AR27" s="92"/>
+      <c r="AS27" s="92"/>
+      <c r="AT27" s="92"/>
       <c r="BB27" s="11"/>
     </row>
     <row r="28" spans="1:60" x14ac:dyDescent="0.15">
@@ -6268,18 +6515,14 @@
     </row>
   </sheetData>
   <mergeCells count="36">
-    <mergeCell ref="A2:E2"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="F2:L2"/>
-    <mergeCell ref="F1:L1"/>
-    <mergeCell ref="M3:P3"/>
-    <mergeCell ref="M2:P2"/>
-    <mergeCell ref="M1:P1"/>
-    <mergeCell ref="M4:P4"/>
-    <mergeCell ref="Q4:W4"/>
-    <mergeCell ref="Q3:W3"/>
-    <mergeCell ref="Q2:W2"/>
-    <mergeCell ref="Q1:W1"/>
+    <mergeCell ref="O27:V27"/>
+    <mergeCell ref="AJ10:AK11"/>
+    <mergeCell ref="AI24:AL25"/>
+    <mergeCell ref="AB11:AG12"/>
+    <mergeCell ref="P11:U12"/>
+    <mergeCell ref="P9:U10"/>
+    <mergeCell ref="X10:Y11"/>
+    <mergeCell ref="AB22:AG23"/>
     <mergeCell ref="J10:N11"/>
     <mergeCell ref="AA7:AH7"/>
     <mergeCell ref="AM7:AT7"/>
@@ -6296,14 +6539,18 @@
     <mergeCell ref="AA27:AH27"/>
     <mergeCell ref="AN22:AS23"/>
     <mergeCell ref="AN11:AS12"/>
-    <mergeCell ref="O27:V27"/>
-    <mergeCell ref="AJ10:AK11"/>
-    <mergeCell ref="AI24:AL25"/>
-    <mergeCell ref="AB11:AG12"/>
-    <mergeCell ref="P11:U12"/>
-    <mergeCell ref="P9:U10"/>
-    <mergeCell ref="X10:Y11"/>
-    <mergeCell ref="AB22:AG23"/>
+    <mergeCell ref="M4:P4"/>
+    <mergeCell ref="Q4:W4"/>
+    <mergeCell ref="Q3:W3"/>
+    <mergeCell ref="Q2:W2"/>
+    <mergeCell ref="Q1:W1"/>
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="F2:L2"/>
+    <mergeCell ref="F1:L1"/>
+    <mergeCell ref="M3:P3"/>
+    <mergeCell ref="M2:P2"/>
+    <mergeCell ref="M1:P1"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6317,7 +6564,7 @@
   <dimension ref="A1:BH53"/>
   <sheetViews>
     <sheetView topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AL16" sqref="AL16:AW17"/>
+      <selection activeCell="AH13" sqref="AH13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.15"/>
@@ -6327,104 +6574,104 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:54" x14ac:dyDescent="0.15">
-      <c r="A1" s="107" t="s">
+      <c r="A1" s="87" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="107"/>
-      <c r="C1" s="107"/>
-      <c r="D1" s="107"/>
-      <c r="E1" s="107"/>
-      <c r="F1" s="108" t="s">
+      <c r="B1" s="87"/>
+      <c r="C1" s="87"/>
+      <c r="D1" s="87"/>
+      <c r="E1" s="87"/>
+      <c r="F1" s="88" t="s">
         <v>7</v>
       </c>
-      <c r="G1" s="108"/>
-      <c r="H1" s="108"/>
-      <c r="I1" s="108"/>
-      <c r="J1" s="108"/>
-      <c r="K1" s="108"/>
-      <c r="L1" s="108"/>
-      <c r="M1" s="107" t="s">
+      <c r="G1" s="88"/>
+      <c r="H1" s="88"/>
+      <c r="I1" s="88"/>
+      <c r="J1" s="88"/>
+      <c r="K1" s="88"/>
+      <c r="L1" s="88"/>
+      <c r="M1" s="87" t="s">
         <v>1</v>
       </c>
-      <c r="N1" s="107"/>
-      <c r="O1" s="107"/>
-      <c r="P1" s="107"/>
-      <c r="Q1" s="108" t="s">
+      <c r="N1" s="87"/>
+      <c r="O1" s="87"/>
+      <c r="P1" s="87"/>
+      <c r="Q1" s="88" t="s">
         <v>9</v>
       </c>
-      <c r="R1" s="108"/>
-      <c r="S1" s="108"/>
-      <c r="T1" s="108"/>
-      <c r="U1" s="108"/>
-      <c r="V1" s="108"/>
-      <c r="W1" s="108"/>
+      <c r="R1" s="88"/>
+      <c r="S1" s="88"/>
+      <c r="T1" s="88"/>
+      <c r="U1" s="88"/>
+      <c r="V1" s="88"/>
+      <c r="W1" s="88"/>
     </row>
     <row r="2" spans="1:54" x14ac:dyDescent="0.15">
-      <c r="A2" s="107" t="s">
+      <c r="A2" s="87" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="107"/>
-      <c r="C2" s="107"/>
-      <c r="D2" s="107"/>
-      <c r="E2" s="107"/>
-      <c r="F2" s="108" t="s">
+      <c r="B2" s="87"/>
+      <c r="C2" s="87"/>
+      <c r="D2" s="87"/>
+      <c r="E2" s="87"/>
+      <c r="F2" s="88" t="s">
         <v>8</v>
       </c>
-      <c r="G2" s="108"/>
-      <c r="H2" s="108"/>
-      <c r="I2" s="108"/>
-      <c r="J2" s="108"/>
-      <c r="K2" s="108"/>
-      <c r="L2" s="108"/>
-      <c r="M2" s="107" t="s">
+      <c r="G2" s="88"/>
+      <c r="H2" s="88"/>
+      <c r="I2" s="88"/>
+      <c r="J2" s="88"/>
+      <c r="K2" s="88"/>
+      <c r="L2" s="88"/>
+      <c r="M2" s="87" t="s">
         <v>3</v>
       </c>
-      <c r="N2" s="107"/>
-      <c r="O2" s="107"/>
-      <c r="P2" s="107"/>
-      <c r="Q2" s="108" t="s">
+      <c r="N2" s="87"/>
+      <c r="O2" s="87"/>
+      <c r="P2" s="87"/>
+      <c r="Q2" s="88" t="s">
         <v>10</v>
       </c>
-      <c r="R2" s="108"/>
-      <c r="S2" s="108"/>
-      <c r="T2" s="108"/>
-      <c r="U2" s="108"/>
-      <c r="V2" s="108"/>
-      <c r="W2" s="108"/>
+      <c r="R2" s="88"/>
+      <c r="S2" s="88"/>
+      <c r="T2" s="88"/>
+      <c r="U2" s="88"/>
+      <c r="V2" s="88"/>
+      <c r="W2" s="88"/>
     </row>
     <row r="3" spans="1:54" x14ac:dyDescent="0.15">
-      <c r="M3" s="107" t="s">
+      <c r="M3" s="87" t="s">
         <v>4</v>
       </c>
-      <c r="N3" s="107"/>
-      <c r="O3" s="107"/>
-      <c r="P3" s="107"/>
-      <c r="Q3" s="108" t="s">
+      <c r="N3" s="87"/>
+      <c r="O3" s="87"/>
+      <c r="P3" s="87"/>
+      <c r="Q3" s="88" t="s">
         <v>9</v>
       </c>
-      <c r="R3" s="108"/>
-      <c r="S3" s="108"/>
-      <c r="T3" s="108"/>
-      <c r="U3" s="108"/>
-      <c r="V3" s="108"/>
-      <c r="W3" s="108"/>
+      <c r="R3" s="88"/>
+      <c r="S3" s="88"/>
+      <c r="T3" s="88"/>
+      <c r="U3" s="88"/>
+      <c r="V3" s="88"/>
+      <c r="W3" s="88"/>
     </row>
     <row r="4" spans="1:54" x14ac:dyDescent="0.15">
-      <c r="M4" s="107" t="s">
+      <c r="M4" s="87" t="s">
         <v>5</v>
       </c>
-      <c r="N4" s="107"/>
-      <c r="O4" s="107"/>
-      <c r="P4" s="107"/>
-      <c r="Q4" s="108" t="s">
+      <c r="N4" s="87"/>
+      <c r="O4" s="87"/>
+      <c r="P4" s="87"/>
+      <c r="Q4" s="88" t="s">
         <v>33</v>
       </c>
-      <c r="R4" s="108"/>
-      <c r="S4" s="108"/>
-      <c r="T4" s="108"/>
-      <c r="U4" s="108"/>
-      <c r="V4" s="108"/>
-      <c r="W4" s="108"/>
+      <c r="R4" s="88"/>
+      <c r="S4" s="88"/>
+      <c r="T4" s="88"/>
+      <c r="U4" s="88"/>
+      <c r="V4" s="88"/>
+      <c r="W4" s="88"/>
     </row>
     <row r="5" spans="1:54" ht="28.5" x14ac:dyDescent="0.15">
       <c r="A5" s="2" t="s">
@@ -6496,16 +6743,16 @@
     </row>
     <row r="7" spans="1:54" x14ac:dyDescent="0.15">
       <c r="A7" s="6"/>
-      <c r="B7" s="85" t="s">
+      <c r="B7" s="92" t="s">
         <v>17</v>
       </c>
-      <c r="C7" s="85"/>
-      <c r="D7" s="85"/>
-      <c r="E7" s="85"/>
-      <c r="F7" s="85"/>
-      <c r="G7" s="85"/>
-      <c r="H7" s="85"/>
-      <c r="I7" s="85"/>
+      <c r="C7" s="92"/>
+      <c r="D7" s="92"/>
+      <c r="E7" s="92"/>
+      <c r="F7" s="92"/>
+      <c r="G7" s="92"/>
+      <c r="H7" s="92"/>
+      <c r="I7" s="92"/>
       <c r="J7" s="25"/>
       <c r="K7" s="18"/>
       <c r="L7" s="18"/>
@@ -6524,23 +6771,23 @@
       <c r="Y7" s="18"/>
       <c r="Z7" s="18"/>
       <c r="AA7" s="32"/>
-      <c r="AB7" s="133" t="s">
-        <v>79</v>
-      </c>
-      <c r="AC7" s="133"/>
-      <c r="AD7" s="133"/>
-      <c r="AE7" s="133"/>
-      <c r="AF7" s="133"/>
-      <c r="AG7" s="133"/>
-      <c r="AH7" s="133"/>
-      <c r="AI7" s="133"/>
-      <c r="AJ7" s="133"/>
-      <c r="AK7" s="133"/>
-      <c r="AL7" s="133"/>
-      <c r="AM7" s="133"/>
-      <c r="AN7" s="133"/>
-      <c r="AO7" s="133"/>
-      <c r="AP7" s="133"/>
+      <c r="AB7" s="132" t="s">
+        <v>84</v>
+      </c>
+      <c r="AC7" s="132"/>
+      <c r="AD7" s="132"/>
+      <c r="AE7" s="132"/>
+      <c r="AF7" s="132"/>
+      <c r="AG7" s="132"/>
+      <c r="AH7" s="132"/>
+      <c r="AI7" s="132"/>
+      <c r="AJ7" s="132"/>
+      <c r="AK7" s="132"/>
+      <c r="AL7" s="132"/>
+      <c r="AM7" s="132"/>
+      <c r="AN7" s="132"/>
+      <c r="AO7" s="132"/>
+      <c r="AP7" s="132"/>
       <c r="AQ7" s="32"/>
       <c r="AR7" s="32"/>
       <c r="AS7" s="32"/>
@@ -6681,14 +6928,14 @@
       <c r="J10" s="43"/>
       <c r="K10" s="43"/>
       <c r="L10" s="43"/>
-      <c r="M10" s="90" t="s">
+      <c r="M10" s="126" t="s">
         <v>81</v>
       </c>
-      <c r="N10" s="90"/>
-      <c r="O10" s="90"/>
-      <c r="P10" s="90"/>
-      <c r="Q10" s="90"/>
-      <c r="R10" s="90"/>
+      <c r="N10" s="126"/>
+      <c r="O10" s="126"/>
+      <c r="P10" s="126"/>
+      <c r="Q10" s="126"/>
+      <c r="R10" s="126"/>
       <c r="S10" s="39"/>
       <c r="T10" s="39"/>
       <c r="U10" s="39"/>
@@ -6735,10 +6982,10 @@
       <c r="D11" s="100"/>
       <c r="E11" s="24"/>
       <c r="F11" s="24"/>
-      <c r="G11" s="153" t="s">
-        <v>71</v>
-      </c>
-      <c r="H11" s="154"/>
+      <c r="G11" s="122" t="s">
+        <v>70</v>
+      </c>
+      <c r="H11" s="123"/>
       <c r="I11" s="23"/>
       <c r="J11" s="43"/>
       <c r="K11" s="43"/>
@@ -6789,12 +7036,12 @@
     <row r="12" spans="1:54" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="6"/>
       <c r="B12" s="77"/>
-      <c r="C12" s="151"/>
-      <c r="D12" s="152"/>
+      <c r="C12" s="113"/>
+      <c r="D12" s="114"/>
       <c r="E12" s="24"/>
       <c r="F12" s="24"/>
-      <c r="G12" s="155"/>
-      <c r="H12" s="156"/>
+      <c r="G12" s="124"/>
+      <c r="H12" s="125"/>
       <c r="I12" s="13"/>
       <c r="J12" s="18"/>
       <c r="K12" s="18"/>
@@ -6970,20 +7217,18 @@
       <c r="M15" s="18"/>
       <c r="N15" s="50"/>
       <c r="O15" s="25"/>
-      <c r="P15" s="83" t="s">
-        <v>65</v>
-      </c>
-      <c r="Q15" s="83"/>
-      <c r="R15" s="83"/>
-      <c r="S15" s="83"/>
-      <c r="T15" s="25"/>
-      <c r="U15" s="25"/>
-      <c r="V15" s="83" t="s">
+      <c r="P15" s="109" t="s">
         <v>14</v>
       </c>
-      <c r="W15" s="83"/>
-      <c r="X15" s="83"/>
-      <c r="Y15" s="83"/>
+      <c r="Q15" s="109"/>
+      <c r="R15" s="109"/>
+      <c r="S15" s="109"/>
+      <c r="T15" s="109"/>
+      <c r="U15" s="109"/>
+      <c r="V15" s="109"/>
+      <c r="W15" s="109"/>
+      <c r="X15" s="109"/>
+      <c r="Y15" s="109"/>
       <c r="Z15" s="18"/>
       <c r="AA15" s="13"/>
       <c r="AB15" s="25"/>
@@ -6999,12 +7244,14 @@
       <c r="AL15" s="25"/>
       <c r="AM15" s="25"/>
       <c r="AN15" s="25"/>
-      <c r="AO15" s="25"/>
-      <c r="AP15" s="25"/>
-      <c r="AQ15" s="25"/>
-      <c r="AR15" s="25"/>
-      <c r="AS15" s="25"/>
-      <c r="AT15" s="18"/>
+      <c r="AO15" s="109" t="s">
+        <v>83</v>
+      </c>
+      <c r="AP15" s="109"/>
+      <c r="AQ15" s="109"/>
+      <c r="AR15" s="109"/>
+      <c r="AS15" s="109"/>
+      <c r="AT15" s="109"/>
       <c r="AU15" s="18"/>
       <c r="AV15" s="18"/>
       <c r="AW15" s="18"/>
@@ -7014,7 +7261,7 @@
       <c r="BA15" s="18"/>
       <c r="BB15" s="9"/>
     </row>
-    <row r="16" spans="1:54" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:54" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="6"/>
       <c r="B16" s="26"/>
       <c r="C16" s="26"/>
@@ -7043,38 +7290,36 @@
       <c r="Z16" s="18"/>
       <c r="AA16" s="52"/>
       <c r="AB16" s="18"/>
-      <c r="AC16" s="111" t="s">
-        <v>77</v>
-      </c>
-      <c r="AD16" s="110"/>
-      <c r="AE16" s="110"/>
-      <c r="AF16" s="110"/>
-      <c r="AG16" s="110"/>
-      <c r="AH16" s="110"/>
-      <c r="AI16" s="110"/>
+      <c r="AC16" s="127" t="s">
+        <v>75</v>
+      </c>
+      <c r="AD16" s="116"/>
+      <c r="AE16" s="116"/>
+      <c r="AF16" s="116"/>
+      <c r="AG16" s="116"/>
+      <c r="AH16" s="116"/>
+      <c r="AI16" s="116"/>
       <c r="AJ16" s="18"/>
       <c r="AK16" s="51"/>
-      <c r="AL16" s="70"/>
-      <c r="AM16" s="38"/>
-      <c r="AN16" s="38"/>
-      <c r="AO16" s="38"/>
-      <c r="AP16" s="38"/>
-      <c r="AQ16" s="38"/>
-      <c r="AR16" s="38"/>
-      <c r="AS16" s="38"/>
-      <c r="AT16" s="38"/>
-      <c r="AU16" s="38"/>
-      <c r="AV16" s="157" t="s">
-        <v>73</v>
-      </c>
-      <c r="AW16" s="158"/>
+      <c r="AL16" s="37"/>
+      <c r="AM16" s="18"/>
+      <c r="AN16" s="18"/>
+      <c r="AO16" s="109"/>
+      <c r="AP16" s="109"/>
+      <c r="AQ16" s="109"/>
+      <c r="AR16" s="109"/>
+      <c r="AS16" s="109"/>
+      <c r="AT16" s="109"/>
+      <c r="AU16" s="18"/>
+      <c r="AV16" s="174"/>
+      <c r="AW16" s="174"/>
       <c r="AX16" s="52"/>
       <c r="AY16" s="18"/>
       <c r="AZ16" s="18"/>
       <c r="BA16" s="18"/>
       <c r="BB16" s="9"/>
     </row>
-    <row r="17" spans="1:60" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:60" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="6"/>
       <c r="B17" s="26"/>
       <c r="C17" s="26"/>
@@ -7088,35 +7333,32 @@
       <c r="K17" s="18"/>
       <c r="L17" s="44"/>
       <c r="M17" s="44"/>
-      <c r="N17" s="87" t="s">
-        <v>68</v>
-      </c>
-      <c r="O17" s="88"/>
-      <c r="P17" s="161"/>
-      <c r="Q17" s="114"/>
-      <c r="R17" s="114"/>
-      <c r="S17" s="162"/>
-      <c r="T17" s="18"/>
-      <c r="U17" s="110" t="s">
-        <v>74</v>
-      </c>
-      <c r="V17" s="88"/>
-      <c r="W17" s="161"/>
-      <c r="X17" s="114"/>
-      <c r="Y17" s="114"/>
-      <c r="Z17" s="162"/>
+      <c r="N17" s="75"/>
+      <c r="O17" s="37"/>
+      <c r="P17" s="116" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q17" s="116"/>
+      <c r="R17" s="37"/>
+      <c r="S17" s="133"/>
+      <c r="T17" s="95"/>
+      <c r="U17" s="167"/>
+      <c r="W17" s="37"/>
+      <c r="X17" s="37"/>
+      <c r="Y17" s="37"/>
+      <c r="Z17" s="37"/>
       <c r="AA17" s="52"/>
       <c r="AB17" s="18"/>
-      <c r="AC17" s="110"/>
-      <c r="AD17" s="110"/>
-      <c r="AE17" s="110"/>
-      <c r="AF17" s="110"/>
-      <c r="AG17" s="110"/>
-      <c r="AH17" s="110"/>
-      <c r="AI17" s="110"/>
+      <c r="AC17" s="116"/>
+      <c r="AD17" s="116"/>
+      <c r="AE17" s="116"/>
+      <c r="AF17" s="116"/>
+      <c r="AG17" s="116"/>
+      <c r="AH17" s="116"/>
+      <c r="AI17" s="116"/>
       <c r="AJ17" s="18"/>
       <c r="AK17" s="51"/>
-      <c r="AL17" s="50"/>
+      <c r="AL17" s="18"/>
       <c r="AM17" s="18"/>
       <c r="AN17" s="18"/>
       <c r="AO17" s="18"/>
@@ -7126,8 +7368,8 @@
       <c r="AS17" s="18"/>
       <c r="AT17" s="18"/>
       <c r="AU17" s="18"/>
-      <c r="AV17" s="159"/>
-      <c r="AW17" s="160"/>
+      <c r="AV17" s="174"/>
+      <c r="AW17" s="174"/>
       <c r="AX17" s="52"/>
       <c r="AY17" s="18"/>
       <c r="AZ17" s="18"/>
@@ -7150,44 +7392,44 @@
       <c r="M18" s="18"/>
       <c r="N18" s="50"/>
       <c r="O18" s="18"/>
-      <c r="P18" s="18"/>
-      <c r="Q18" s="18"/>
+      <c r="P18" s="116" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q18" s="116"/>
       <c r="R18" s="37"/>
-      <c r="S18" s="37"/>
-      <c r="T18" s="37"/>
-      <c r="U18" s="110" t="s">
-        <v>75</v>
-      </c>
-      <c r="V18" s="88"/>
-      <c r="W18" s="117"/>
-      <c r="X18" s="97"/>
-      <c r="Y18" s="97"/>
-      <c r="Z18" s="149"/>
+      <c r="S18" s="117"/>
+      <c r="T18" s="118"/>
+      <c r="U18" s="118"/>
+      <c r="V18" s="118"/>
+      <c r="W18" s="118"/>
+      <c r="X18" s="118"/>
+      <c r="Y18" s="119"/>
+      <c r="Z18" s="37"/>
       <c r="AA18" s="52"/>
       <c r="AB18" s="18"/>
-      <c r="AC18" s="110"/>
-      <c r="AD18" s="110"/>
-      <c r="AE18" s="110"/>
-      <c r="AF18" s="110"/>
-      <c r="AG18" s="110"/>
-      <c r="AH18" s="110"/>
-      <c r="AI18" s="110"/>
+      <c r="AC18" s="116"/>
+      <c r="AD18" s="116"/>
+      <c r="AE18" s="116"/>
+      <c r="AF18" s="116"/>
+      <c r="AG18" s="116"/>
+      <c r="AH18" s="116"/>
+      <c r="AI18" s="116"/>
       <c r="AJ18" s="18"/>
       <c r="AK18" s="50"/>
-      <c r="AL18" s="166" t="s">
+      <c r="AL18" s="127" t="s">
         <v>32</v>
       </c>
-      <c r="AM18" s="111"/>
-      <c r="AN18" s="111"/>
-      <c r="AO18" s="111"/>
-      <c r="AP18" s="111"/>
-      <c r="AQ18" s="111"/>
-      <c r="AR18" s="111"/>
-      <c r="AS18" s="111"/>
-      <c r="AT18" s="111"/>
-      <c r="AU18" s="111"/>
-      <c r="AV18" s="111"/>
-      <c r="AW18" s="167"/>
+      <c r="AM18" s="127"/>
+      <c r="AN18" s="127"/>
+      <c r="AO18" s="127"/>
+      <c r="AP18" s="127"/>
+      <c r="AQ18" s="127"/>
+      <c r="AR18" s="127"/>
+      <c r="AS18" s="127"/>
+      <c r="AT18" s="127"/>
+      <c r="AU18" s="127"/>
+      <c r="AV18" s="127"/>
+      <c r="AW18" s="127"/>
       <c r="AX18" s="52"/>
       <c r="AY18" s="18"/>
       <c r="AZ18" s="18"/>
@@ -7208,23 +7450,21 @@
       <c r="K19" s="18"/>
       <c r="L19" s="18"/>
       <c r="M19" s="18"/>
-      <c r="N19" s="164" t="s">
-        <v>69</v>
-      </c>
-      <c r="O19" s="165"/>
-      <c r="P19" s="104"/>
-      <c r="Q19" s="105"/>
-      <c r="R19" s="105"/>
-      <c r="S19" s="106"/>
-      <c r="T19" s="37"/>
-      <c r="U19" s="110" t="s">
+      <c r="N19" s="170"/>
+      <c r="O19" s="35"/>
+      <c r="P19" s="116" t="s">
         <v>68</v>
       </c>
-      <c r="V19" s="88"/>
-      <c r="W19" s="117"/>
-      <c r="X19" s="97"/>
-      <c r="Y19" s="97"/>
-      <c r="Z19" s="149"/>
+      <c r="Q19" s="116"/>
+      <c r="R19" s="24"/>
+      <c r="S19" s="117"/>
+      <c r="T19" s="118"/>
+      <c r="U19" s="118"/>
+      <c r="V19" s="118"/>
+      <c r="W19" s="118"/>
+      <c r="X19" s="118"/>
+      <c r="Y19" s="119"/>
+      <c r="Z19" s="37"/>
       <c r="AA19" s="23"/>
       <c r="AB19" s="24"/>
       <c r="AC19" s="24"/>
@@ -7236,31 +7476,33 @@
       <c r="AI19" s="18"/>
       <c r="AJ19" s="18"/>
       <c r="AK19" s="50"/>
-      <c r="AL19" s="166"/>
-      <c r="AM19" s="111"/>
-      <c r="AN19" s="111"/>
-      <c r="AO19" s="111"/>
-      <c r="AP19" s="111"/>
-      <c r="AQ19" s="111"/>
-      <c r="AR19" s="111"/>
-      <c r="AS19" s="111"/>
-      <c r="AT19" s="111"/>
-      <c r="AU19" s="111"/>
-      <c r="AV19" s="111"/>
-      <c r="AW19" s="167"/>
+      <c r="AL19" s="127"/>
+      <c r="AM19" s="127"/>
+      <c r="AN19" s="127"/>
+      <c r="AO19" s="127"/>
+      <c r="AP19" s="127"/>
+      <c r="AQ19" s="127"/>
+      <c r="AR19" s="127"/>
+      <c r="AS19" s="127"/>
+      <c r="AT19" s="127"/>
+      <c r="AU19" s="127"/>
+      <c r="AV19" s="127"/>
+      <c r="AW19" s="127"/>
       <c r="AX19" s="23"/>
       <c r="AY19" s="18"/>
       <c r="AZ19" s="18"/>
       <c r="BA19" s="18"/>
       <c r="BB19" s="9"/>
     </row>
-    <row r="20" spans="1:60" x14ac:dyDescent="0.45">
-      <c r="A20" s="6"/>
-      <c r="B20" s="24"/>
-      <c r="C20" s="24"/>
-      <c r="D20" s="24"/>
-      <c r="E20" s="24"/>
-      <c r="F20" s="24"/>
+    <row r="20" spans="1:60" x14ac:dyDescent="0.15">
+      <c r="A20" s="168" t="s">
+        <v>77</v>
+      </c>
+      <c r="B20" s="169"/>
+      <c r="C20" s="169"/>
+      <c r="D20" s="169"/>
+      <c r="E20" s="169"/>
+      <c r="F20" s="169"/>
       <c r="G20" s="24"/>
       <c r="H20" s="24"/>
       <c r="I20" s="24"/>
@@ -7270,19 +7512,19 @@
       <c r="M20" s="18"/>
       <c r="N20" s="50"/>
       <c r="O20" s="24"/>
-      <c r="P20" s="41"/>
-      <c r="Q20" s="33"/>
+      <c r="P20" s="116" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q20" s="116"/>
       <c r="R20" s="37"/>
-      <c r="S20" s="37"/>
-      <c r="T20" s="37"/>
-      <c r="U20" s="110" t="s">
-        <v>70</v>
-      </c>
-      <c r="V20" s="88"/>
-      <c r="W20" s="117"/>
-      <c r="X20" s="97"/>
-      <c r="Y20" s="97"/>
-      <c r="Z20" s="149"/>
+      <c r="S20" s="117"/>
+      <c r="T20" s="118"/>
+      <c r="U20" s="118"/>
+      <c r="V20" s="118"/>
+      <c r="W20" s="118"/>
+      <c r="X20" s="118"/>
+      <c r="Y20" s="119"/>
+      <c r="Z20" s="37"/>
       <c r="AA20" s="23"/>
       <c r="AB20" s="24"/>
       <c r="AC20" s="24"/>
@@ -7294,18 +7536,18 @@
       <c r="AI20" s="18"/>
       <c r="AJ20" s="18"/>
       <c r="AK20" s="50"/>
-      <c r="AL20" s="166"/>
-      <c r="AM20" s="111"/>
-      <c r="AN20" s="111"/>
-      <c r="AO20" s="111"/>
-      <c r="AP20" s="111"/>
-      <c r="AQ20" s="111"/>
-      <c r="AR20" s="111"/>
-      <c r="AS20" s="111"/>
-      <c r="AT20" s="111"/>
-      <c r="AU20" s="111"/>
-      <c r="AV20" s="111"/>
-      <c r="AW20" s="167"/>
+      <c r="AL20" s="127"/>
+      <c r="AM20" s="127"/>
+      <c r="AN20" s="127"/>
+      <c r="AO20" s="127"/>
+      <c r="AP20" s="127"/>
+      <c r="AQ20" s="127"/>
+      <c r="AR20" s="127"/>
+      <c r="AS20" s="127"/>
+      <c r="AT20" s="127"/>
+      <c r="AU20" s="127"/>
+      <c r="AV20" s="127"/>
+      <c r="AW20" s="127"/>
       <c r="AX20" s="23"/>
       <c r="AY20" s="18"/>
       <c r="AZ20" s="18"/>
@@ -7313,12 +7555,12 @@
       <c r="BB20" s="9"/>
     </row>
     <row r="21" spans="1:60" x14ac:dyDescent="0.45">
-      <c r="A21" s="6"/>
-      <c r="B21" s="24"/>
-      <c r="C21" s="24"/>
-      <c r="D21" s="24"/>
-      <c r="E21" s="24"/>
-      <c r="F21" s="24"/>
+      <c r="A21" s="168"/>
+      <c r="B21" s="169"/>
+      <c r="C21" s="169"/>
+      <c r="D21" s="169"/>
+      <c r="E21" s="169"/>
+      <c r="F21" s="169"/>
       <c r="G21" s="24"/>
       <c r="H21" s="24"/>
       <c r="I21" s="24"/>
@@ -7328,19 +7570,19 @@
       <c r="M21" s="18"/>
       <c r="N21" s="50"/>
       <c r="O21" s="24"/>
-      <c r="P21" s="33"/>
-      <c r="Q21" s="33"/>
+      <c r="P21" s="116" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q21" s="116"/>
       <c r="R21" s="33"/>
-      <c r="S21" s="33"/>
-      <c r="T21" s="33"/>
-      <c r="U21" s="110" t="s">
-        <v>76</v>
-      </c>
-      <c r="V21" s="88"/>
-      <c r="W21" s="117"/>
-      <c r="X21" s="97"/>
-      <c r="Y21" s="97"/>
-      <c r="Z21" s="149"/>
+      <c r="S21" s="117"/>
+      <c r="T21" s="118"/>
+      <c r="U21" s="118"/>
+      <c r="V21" s="118"/>
+      <c r="W21" s="118"/>
+      <c r="X21" s="118"/>
+      <c r="Y21" s="119"/>
+      <c r="Z21" s="37"/>
       <c r="AA21" s="23"/>
       <c r="AB21" s="24"/>
       <c r="AC21" s="24"/>
@@ -7352,7 +7594,7 @@
       <c r="AI21" s="18"/>
       <c r="AJ21" s="18"/>
       <c r="AK21" s="50"/>
-      <c r="AL21" s="22"/>
+      <c r="AL21" s="24"/>
       <c r="AM21" s="33"/>
       <c r="AN21" s="33"/>
       <c r="AO21" s="33"/>
@@ -7363,7 +7605,7 @@
       <c r="AT21" s="18"/>
       <c r="AU21" s="37"/>
       <c r="AV21" s="37"/>
-      <c r="AW21" s="52"/>
+      <c r="AW21" s="18"/>
       <c r="AX21" s="23"/>
       <c r="AY21" s="18"/>
       <c r="AZ21" s="18"/>
@@ -7408,18 +7650,20 @@
       <c r="AI22" s="18"/>
       <c r="AJ22" s="18"/>
       <c r="AK22" s="50"/>
-      <c r="AL22" s="56"/>
-      <c r="AM22" s="168"/>
-      <c r="AN22" s="169"/>
-      <c r="AO22" s="53"/>
-      <c r="AP22" s="53"/>
-      <c r="AQ22" s="53"/>
-      <c r="AR22" s="53"/>
-      <c r="AS22" s="53"/>
-      <c r="AT22" s="53"/>
-      <c r="AU22" s="53"/>
-      <c r="AV22" s="62"/>
-      <c r="AW22" s="58"/>
+      <c r="AL22" s="24"/>
+      <c r="AM22" s="175" t="s">
+        <v>82</v>
+      </c>
+      <c r="AN22" s="176"/>
+      <c r="AO22" s="176"/>
+      <c r="AP22" s="176"/>
+      <c r="AQ22" s="176"/>
+      <c r="AR22" s="176"/>
+      <c r="AS22" s="176"/>
+      <c r="AT22" s="176"/>
+      <c r="AU22" s="176"/>
+      <c r="AV22" s="123"/>
+      <c r="AW22" s="18"/>
       <c r="AX22" s="23"/>
       <c r="AY22" s="18"/>
       <c r="AZ22" s="18"/>
@@ -7445,10 +7689,12 @@
       <c r="P23" s="40"/>
       <c r="Q23" s="40"/>
       <c r="R23" s="40"/>
-      <c r="S23" s="40"/>
-      <c r="T23" s="40"/>
-      <c r="U23" s="40"/>
-      <c r="V23" s="25"/>
+      <c r="S23" s="171" t="s">
+        <v>80</v>
+      </c>
+      <c r="T23" s="172"/>
+      <c r="U23" s="172"/>
+      <c r="V23" s="173"/>
       <c r="W23" s="18"/>
       <c r="X23" s="18"/>
       <c r="Y23" s="18"/>
@@ -7465,16 +7711,16 @@
       <c r="AJ23" s="18"/>
       <c r="AK23" s="50"/>
       <c r="AL23" s="25"/>
-      <c r="AM23" s="40"/>
-      <c r="AN23" s="32"/>
-      <c r="AO23" s="32"/>
-      <c r="AP23" s="32"/>
-      <c r="AQ23" s="32"/>
-      <c r="AR23" s="32"/>
-      <c r="AS23" s="32"/>
-      <c r="AT23" s="32"/>
-      <c r="AU23" s="32"/>
-      <c r="AV23" s="18"/>
+      <c r="AM23" s="124"/>
+      <c r="AN23" s="177"/>
+      <c r="AO23" s="177"/>
+      <c r="AP23" s="177"/>
+      <c r="AQ23" s="177"/>
+      <c r="AR23" s="177"/>
+      <c r="AS23" s="177"/>
+      <c r="AT23" s="177"/>
+      <c r="AU23" s="177"/>
+      <c r="AV23" s="125"/>
       <c r="AW23" s="18"/>
       <c r="AX23" s="13"/>
       <c r="AY23" s="18"/>
@@ -7665,20 +7911,20 @@
       <c r="L27" s="30"/>
       <c r="M27" s="30"/>
       <c r="N27" s="30"/>
-      <c r="O27" s="112" t="s">
-        <v>72</v>
-      </c>
-      <c r="P27" s="112"/>
-      <c r="Q27" s="112"/>
-      <c r="R27" s="112"/>
-      <c r="S27" s="112"/>
-      <c r="T27" s="112"/>
-      <c r="U27" s="112"/>
-      <c r="V27" s="112"/>
-      <c r="W27" s="112"/>
-      <c r="X27" s="112"/>
-      <c r="Y27" s="112"/>
-      <c r="Z27" s="112"/>
+      <c r="O27" s="120" t="s">
+        <v>78</v>
+      </c>
+      <c r="P27" s="120"/>
+      <c r="Q27" s="120"/>
+      <c r="R27" s="120"/>
+      <c r="S27" s="120"/>
+      <c r="T27" s="120"/>
+      <c r="U27" s="120"/>
+      <c r="V27" s="120"/>
+      <c r="W27" s="120"/>
+      <c r="X27" s="120"/>
+      <c r="Y27" s="120"/>
+      <c r="Z27" s="120"/>
       <c r="AA27" s="53"/>
       <c r="AB27" s="53"/>
       <c r="AC27" s="53"/>
@@ -7690,20 +7936,20 @@
       <c r="AI27" s="30"/>
       <c r="AJ27" s="30"/>
       <c r="AK27" s="30"/>
-      <c r="AL27" s="113" t="s">
-        <v>78</v>
-      </c>
-      <c r="AM27" s="114"/>
-      <c r="AN27" s="114"/>
-      <c r="AO27" s="114"/>
-      <c r="AP27" s="114"/>
-      <c r="AQ27" s="114"/>
-      <c r="AR27" s="114"/>
-      <c r="AS27" s="114"/>
-      <c r="AT27" s="114"/>
-      <c r="AU27" s="114"/>
-      <c r="AV27" s="114"/>
-      <c r="AW27" s="114"/>
+      <c r="AL27" s="121" t="s">
+        <v>79</v>
+      </c>
+      <c r="AM27" s="118"/>
+      <c r="AN27" s="118"/>
+      <c r="AO27" s="118"/>
+      <c r="AP27" s="118"/>
+      <c r="AQ27" s="118"/>
+      <c r="AR27" s="118"/>
+      <c r="AS27" s="118"/>
+      <c r="AT27" s="118"/>
+      <c r="AU27" s="118"/>
+      <c r="AV27" s="118"/>
+      <c r="AW27" s="118"/>
       <c r="AX27" s="30"/>
       <c r="AY27" s="30"/>
       <c r="AZ27" s="30"/>
@@ -9289,37 +9535,7 @@
       <c r="BG53" s="18"/>
     </row>
   </sheetData>
-  <mergeCells count="39">
-    <mergeCell ref="C11:D12"/>
-    <mergeCell ref="W18:Z18"/>
-    <mergeCell ref="W20:Z20"/>
-    <mergeCell ref="U17:V17"/>
-    <mergeCell ref="U18:V18"/>
-    <mergeCell ref="U19:V19"/>
-    <mergeCell ref="U20:V20"/>
-    <mergeCell ref="U21:V21"/>
-    <mergeCell ref="V15:Y15"/>
-    <mergeCell ref="W17:Z17"/>
-    <mergeCell ref="W19:Z19"/>
-    <mergeCell ref="W21:Z21"/>
-    <mergeCell ref="O27:Z27"/>
-    <mergeCell ref="AL27:AW27"/>
-    <mergeCell ref="B8:I9"/>
-    <mergeCell ref="G11:H12"/>
-    <mergeCell ref="M10:R10"/>
-    <mergeCell ref="AC16:AI18"/>
-    <mergeCell ref="AV16:AW17"/>
-    <mergeCell ref="P19:S19"/>
-    <mergeCell ref="P17:S17"/>
-    <mergeCell ref="N19:O19"/>
-    <mergeCell ref="N17:O17"/>
-    <mergeCell ref="P15:S15"/>
-    <mergeCell ref="AB7:AP7"/>
-    <mergeCell ref="AL18:AW20"/>
-    <mergeCell ref="M3:P3"/>
-    <mergeCell ref="Q3:W3"/>
-    <mergeCell ref="M4:P4"/>
-    <mergeCell ref="Q4:W4"/>
+  <mergeCells count="37">
     <mergeCell ref="B7:I7"/>
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="F1:L1"/>
@@ -9329,6 +9545,34 @@
     <mergeCell ref="F2:L2"/>
     <mergeCell ref="M2:P2"/>
     <mergeCell ref="Q2:W2"/>
+    <mergeCell ref="AB7:AP7"/>
+    <mergeCell ref="AL18:AW20"/>
+    <mergeCell ref="M3:P3"/>
+    <mergeCell ref="Q3:W3"/>
+    <mergeCell ref="M4:P4"/>
+    <mergeCell ref="Q4:W4"/>
+    <mergeCell ref="S17:U17"/>
+    <mergeCell ref="S18:Y18"/>
+    <mergeCell ref="S19:Y19"/>
+    <mergeCell ref="S20:Y20"/>
+    <mergeCell ref="P15:Y15"/>
+    <mergeCell ref="AO15:AT16"/>
+    <mergeCell ref="O27:Z27"/>
+    <mergeCell ref="AL27:AW27"/>
+    <mergeCell ref="B8:I9"/>
+    <mergeCell ref="G11:H12"/>
+    <mergeCell ref="M10:R10"/>
+    <mergeCell ref="AC16:AI18"/>
+    <mergeCell ref="A20:F21"/>
+    <mergeCell ref="S21:Y21"/>
+    <mergeCell ref="S23:V23"/>
+    <mergeCell ref="AM22:AV23"/>
+    <mergeCell ref="P21:Q21"/>
+    <mergeCell ref="C11:D12"/>
+    <mergeCell ref="P17:Q17"/>
+    <mergeCell ref="P18:Q18"/>
+    <mergeCell ref="P19:Q19"/>
+    <mergeCell ref="P20:Q20"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9341,8 +9585,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0F40EA9-9EBA-4B30-826D-651A2BA5371D}">
   <dimension ref="A1:BH53"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="O27" sqref="O27:Z27"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="S25" sqref="S25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.15"/>
@@ -9352,104 +9596,104 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:54" x14ac:dyDescent="0.15">
-      <c r="A1" s="107" t="s">
+      <c r="A1" s="87" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="107"/>
-      <c r="C1" s="107"/>
-      <c r="D1" s="107"/>
-      <c r="E1" s="107"/>
-      <c r="F1" s="108" t="s">
+      <c r="B1" s="87"/>
+      <c r="C1" s="87"/>
+      <c r="D1" s="87"/>
+      <c r="E1" s="87"/>
+      <c r="F1" s="88" t="s">
         <v>7</v>
       </c>
-      <c r="G1" s="108"/>
-      <c r="H1" s="108"/>
-      <c r="I1" s="108"/>
-      <c r="J1" s="108"/>
-      <c r="K1" s="108"/>
-      <c r="L1" s="108"/>
-      <c r="M1" s="107" t="s">
+      <c r="G1" s="88"/>
+      <c r="H1" s="88"/>
+      <c r="I1" s="88"/>
+      <c r="J1" s="88"/>
+      <c r="K1" s="88"/>
+      <c r="L1" s="88"/>
+      <c r="M1" s="87" t="s">
         <v>1</v>
       </c>
-      <c r="N1" s="107"/>
-      <c r="O1" s="107"/>
-      <c r="P1" s="107"/>
-      <c r="Q1" s="108" t="s">
+      <c r="N1" s="87"/>
+      <c r="O1" s="87"/>
+      <c r="P1" s="87"/>
+      <c r="Q1" s="88" t="s">
         <v>9</v>
       </c>
-      <c r="R1" s="108"/>
-      <c r="S1" s="108"/>
-      <c r="T1" s="108"/>
-      <c r="U1" s="108"/>
-      <c r="V1" s="108"/>
-      <c r="W1" s="108"/>
+      <c r="R1" s="88"/>
+      <c r="S1" s="88"/>
+      <c r="T1" s="88"/>
+      <c r="U1" s="88"/>
+      <c r="V1" s="88"/>
+      <c r="W1" s="88"/>
     </row>
     <row r="2" spans="1:54" x14ac:dyDescent="0.15">
-      <c r="A2" s="107" t="s">
+      <c r="A2" s="87" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="107"/>
-      <c r="C2" s="107"/>
-      <c r="D2" s="107"/>
-      <c r="E2" s="107"/>
-      <c r="F2" s="108" t="s">
+      <c r="B2" s="87"/>
+      <c r="C2" s="87"/>
+      <c r="D2" s="87"/>
+      <c r="E2" s="87"/>
+      <c r="F2" s="88" t="s">
         <v>8</v>
       </c>
-      <c r="G2" s="108"/>
-      <c r="H2" s="108"/>
-      <c r="I2" s="108"/>
-      <c r="J2" s="108"/>
-      <c r="K2" s="108"/>
-      <c r="L2" s="108"/>
-      <c r="M2" s="107" t="s">
+      <c r="G2" s="88"/>
+      <c r="H2" s="88"/>
+      <c r="I2" s="88"/>
+      <c r="J2" s="88"/>
+      <c r="K2" s="88"/>
+      <c r="L2" s="88"/>
+      <c r="M2" s="87" t="s">
         <v>3</v>
       </c>
-      <c r="N2" s="107"/>
-      <c r="O2" s="107"/>
-      <c r="P2" s="107"/>
-      <c r="Q2" s="108" t="s">
+      <c r="N2" s="87"/>
+      <c r="O2" s="87"/>
+      <c r="P2" s="87"/>
+      <c r="Q2" s="88" t="s">
         <v>10</v>
       </c>
-      <c r="R2" s="108"/>
-      <c r="S2" s="108"/>
-      <c r="T2" s="108"/>
-      <c r="U2" s="108"/>
-      <c r="V2" s="108"/>
-      <c r="W2" s="108"/>
+      <c r="R2" s="88"/>
+      <c r="S2" s="88"/>
+      <c r="T2" s="88"/>
+      <c r="U2" s="88"/>
+      <c r="V2" s="88"/>
+      <c r="W2" s="88"/>
     </row>
     <row r="3" spans="1:54" x14ac:dyDescent="0.15">
-      <c r="M3" s="107" t="s">
+      <c r="M3" s="87" t="s">
         <v>4</v>
       </c>
-      <c r="N3" s="107"/>
-      <c r="O3" s="107"/>
-      <c r="P3" s="107"/>
-      <c r="Q3" s="108" t="s">
+      <c r="N3" s="87"/>
+      <c r="O3" s="87"/>
+      <c r="P3" s="87"/>
+      <c r="Q3" s="88" t="s">
         <v>9</v>
       </c>
-      <c r="R3" s="108"/>
-      <c r="S3" s="108"/>
-      <c r="T3" s="108"/>
-      <c r="U3" s="108"/>
-      <c r="V3" s="108"/>
-      <c r="W3" s="108"/>
+      <c r="R3" s="88"/>
+      <c r="S3" s="88"/>
+      <c r="T3" s="88"/>
+      <c r="U3" s="88"/>
+      <c r="V3" s="88"/>
+      <c r="W3" s="88"/>
     </row>
     <row r="4" spans="1:54" x14ac:dyDescent="0.15">
-      <c r="M4" s="107" t="s">
+      <c r="M4" s="87" t="s">
         <v>5</v>
       </c>
-      <c r="N4" s="107"/>
-      <c r="O4" s="107"/>
-      <c r="P4" s="107"/>
-      <c r="Q4" s="108" t="s">
+      <c r="N4" s="87"/>
+      <c r="O4" s="87"/>
+      <c r="P4" s="87"/>
+      <c r="Q4" s="88" t="s">
         <v>33</v>
       </c>
-      <c r="R4" s="108"/>
-      <c r="S4" s="108"/>
-      <c r="T4" s="108"/>
-      <c r="U4" s="108"/>
-      <c r="V4" s="108"/>
-      <c r="W4" s="108"/>
+      <c r="R4" s="88"/>
+      <c r="S4" s="88"/>
+      <c r="T4" s="88"/>
+      <c r="U4" s="88"/>
+      <c r="V4" s="88"/>
+      <c r="W4" s="88"/>
     </row>
     <row r="5" spans="1:54" ht="28.5" x14ac:dyDescent="0.15">
       <c r="A5" s="2" t="s">
@@ -9521,16 +9765,16 @@
     </row>
     <row r="7" spans="1:54" x14ac:dyDescent="0.15">
       <c r="A7" s="6"/>
-      <c r="B7" s="85" t="s">
+      <c r="B7" s="92" t="s">
         <v>17</v>
       </c>
-      <c r="C7" s="85"/>
-      <c r="D7" s="85"/>
-      <c r="E7" s="85"/>
-      <c r="F7" s="85"/>
-      <c r="G7" s="85"/>
-      <c r="H7" s="85"/>
-      <c r="I7" s="85"/>
+      <c r="C7" s="92"/>
+      <c r="D7" s="92"/>
+      <c r="E7" s="92"/>
+      <c r="F7" s="92"/>
+      <c r="G7" s="92"/>
+      <c r="H7" s="92"/>
+      <c r="I7" s="92"/>
       <c r="J7" s="25"/>
       <c r="K7" s="18"/>
       <c r="L7" s="18"/>
@@ -9703,16 +9947,16 @@
       <c r="I10" s="23"/>
       <c r="J10" s="43"/>
       <c r="K10" s="43"/>
-      <c r="L10" s="110" t="s">
+      <c r="L10" s="116" t="s">
         <v>65</v>
       </c>
-      <c r="M10" s="110"/>
-      <c r="N10" s="110"/>
-      <c r="O10" s="110"/>
-      <c r="P10" s="110"/>
-      <c r="Q10" s="110"/>
-      <c r="R10" s="110"/>
-      <c r="S10" s="110"/>
+      <c r="M10" s="116"/>
+      <c r="N10" s="116"/>
+      <c r="O10" s="116"/>
+      <c r="P10" s="116"/>
+      <c r="Q10" s="116"/>
+      <c r="R10" s="116"/>
+      <c r="S10" s="116"/>
       <c r="T10" s="37"/>
       <c r="U10" s="37"/>
       <c r="V10" s="24"/>
@@ -9875,28 +10119,28 @@
       <c r="K13" s="18"/>
       <c r="L13" s="18"/>
       <c r="M13" s="18"/>
-      <c r="N13" s="116"/>
-      <c r="O13" s="96"/>
-      <c r="P13" s="118" t="s">
+      <c r="N13" s="133"/>
+      <c r="O13" s="95"/>
+      <c r="P13" s="134" t="s">
         <v>31</v>
       </c>
-      <c r="Q13" s="118"/>
-      <c r="R13" s="118"/>
-      <c r="S13" s="120" t="s">
+      <c r="Q13" s="134"/>
+      <c r="R13" s="134"/>
+      <c r="S13" s="136" t="s">
         <v>12</v>
       </c>
-      <c r="T13" s="120"/>
-      <c r="U13" s="120"/>
-      <c r="V13" s="118" t="s">
+      <c r="T13" s="136"/>
+      <c r="U13" s="136"/>
+      <c r="V13" s="134" t="s">
         <v>15</v>
       </c>
-      <c r="W13" s="118"/>
-      <c r="X13" s="118"/>
-      <c r="Y13" s="120" t="s">
+      <c r="W13" s="134"/>
+      <c r="X13" s="134"/>
+      <c r="Y13" s="136" t="s">
         <v>36</v>
       </c>
-      <c r="Z13" s="120"/>
-      <c r="AA13" s="122"/>
+      <c r="Z13" s="136"/>
+      <c r="AA13" s="138"/>
       <c r="AB13" s="25"/>
       <c r="AC13" s="25"/>
       <c r="AD13" s="18"/>
@@ -9906,28 +10150,28 @@
       <c r="AH13" s="25"/>
       <c r="AI13" s="18"/>
       <c r="AJ13" s="18"/>
-      <c r="AK13" s="116"/>
-      <c r="AL13" s="96"/>
-      <c r="AM13" s="118" t="s">
+      <c r="AK13" s="133"/>
+      <c r="AL13" s="95"/>
+      <c r="AM13" s="134" t="s">
         <v>31</v>
       </c>
-      <c r="AN13" s="118"/>
-      <c r="AO13" s="118"/>
-      <c r="AP13" s="120" t="s">
+      <c r="AN13" s="134"/>
+      <c r="AO13" s="134"/>
+      <c r="AP13" s="136" t="s">
         <v>30</v>
       </c>
-      <c r="AQ13" s="120"/>
-      <c r="AR13" s="120"/>
-      <c r="AS13" s="118" t="s">
+      <c r="AQ13" s="136"/>
+      <c r="AR13" s="136"/>
+      <c r="AS13" s="134" t="s">
         <v>15</v>
       </c>
-      <c r="AT13" s="118"/>
-      <c r="AU13" s="118"/>
-      <c r="AV13" s="120" t="s">
+      <c r="AT13" s="134"/>
+      <c r="AU13" s="134"/>
+      <c r="AV13" s="136" t="s">
         <v>36</v>
       </c>
-      <c r="AW13" s="120"/>
-      <c r="AX13" s="122"/>
+      <c r="AW13" s="136"/>
+      <c r="AX13" s="138"/>
       <c r="AY13" s="18"/>
       <c r="AZ13" s="18"/>
       <c r="BA13" s="18"/>
@@ -9936,7 +10180,7 @@
     <row r="14" spans="1:54" x14ac:dyDescent="0.15">
       <c r="A14" s="6"/>
       <c r="B14" s="101" t="s">
-        <v>14</v>
+        <v>85</v>
       </c>
       <c r="C14" s="102"/>
       <c r="D14" s="102"/>
@@ -9949,20 +10193,20 @@
       <c r="K14" s="18"/>
       <c r="L14" s="18"/>
       <c r="M14" s="18"/>
-      <c r="N14" s="117"/>
+      <c r="N14" s="115"/>
       <c r="O14" s="97"/>
-      <c r="P14" s="119"/>
-      <c r="Q14" s="119"/>
-      <c r="R14" s="119"/>
-      <c r="S14" s="121"/>
-      <c r="T14" s="121"/>
-      <c r="U14" s="121"/>
-      <c r="V14" s="119"/>
-      <c r="W14" s="119"/>
-      <c r="X14" s="119"/>
-      <c r="Y14" s="121"/>
-      <c r="Z14" s="121"/>
-      <c r="AA14" s="123"/>
+      <c r="P14" s="135"/>
+      <c r="Q14" s="135"/>
+      <c r="R14" s="135"/>
+      <c r="S14" s="137"/>
+      <c r="T14" s="137"/>
+      <c r="U14" s="137"/>
+      <c r="V14" s="135"/>
+      <c r="W14" s="135"/>
+      <c r="X14" s="135"/>
+      <c r="Y14" s="137"/>
+      <c r="Z14" s="137"/>
+      <c r="AA14" s="139"/>
       <c r="AB14" s="24"/>
       <c r="AC14" s="24"/>
       <c r="AD14" s="24"/>
@@ -9972,20 +10216,20 @@
       <c r="AH14" s="24"/>
       <c r="AI14" s="18"/>
       <c r="AJ14" s="18"/>
-      <c r="AK14" s="117"/>
+      <c r="AK14" s="115"/>
       <c r="AL14" s="97"/>
-      <c r="AM14" s="119"/>
-      <c r="AN14" s="119"/>
-      <c r="AO14" s="119"/>
-      <c r="AP14" s="121"/>
-      <c r="AQ14" s="121"/>
-      <c r="AR14" s="121"/>
-      <c r="AS14" s="119"/>
-      <c r="AT14" s="119"/>
-      <c r="AU14" s="119"/>
-      <c r="AV14" s="121"/>
-      <c r="AW14" s="121"/>
-      <c r="AX14" s="123"/>
+      <c r="AM14" s="135"/>
+      <c r="AN14" s="135"/>
+      <c r="AO14" s="135"/>
+      <c r="AP14" s="137"/>
+      <c r="AQ14" s="137"/>
+      <c r="AR14" s="137"/>
+      <c r="AS14" s="135"/>
+      <c r="AT14" s="135"/>
+      <c r="AU14" s="135"/>
+      <c r="AV14" s="137"/>
+      <c r="AW14" s="137"/>
+      <c r="AX14" s="139"/>
       <c r="AY14" s="18"/>
       <c r="AZ14" s="18"/>
       <c r="BA14" s="18"/>
@@ -10054,11 +10298,13 @@
       <c r="D16" s="18"/>
       <c r="E16" s="18"/>
       <c r="F16" s="18"/>
-      <c r="G16" s="45"/>
-      <c r="H16" s="46"/>
-      <c r="I16" s="46"/>
-      <c r="J16" s="18"/>
-      <c r="K16" s="18"/>
+      <c r="G16" s="127" t="s">
+        <v>87</v>
+      </c>
+      <c r="H16" s="116"/>
+      <c r="I16" s="116"/>
+      <c r="J16" s="116"/>
+      <c r="K16" s="116"/>
       <c r="L16" s="44"/>
       <c r="M16" s="44"/>
       <c r="N16" s="51"/>
@@ -10110,11 +10356,11 @@
       <c r="D17" s="18"/>
       <c r="E17" s="17"/>
       <c r="F17" s="18"/>
-      <c r="G17" s="37"/>
-      <c r="H17" s="37"/>
-      <c r="I17" s="37"/>
-      <c r="J17" s="18"/>
-      <c r="K17" s="18"/>
+      <c r="G17" s="116"/>
+      <c r="H17" s="116"/>
+      <c r="I17" s="116"/>
+      <c r="J17" s="116"/>
+      <c r="K17" s="116"/>
       <c r="L17" s="44"/>
       <c r="M17" s="44"/>
       <c r="N17" s="51"/>
@@ -10132,15 +10378,15 @@
       <c r="Z17" s="18"/>
       <c r="AA17" s="52"/>
       <c r="AB17" s="18"/>
-      <c r="AC17" s="111" t="s">
+      <c r="AC17" s="127" t="s">
         <v>67</v>
       </c>
-      <c r="AD17" s="111"/>
-      <c r="AE17" s="111"/>
-      <c r="AF17" s="111"/>
-      <c r="AG17" s="111"/>
-      <c r="AH17" s="111"/>
-      <c r="AI17" s="111"/>
+      <c r="AD17" s="127"/>
+      <c r="AE17" s="127"/>
+      <c r="AF17" s="127"/>
+      <c r="AG17" s="127"/>
+      <c r="AH17" s="127"/>
+      <c r="AI17" s="127"/>
       <c r="AJ17" s="18"/>
       <c r="AK17" s="51"/>
       <c r="AL17" s="18"/>
@@ -10168,52 +10414,52 @@
       <c r="D18" s="18"/>
       <c r="E18" s="17"/>
       <c r="F18" s="18"/>
-      <c r="G18" s="37"/>
-      <c r="H18" s="37"/>
-      <c r="I18" s="37"/>
-      <c r="J18" s="18"/>
-      <c r="K18" s="18"/>
+      <c r="G18" s="116"/>
+      <c r="H18" s="116"/>
+      <c r="I18" s="116"/>
+      <c r="J18" s="116"/>
+      <c r="K18" s="116"/>
       <c r="L18" s="18"/>
       <c r="M18" s="18"/>
       <c r="N18" s="50"/>
       <c r="O18" s="18"/>
-      <c r="P18" s="111" t="s">
+      <c r="P18" s="127" t="s">
         <v>34</v>
       </c>
-      <c r="Q18" s="110"/>
-      <c r="R18" s="110"/>
-      <c r="S18" s="110"/>
-      <c r="T18" s="110"/>
-      <c r="U18" s="110"/>
-      <c r="V18" s="110"/>
-      <c r="W18" s="110"/>
-      <c r="X18" s="110"/>
-      <c r="Y18" s="110"/>
+      <c r="Q18" s="116"/>
+      <c r="R18" s="116"/>
+      <c r="S18" s="116"/>
+      <c r="T18" s="116"/>
+      <c r="U18" s="116"/>
+      <c r="V18" s="116"/>
+      <c r="W18" s="116"/>
+      <c r="X18" s="116"/>
+      <c r="Y18" s="116"/>
       <c r="Z18" s="18"/>
       <c r="AA18" s="52"/>
       <c r="AB18" s="18"/>
-      <c r="AC18" s="111"/>
-      <c r="AD18" s="111"/>
-      <c r="AE18" s="111"/>
-      <c r="AF18" s="111"/>
-      <c r="AG18" s="111"/>
-      <c r="AH18" s="111"/>
-      <c r="AI18" s="111"/>
+      <c r="AC18" s="127"/>
+      <c r="AD18" s="127"/>
+      <c r="AE18" s="127"/>
+      <c r="AF18" s="127"/>
+      <c r="AG18" s="127"/>
+      <c r="AH18" s="127"/>
+      <c r="AI18" s="127"/>
       <c r="AJ18" s="18"/>
       <c r="AK18" s="50"/>
       <c r="AL18" s="44"/>
-      <c r="AM18" s="111" t="s">
+      <c r="AM18" s="127" t="s">
         <v>35</v>
       </c>
-      <c r="AN18" s="110"/>
-      <c r="AO18" s="110"/>
-      <c r="AP18" s="110"/>
-      <c r="AQ18" s="110"/>
-      <c r="AR18" s="110"/>
-      <c r="AS18" s="110"/>
-      <c r="AT18" s="110"/>
-      <c r="AU18" s="110"/>
-      <c r="AV18" s="110"/>
+      <c r="AN18" s="116"/>
+      <c r="AO18" s="116"/>
+      <c r="AP18" s="116"/>
+      <c r="AQ18" s="116"/>
+      <c r="AR18" s="116"/>
+      <c r="AS18" s="116"/>
+      <c r="AT18" s="116"/>
+      <c r="AU18" s="116"/>
+      <c r="AV18" s="116"/>
       <c r="AW18" s="44"/>
       <c r="AX18" s="52"/>
       <c r="AY18" s="18"/>
@@ -10223,53 +10469,53 @@
     </row>
     <row r="19" spans="1:60" x14ac:dyDescent="0.15">
       <c r="A19" s="6"/>
-      <c r="B19" s="24"/>
-      <c r="C19" s="24"/>
-      <c r="D19" s="24"/>
-      <c r="E19" s="24"/>
-      <c r="F19" s="24"/>
-      <c r="G19" s="24"/>
-      <c r="H19" s="24"/>
-      <c r="I19" s="24"/>
+      <c r="B19" s="47"/>
+      <c r="C19" s="38"/>
+      <c r="D19" s="38"/>
+      <c r="E19" s="38"/>
+      <c r="F19" s="38"/>
+      <c r="G19" s="38"/>
+      <c r="H19" s="38"/>
+      <c r="I19" s="60"/>
       <c r="J19" s="18"/>
       <c r="K19" s="18"/>
       <c r="L19" s="18"/>
       <c r="M19" s="18"/>
       <c r="N19" s="50"/>
       <c r="O19" s="24"/>
-      <c r="P19" s="110"/>
-      <c r="Q19" s="110"/>
-      <c r="R19" s="110"/>
-      <c r="S19" s="110"/>
-      <c r="T19" s="110"/>
-      <c r="U19" s="110"/>
-      <c r="V19" s="110"/>
-      <c r="W19" s="110"/>
-      <c r="X19" s="110"/>
-      <c r="Y19" s="110"/>
+      <c r="P19" s="116"/>
+      <c r="Q19" s="116"/>
+      <c r="R19" s="116"/>
+      <c r="S19" s="116"/>
+      <c r="T19" s="116"/>
+      <c r="U19" s="116"/>
+      <c r="V19" s="116"/>
+      <c r="W19" s="116"/>
+      <c r="X19" s="116"/>
+      <c r="Y19" s="116"/>
       <c r="Z19" s="18"/>
       <c r="AA19" s="23"/>
       <c r="AB19" s="24"/>
-      <c r="AC19" s="111"/>
-      <c r="AD19" s="111"/>
-      <c r="AE19" s="111"/>
-      <c r="AF19" s="111"/>
-      <c r="AG19" s="111"/>
-      <c r="AH19" s="111"/>
-      <c r="AI19" s="111"/>
+      <c r="AC19" s="127"/>
+      <c r="AD19" s="127"/>
+      <c r="AE19" s="127"/>
+      <c r="AF19" s="127"/>
+      <c r="AG19" s="127"/>
+      <c r="AH19" s="127"/>
+      <c r="AI19" s="127"/>
       <c r="AJ19" s="18"/>
       <c r="AK19" s="50"/>
       <c r="AL19" s="44"/>
-      <c r="AM19" s="110"/>
-      <c r="AN19" s="110"/>
-      <c r="AO19" s="110"/>
-      <c r="AP19" s="110"/>
-      <c r="AQ19" s="110"/>
-      <c r="AR19" s="110"/>
-      <c r="AS19" s="110"/>
-      <c r="AT19" s="110"/>
-      <c r="AU19" s="110"/>
-      <c r="AV19" s="110"/>
+      <c r="AM19" s="116"/>
+      <c r="AN19" s="116"/>
+      <c r="AO19" s="116"/>
+      <c r="AP19" s="116"/>
+      <c r="AQ19" s="116"/>
+      <c r="AR19" s="116"/>
+      <c r="AS19" s="116"/>
+      <c r="AT19" s="116"/>
+      <c r="AU19" s="116"/>
+      <c r="AV19" s="116"/>
       <c r="AW19" s="44"/>
       <c r="AX19" s="23"/>
       <c r="AY19" s="18"/>
@@ -10279,30 +10525,30 @@
     </row>
     <row r="20" spans="1:60" x14ac:dyDescent="0.15">
       <c r="A20" s="6"/>
-      <c r="B20" s="24"/>
-      <c r="C20" s="24"/>
-      <c r="D20" s="24"/>
-      <c r="E20" s="24"/>
-      <c r="F20" s="24"/>
-      <c r="G20" s="24"/>
-      <c r="H20" s="24"/>
-      <c r="I20" s="24"/>
+      <c r="B20" s="50"/>
+      <c r="C20" s="18"/>
+      <c r="D20" s="18"/>
+      <c r="E20" s="18"/>
+      <c r="F20" s="18"/>
+      <c r="G20" s="18"/>
+      <c r="H20" s="18"/>
+      <c r="I20" s="52"/>
       <c r="J20" s="25"/>
       <c r="K20" s="18"/>
       <c r="L20" s="18"/>
       <c r="M20" s="18"/>
       <c r="N20" s="50"/>
       <c r="O20" s="24"/>
-      <c r="P20" s="110"/>
-      <c r="Q20" s="110"/>
-      <c r="R20" s="110"/>
-      <c r="S20" s="110"/>
-      <c r="T20" s="110"/>
-      <c r="U20" s="110"/>
-      <c r="V20" s="110"/>
-      <c r="W20" s="110"/>
-      <c r="X20" s="110"/>
-      <c r="Y20" s="110"/>
+      <c r="P20" s="116"/>
+      <c r="Q20" s="116"/>
+      <c r="R20" s="116"/>
+      <c r="S20" s="116"/>
+      <c r="T20" s="116"/>
+      <c r="U20" s="116"/>
+      <c r="V20" s="116"/>
+      <c r="W20" s="116"/>
+      <c r="X20" s="116"/>
+      <c r="Y20" s="116"/>
       <c r="Z20" s="18"/>
       <c r="AA20" s="23"/>
       <c r="AB20" s="24"/>
@@ -10316,16 +10562,16 @@
       <c r="AJ20" s="18"/>
       <c r="AK20" s="50"/>
       <c r="AL20" s="44"/>
-      <c r="AM20" s="110"/>
-      <c r="AN20" s="110"/>
-      <c r="AO20" s="110"/>
-      <c r="AP20" s="110"/>
-      <c r="AQ20" s="110"/>
-      <c r="AR20" s="110"/>
-      <c r="AS20" s="110"/>
-      <c r="AT20" s="110"/>
-      <c r="AU20" s="110"/>
-      <c r="AV20" s="110"/>
+      <c r="AM20" s="116"/>
+      <c r="AN20" s="116"/>
+      <c r="AO20" s="116"/>
+      <c r="AP20" s="116"/>
+      <c r="AQ20" s="116"/>
+      <c r="AR20" s="116"/>
+      <c r="AS20" s="116"/>
+      <c r="AT20" s="116"/>
+      <c r="AU20" s="116"/>
+      <c r="AV20" s="116"/>
       <c r="AW20" s="44"/>
       <c r="AX20" s="23"/>
       <c r="AY20" s="18"/>
@@ -10335,14 +10581,14 @@
     </row>
     <row r="21" spans="1:60" x14ac:dyDescent="0.45">
       <c r="A21" s="6"/>
-      <c r="B21" s="24"/>
+      <c r="B21" s="22"/>
       <c r="C21" s="24"/>
       <c r="D21" s="24"/>
       <c r="E21" s="24"/>
       <c r="F21" s="24"/>
       <c r="G21" s="24"/>
       <c r="H21" s="24"/>
-      <c r="I21" s="24"/>
+      <c r="I21" s="23"/>
       <c r="J21" s="17"/>
       <c r="K21" s="18"/>
       <c r="L21" s="18"/>
@@ -10391,14 +10637,16 @@
     </row>
     <row r="22" spans="1:60" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="6"/>
-      <c r="B22" s="24"/>
-      <c r="C22" s="40"/>
-      <c r="D22" s="40"/>
-      <c r="E22" s="40"/>
-      <c r="F22" s="40"/>
-      <c r="G22" s="40"/>
-      <c r="H22" s="40"/>
-      <c r="I22" s="24"/>
+      <c r="B22" s="101" t="s">
+        <v>86</v>
+      </c>
+      <c r="C22" s="102"/>
+      <c r="D22" s="102"/>
+      <c r="E22" s="102"/>
+      <c r="F22" s="102"/>
+      <c r="G22" s="102"/>
+      <c r="H22" s="102"/>
+      <c r="I22" s="103"/>
       <c r="J22" s="18"/>
       <c r="K22" s="18"/>
       <c r="L22" s="18"/>
@@ -10447,14 +10695,14 @@
     </row>
     <row r="23" spans="1:60" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="6"/>
-      <c r="B23" s="25"/>
-      <c r="C23" s="40"/>
-      <c r="D23" s="40"/>
-      <c r="E23" s="40"/>
-      <c r="F23" s="40"/>
-      <c r="G23" s="40"/>
-      <c r="H23" s="40"/>
-      <c r="I23" s="25"/>
+      <c r="B23" s="101"/>
+      <c r="C23" s="102"/>
+      <c r="D23" s="102"/>
+      <c r="E23" s="102"/>
+      <c r="F23" s="102"/>
+      <c r="G23" s="102"/>
+      <c r="H23" s="102"/>
+      <c r="I23" s="103"/>
       <c r="J23" s="18"/>
       <c r="K23" s="18"/>
       <c r="L23" s="18"/>
@@ -10503,14 +10751,14 @@
     </row>
     <row r="24" spans="1:60" x14ac:dyDescent="0.15">
       <c r="A24" s="6"/>
-      <c r="B24" s="25"/>
+      <c r="B24" s="12"/>
       <c r="C24" s="25"/>
       <c r="D24" s="25"/>
       <c r="E24" s="18"/>
       <c r="F24" s="18"/>
       <c r="G24" s="18"/>
       <c r="H24" s="18"/>
-      <c r="I24" s="25"/>
+      <c r="I24" s="13"/>
       <c r="J24" s="17"/>
       <c r="K24" s="18"/>
       <c r="L24" s="18"/>
@@ -10559,14 +10807,14 @@
     </row>
     <row r="25" spans="1:60" x14ac:dyDescent="0.15">
       <c r="A25" s="6"/>
-      <c r="B25" s="24"/>
+      <c r="B25" s="22"/>
       <c r="C25" s="24"/>
       <c r="D25" s="24"/>
       <c r="E25" s="24"/>
       <c r="F25" s="24"/>
       <c r="G25" s="24"/>
       <c r="H25" s="24"/>
-      <c r="I25" s="24"/>
+      <c r="I25" s="23"/>
       <c r="J25" s="17"/>
       <c r="K25" s="18"/>
       <c r="L25" s="18"/>
@@ -10615,14 +10863,14 @@
     </row>
     <row r="26" spans="1:60" x14ac:dyDescent="0.15">
       <c r="A26" s="6"/>
-      <c r="B26" s="25"/>
-      <c r="C26" s="25"/>
-      <c r="D26" s="25"/>
-      <c r="E26" s="25"/>
-      <c r="F26" s="25"/>
-      <c r="G26" s="25"/>
-      <c r="H26" s="25"/>
-      <c r="I26" s="25"/>
+      <c r="B26" s="14"/>
+      <c r="C26" s="15"/>
+      <c r="D26" s="15"/>
+      <c r="E26" s="15"/>
+      <c r="F26" s="15"/>
+      <c r="G26" s="15"/>
+      <c r="H26" s="15"/>
+      <c r="I26" s="16"/>
       <c r="J26" s="27"/>
       <c r="K26" s="18"/>
       <c r="L26" s="18"/>
@@ -10684,20 +10932,20 @@
       <c r="L27" s="30"/>
       <c r="M27" s="30"/>
       <c r="N27" s="30"/>
-      <c r="O27" s="112" t="s">
+      <c r="O27" s="120" t="s">
         <v>66</v>
       </c>
-      <c r="P27" s="112"/>
-      <c r="Q27" s="112"/>
-      <c r="R27" s="112"/>
-      <c r="S27" s="112"/>
-      <c r="T27" s="112"/>
-      <c r="U27" s="112"/>
-      <c r="V27" s="112"/>
-      <c r="W27" s="112"/>
-      <c r="X27" s="112"/>
-      <c r="Y27" s="112"/>
-      <c r="Z27" s="112"/>
+      <c r="P27" s="120"/>
+      <c r="Q27" s="120"/>
+      <c r="R27" s="120"/>
+      <c r="S27" s="120"/>
+      <c r="T27" s="120"/>
+      <c r="U27" s="120"/>
+      <c r="V27" s="120"/>
+      <c r="W27" s="120"/>
+      <c r="X27" s="120"/>
+      <c r="Y27" s="120"/>
+      <c r="Z27" s="120"/>
       <c r="AA27" s="53"/>
       <c r="AB27" s="53"/>
       <c r="AC27" s="53"/>
@@ -10709,20 +10957,20 @@
       <c r="AI27" s="30"/>
       <c r="AJ27" s="30"/>
       <c r="AK27" s="30"/>
-      <c r="AL27" s="112" t="s">
+      <c r="AL27" s="120" t="s">
         <v>66</v>
       </c>
-      <c r="AM27" s="112"/>
-      <c r="AN27" s="112"/>
-      <c r="AO27" s="112"/>
-      <c r="AP27" s="112"/>
-      <c r="AQ27" s="112"/>
-      <c r="AR27" s="112"/>
-      <c r="AS27" s="112"/>
-      <c r="AT27" s="112"/>
-      <c r="AU27" s="112"/>
-      <c r="AV27" s="112"/>
-      <c r="AW27" s="112"/>
+      <c r="AM27" s="120"/>
+      <c r="AN27" s="120"/>
+      <c r="AO27" s="120"/>
+      <c r="AP27" s="120"/>
+      <c r="AQ27" s="120"/>
+      <c r="AR27" s="120"/>
+      <c r="AS27" s="120"/>
+      <c r="AT27" s="120"/>
+      <c r="AU27" s="120"/>
+      <c r="AV27" s="120"/>
+      <c r="AW27" s="120"/>
       <c r="AX27" s="30"/>
       <c r="AY27" s="30"/>
       <c r="AZ27" s="30"/>
@@ -12308,28 +12556,9 @@
       <c r="BG53" s="18"/>
     </row>
   </sheetData>
-  <mergeCells count="33">
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="F1:L1"/>
-    <mergeCell ref="M1:P1"/>
-    <mergeCell ref="Q1:W1"/>
-    <mergeCell ref="A2:E2"/>
-    <mergeCell ref="F2:L2"/>
-    <mergeCell ref="M2:P2"/>
-    <mergeCell ref="Q2:W2"/>
-    <mergeCell ref="M3:P3"/>
-    <mergeCell ref="Q3:W3"/>
-    <mergeCell ref="M4:P4"/>
-    <mergeCell ref="Q4:W4"/>
-    <mergeCell ref="B7:I7"/>
-    <mergeCell ref="B8:I9"/>
-    <mergeCell ref="D10:G10"/>
-    <mergeCell ref="D12:G12"/>
-    <mergeCell ref="B14:I14"/>
-    <mergeCell ref="L10:S10"/>
-    <mergeCell ref="N13:O14"/>
-    <mergeCell ref="P13:R14"/>
-    <mergeCell ref="S13:U14"/>
+  <mergeCells count="35">
+    <mergeCell ref="G16:K18"/>
+    <mergeCell ref="B22:I23"/>
     <mergeCell ref="AK13:AL14"/>
     <mergeCell ref="AM13:AO14"/>
     <mergeCell ref="AP13:AR14"/>
@@ -12342,6 +12571,27 @@
     <mergeCell ref="V13:X14"/>
     <mergeCell ref="Y13:AA14"/>
     <mergeCell ref="AC17:AI19"/>
+    <mergeCell ref="B8:I9"/>
+    <mergeCell ref="D10:G10"/>
+    <mergeCell ref="D12:G12"/>
+    <mergeCell ref="B14:I14"/>
+    <mergeCell ref="L10:S10"/>
+    <mergeCell ref="N13:O14"/>
+    <mergeCell ref="P13:R14"/>
+    <mergeCell ref="S13:U14"/>
+    <mergeCell ref="M3:P3"/>
+    <mergeCell ref="Q3:W3"/>
+    <mergeCell ref="M4:P4"/>
+    <mergeCell ref="Q4:W4"/>
+    <mergeCell ref="B7:I7"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="F1:L1"/>
+    <mergeCell ref="M1:P1"/>
+    <mergeCell ref="Q1:W1"/>
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="F2:L2"/>
+    <mergeCell ref="M2:P2"/>
+    <mergeCell ref="Q2:W2"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -12365,104 +12615,104 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:57" x14ac:dyDescent="0.15">
-      <c r="A1" s="107" t="s">
+      <c r="A1" s="87" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="107"/>
-      <c r="C1" s="107"/>
-      <c r="D1" s="107"/>
-      <c r="E1" s="107"/>
-      <c r="F1" s="108" t="s">
+      <c r="B1" s="87"/>
+      <c r="C1" s="87"/>
+      <c r="D1" s="87"/>
+      <c r="E1" s="87"/>
+      <c r="F1" s="88" t="s">
         <v>7</v>
       </c>
-      <c r="G1" s="108"/>
-      <c r="H1" s="108"/>
-      <c r="I1" s="108"/>
-      <c r="J1" s="108"/>
-      <c r="K1" s="108"/>
-      <c r="L1" s="108"/>
-      <c r="M1" s="107" t="s">
+      <c r="G1" s="88"/>
+      <c r="H1" s="88"/>
+      <c r="I1" s="88"/>
+      <c r="J1" s="88"/>
+      <c r="K1" s="88"/>
+      <c r="L1" s="88"/>
+      <c r="M1" s="87" t="s">
         <v>1</v>
       </c>
-      <c r="N1" s="107"/>
-      <c r="O1" s="107"/>
-      <c r="P1" s="107"/>
-      <c r="Q1" s="108" t="s">
+      <c r="N1" s="87"/>
+      <c r="O1" s="87"/>
+      <c r="P1" s="87"/>
+      <c r="Q1" s="88" t="s">
         <v>9</v>
       </c>
-      <c r="R1" s="108"/>
-      <c r="S1" s="108"/>
-      <c r="T1" s="108"/>
-      <c r="U1" s="108"/>
-      <c r="V1" s="108"/>
-      <c r="W1" s="108"/>
+      <c r="R1" s="88"/>
+      <c r="S1" s="88"/>
+      <c r="T1" s="88"/>
+      <c r="U1" s="88"/>
+      <c r="V1" s="88"/>
+      <c r="W1" s="88"/>
     </row>
     <row r="2" spans="1:57" x14ac:dyDescent="0.15">
-      <c r="A2" s="107" t="s">
+      <c r="A2" s="87" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="107"/>
-      <c r="C2" s="107"/>
-      <c r="D2" s="107"/>
-      <c r="E2" s="107"/>
-      <c r="F2" s="108" t="s">
+      <c r="B2" s="87"/>
+      <c r="C2" s="87"/>
+      <c r="D2" s="87"/>
+      <c r="E2" s="87"/>
+      <c r="F2" s="88" t="s">
         <v>8</v>
       </c>
-      <c r="G2" s="108"/>
-      <c r="H2" s="108"/>
-      <c r="I2" s="108"/>
-      <c r="J2" s="108"/>
-      <c r="K2" s="108"/>
-      <c r="L2" s="108"/>
-      <c r="M2" s="107" t="s">
+      <c r="G2" s="88"/>
+      <c r="H2" s="88"/>
+      <c r="I2" s="88"/>
+      <c r="J2" s="88"/>
+      <c r="K2" s="88"/>
+      <c r="L2" s="88"/>
+      <c r="M2" s="87" t="s">
         <v>3</v>
       </c>
-      <c r="N2" s="107"/>
-      <c r="O2" s="107"/>
-      <c r="P2" s="107"/>
-      <c r="Q2" s="108" t="s">
+      <c r="N2" s="87"/>
+      <c r="O2" s="87"/>
+      <c r="P2" s="87"/>
+      <c r="Q2" s="88" t="s">
         <v>10</v>
       </c>
-      <c r="R2" s="108"/>
-      <c r="S2" s="108"/>
-      <c r="T2" s="108"/>
-      <c r="U2" s="108"/>
-      <c r="V2" s="108"/>
-      <c r="W2" s="108"/>
+      <c r="R2" s="88"/>
+      <c r="S2" s="88"/>
+      <c r="T2" s="88"/>
+      <c r="U2" s="88"/>
+      <c r="V2" s="88"/>
+      <c r="W2" s="88"/>
     </row>
     <row r="3" spans="1:57" x14ac:dyDescent="0.15">
-      <c r="M3" s="107" t="s">
+      <c r="M3" s="87" t="s">
         <v>4</v>
       </c>
-      <c r="N3" s="107"/>
-      <c r="O3" s="107"/>
-      <c r="P3" s="107"/>
-      <c r="Q3" s="108" t="s">
+      <c r="N3" s="87"/>
+      <c r="O3" s="87"/>
+      <c r="P3" s="87"/>
+      <c r="Q3" s="88" t="s">
         <v>9</v>
       </c>
-      <c r="R3" s="108"/>
-      <c r="S3" s="108"/>
-      <c r="T3" s="108"/>
-      <c r="U3" s="108"/>
-      <c r="V3" s="108"/>
-      <c r="W3" s="108"/>
+      <c r="R3" s="88"/>
+      <c r="S3" s="88"/>
+      <c r="T3" s="88"/>
+      <c r="U3" s="88"/>
+      <c r="V3" s="88"/>
+      <c r="W3" s="88"/>
     </row>
     <row r="4" spans="1:57" x14ac:dyDescent="0.15">
-      <c r="M4" s="107" t="s">
+      <c r="M4" s="87" t="s">
         <v>5</v>
       </c>
-      <c r="N4" s="107"/>
-      <c r="O4" s="107"/>
-      <c r="P4" s="107"/>
-      <c r="Q4" s="108" t="s">
+      <c r="N4" s="87"/>
+      <c r="O4" s="87"/>
+      <c r="P4" s="87"/>
+      <c r="Q4" s="88" t="s">
         <v>33</v>
       </c>
-      <c r="R4" s="108"/>
-      <c r="S4" s="108"/>
-      <c r="T4" s="108"/>
-      <c r="U4" s="108"/>
-      <c r="V4" s="108"/>
-      <c r="W4" s="108"/>
+      <c r="R4" s="88"/>
+      <c r="S4" s="88"/>
+      <c r="T4" s="88"/>
+      <c r="U4" s="88"/>
+      <c r="V4" s="88"/>
+      <c r="W4" s="88"/>
     </row>
     <row r="5" spans="1:57" ht="28.5" x14ac:dyDescent="0.15">
       <c r="A5" s="2" t="s">
@@ -12537,16 +12787,16 @@
     </row>
     <row r="7" spans="1:57" x14ac:dyDescent="0.15">
       <c r="A7" s="6"/>
-      <c r="B7" s="109" t="s">
+      <c r="B7" s="140" t="s">
         <v>66</v>
       </c>
-      <c r="C7" s="109"/>
-      <c r="D7" s="109"/>
-      <c r="E7" s="109"/>
-      <c r="F7" s="109"/>
-      <c r="G7" s="109"/>
-      <c r="H7" s="109"/>
-      <c r="I7" s="109"/>
+      <c r="C7" s="140"/>
+      <c r="D7" s="140"/>
+      <c r="E7" s="140"/>
+      <c r="F7" s="140"/>
+      <c r="G7" s="140"/>
+      <c r="H7" s="140"/>
+      <c r="I7" s="140"/>
       <c r="J7" s="25"/>
       <c r="K7" s="18"/>
       <c r="L7" s="18"/>
@@ -12599,22 +12849,22 @@
     <row r="8" spans="1:57" x14ac:dyDescent="0.15">
       <c r="A8" s="6"/>
       <c r="B8" s="19"/>
-      <c r="C8" s="127" t="s">
+      <c r="C8" s="143" t="s">
         <v>38</v>
       </c>
-      <c r="D8" s="115"/>
-      <c r="E8" s="118" t="s">
+      <c r="D8" s="144"/>
+      <c r="E8" s="134" t="s">
         <v>12</v>
       </c>
-      <c r="F8" s="118"/>
-      <c r="G8" s="118" t="s">
+      <c r="F8" s="134"/>
+      <c r="G8" s="134" t="s">
         <v>15</v>
       </c>
-      <c r="H8" s="118"/>
-      <c r="I8" s="128" t="s">
+      <c r="H8" s="134"/>
+      <c r="I8" s="145" t="s">
         <v>36</v>
       </c>
-      <c r="J8" s="129"/>
+      <c r="J8" s="146"/>
       <c r="K8" s="18"/>
       <c r="L8" s="18"/>
       <c r="M8" s="18"/>
@@ -12645,14 +12895,14 @@
       <c r="AL8" s="18"/>
       <c r="AM8" s="24"/>
       <c r="AN8" s="24"/>
-      <c r="AO8" s="110" t="s">
+      <c r="AO8" s="116" t="s">
         <v>41</v>
       </c>
-      <c r="AP8" s="110"/>
-      <c r="AQ8" s="110"/>
-      <c r="AR8" s="110"/>
-      <c r="AS8" s="110"/>
-      <c r="AT8" s="110"/>
+      <c r="AP8" s="116"/>
+      <c r="AQ8" s="116"/>
+      <c r="AR8" s="116"/>
+      <c r="AS8" s="116"/>
+      <c r="AT8" s="116"/>
       <c r="AU8" s="18"/>
       <c r="AV8" s="18"/>
       <c r="AW8" s="18"/>
@@ -12668,14 +12918,14 @@
     <row r="9" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A9" s="6"/>
       <c r="B9" s="56"/>
-      <c r="C9" s="85"/>
-      <c r="D9" s="85"/>
-      <c r="E9" s="119"/>
-      <c r="F9" s="119"/>
-      <c r="G9" s="119"/>
-      <c r="H9" s="119"/>
-      <c r="I9" s="130"/>
-      <c r="J9" s="131"/>
+      <c r="C9" s="92"/>
+      <c r="D9" s="92"/>
+      <c r="E9" s="135"/>
+      <c r="F9" s="135"/>
+      <c r="G9" s="135"/>
+      <c r="H9" s="135"/>
+      <c r="I9" s="147"/>
+      <c r="J9" s="148"/>
       <c r="K9" s="18"/>
       <c r="L9" s="18"/>
       <c r="M9" s="18"/>
@@ -12691,14 +12941,14 @@
       <c r="W9" s="18"/>
       <c r="X9" s="18"/>
       <c r="Y9" s="18"/>
-      <c r="Z9" s="110" t="s">
+      <c r="Z9" s="116" t="s">
         <v>44</v>
       </c>
-      <c r="AA9" s="110"/>
-      <c r="AB9" s="110"/>
-      <c r="AC9" s="110"/>
-      <c r="AD9" s="110"/>
-      <c r="AE9" s="110"/>
+      <c r="AA9" s="116"/>
+      <c r="AB9" s="116"/>
+      <c r="AC9" s="116"/>
+      <c r="AD9" s="116"/>
+      <c r="AE9" s="116"/>
       <c r="AF9" s="24"/>
       <c r="AG9" s="24"/>
       <c r="AH9" s="24"/>
@@ -12738,14 +12988,14 @@
       <c r="I10" s="24"/>
       <c r="J10" s="57"/>
       <c r="K10" s="43"/>
-      <c r="L10" s="110" t="s">
+      <c r="L10" s="116" t="s">
         <v>43</v>
       </c>
-      <c r="M10" s="110"/>
-      <c r="N10" s="110"/>
-      <c r="O10" s="110"/>
-      <c r="P10" s="110"/>
-      <c r="Q10" s="110"/>
+      <c r="M10" s="116"/>
+      <c r="N10" s="116"/>
+      <c r="O10" s="116"/>
+      <c r="P10" s="116"/>
+      <c r="Q10" s="116"/>
       <c r="R10" s="37"/>
       <c r="S10" s="37"/>
       <c r="T10" s="37"/>
@@ -12790,15 +13040,15 @@
     <row r="11" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="6"/>
       <c r="B11" s="22"/>
-      <c r="C11" s="132" t="s">
+      <c r="C11" s="141" t="s">
         <v>37</v>
       </c>
-      <c r="D11" s="133"/>
-      <c r="E11" s="133"/>
-      <c r="F11" s="133"/>
-      <c r="G11" s="133"/>
-      <c r="H11" s="133"/>
-      <c r="I11" s="133"/>
+      <c r="D11" s="132"/>
+      <c r="E11" s="132"/>
+      <c r="F11" s="132"/>
+      <c r="G11" s="132"/>
+      <c r="H11" s="132"/>
+      <c r="I11" s="132"/>
       <c r="J11" s="57"/>
       <c r="K11" s="43"/>
       <c r="L11" s="43"/>
@@ -12851,83 +13101,83 @@
     <row r="12" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="6"/>
       <c r="B12" s="12"/>
-      <c r="C12" s="133"/>
-      <c r="D12" s="133"/>
-      <c r="E12" s="133"/>
-      <c r="F12" s="133"/>
-      <c r="G12" s="133"/>
-      <c r="H12" s="133"/>
-      <c r="I12" s="133"/>
+      <c r="C12" s="132"/>
+      <c r="D12" s="132"/>
+      <c r="E12" s="132"/>
+      <c r="F12" s="132"/>
+      <c r="G12" s="132"/>
+      <c r="H12" s="132"/>
+      <c r="I12" s="132"/>
       <c r="J12" s="52"/>
       <c r="K12" s="18"/>
-      <c r="L12" s="116"/>
-      <c r="M12" s="96"/>
-      <c r="N12" s="118" t="s">
+      <c r="L12" s="133"/>
+      <c r="M12" s="95"/>
+      <c r="N12" s="134" t="s">
         <v>31</v>
       </c>
-      <c r="O12" s="118"/>
-      <c r="P12" s="118"/>
-      <c r="Q12" s="120" t="s">
+      <c r="O12" s="134"/>
+      <c r="P12" s="134"/>
+      <c r="Q12" s="136" t="s">
         <v>12</v>
       </c>
-      <c r="R12" s="120"/>
-      <c r="S12" s="120"/>
-      <c r="T12" s="118" t="s">
+      <c r="R12" s="136"/>
+      <c r="S12" s="136"/>
+      <c r="T12" s="134" t="s">
         <v>15</v>
       </c>
-      <c r="U12" s="118"/>
-      <c r="V12" s="118"/>
-      <c r="W12" s="120" t="s">
+      <c r="U12" s="134"/>
+      <c r="V12" s="134"/>
+      <c r="W12" s="136" t="s">
         <v>36</v>
       </c>
-      <c r="X12" s="120"/>
-      <c r="Y12" s="122"/>
+      <c r="X12" s="136"/>
+      <c r="Y12" s="138"/>
       <c r="Z12" s="18"/>
-      <c r="AA12" s="116"/>
-      <c r="AB12" s="96"/>
-      <c r="AC12" s="118" t="s">
+      <c r="AA12" s="133"/>
+      <c r="AB12" s="95"/>
+      <c r="AC12" s="134" t="s">
         <v>31</v>
       </c>
-      <c r="AD12" s="118"/>
-      <c r="AE12" s="118"/>
-      <c r="AF12" s="120" t="s">
+      <c r="AD12" s="134"/>
+      <c r="AE12" s="134"/>
+      <c r="AF12" s="136" t="s">
         <v>12</v>
       </c>
-      <c r="AG12" s="120"/>
-      <c r="AH12" s="120"/>
-      <c r="AI12" s="118" t="s">
+      <c r="AG12" s="136"/>
+      <c r="AH12" s="136"/>
+      <c r="AI12" s="134" t="s">
         <v>15</v>
       </c>
-      <c r="AJ12" s="118"/>
-      <c r="AK12" s="118"/>
-      <c r="AL12" s="120" t="s">
+      <c r="AJ12" s="134"/>
+      <c r="AK12" s="134"/>
+      <c r="AL12" s="136" t="s">
         <v>36</v>
       </c>
-      <c r="AM12" s="120"/>
-      <c r="AN12" s="122"/>
+      <c r="AM12" s="136"/>
+      <c r="AN12" s="138"/>
       <c r="AO12" s="18"/>
-      <c r="AP12" s="116"/>
-      <c r="AQ12" s="96"/>
-      <c r="AR12" s="118" t="s">
+      <c r="AP12" s="133"/>
+      <c r="AQ12" s="95"/>
+      <c r="AR12" s="134" t="s">
         <v>31</v>
       </c>
-      <c r="AS12" s="118"/>
-      <c r="AT12" s="118"/>
-      <c r="AU12" s="120" t="s">
+      <c r="AS12" s="134"/>
+      <c r="AT12" s="134"/>
+      <c r="AU12" s="136" t="s">
         <v>12</v>
       </c>
-      <c r="AV12" s="120"/>
-      <c r="AW12" s="120"/>
-      <c r="AX12" s="118" t="s">
+      <c r="AV12" s="136"/>
+      <c r="AW12" s="136"/>
+      <c r="AX12" s="134" t="s">
         <v>15</v>
       </c>
-      <c r="AY12" s="118"/>
-      <c r="AZ12" s="118"/>
-      <c r="BA12" s="120" t="s">
+      <c r="AY12" s="134"/>
+      <c r="AZ12" s="134"/>
+      <c r="BA12" s="136" t="s">
         <v>36</v>
       </c>
-      <c r="BB12" s="120"/>
-      <c r="BC12" s="122"/>
+      <c r="BB12" s="136"/>
+      <c r="BC12" s="138"/>
       <c r="BD12" s="18"/>
       <c r="BE12" s="52"/>
     </row>
@@ -12943,50 +13193,50 @@
       <c r="I13" s="25"/>
       <c r="J13" s="52"/>
       <c r="K13" s="18"/>
-      <c r="L13" s="117"/>
+      <c r="L13" s="115"/>
       <c r="M13" s="97"/>
-      <c r="N13" s="119"/>
-      <c r="O13" s="119"/>
-      <c r="P13" s="119"/>
-      <c r="Q13" s="121"/>
-      <c r="R13" s="121"/>
-      <c r="S13" s="121"/>
-      <c r="T13" s="119"/>
-      <c r="U13" s="119"/>
-      <c r="V13" s="119"/>
-      <c r="W13" s="121"/>
-      <c r="X13" s="121"/>
-      <c r="Y13" s="123"/>
+      <c r="N13" s="135"/>
+      <c r="O13" s="135"/>
+      <c r="P13" s="135"/>
+      <c r="Q13" s="137"/>
+      <c r="R13" s="137"/>
+      <c r="S13" s="137"/>
+      <c r="T13" s="135"/>
+      <c r="U13" s="135"/>
+      <c r="V13" s="135"/>
+      <c r="W13" s="137"/>
+      <c r="X13" s="137"/>
+      <c r="Y13" s="139"/>
       <c r="Z13" s="18"/>
-      <c r="AA13" s="117"/>
+      <c r="AA13" s="115"/>
       <c r="AB13" s="97"/>
-      <c r="AC13" s="119"/>
-      <c r="AD13" s="119"/>
-      <c r="AE13" s="119"/>
-      <c r="AF13" s="121"/>
-      <c r="AG13" s="121"/>
-      <c r="AH13" s="121"/>
-      <c r="AI13" s="119"/>
-      <c r="AJ13" s="119"/>
-      <c r="AK13" s="119"/>
-      <c r="AL13" s="121"/>
-      <c r="AM13" s="121"/>
-      <c r="AN13" s="123"/>
+      <c r="AC13" s="135"/>
+      <c r="AD13" s="135"/>
+      <c r="AE13" s="135"/>
+      <c r="AF13" s="137"/>
+      <c r="AG13" s="137"/>
+      <c r="AH13" s="137"/>
+      <c r="AI13" s="135"/>
+      <c r="AJ13" s="135"/>
+      <c r="AK13" s="135"/>
+      <c r="AL13" s="137"/>
+      <c r="AM13" s="137"/>
+      <c r="AN13" s="139"/>
       <c r="AO13" s="18"/>
-      <c r="AP13" s="117"/>
+      <c r="AP13" s="115"/>
       <c r="AQ13" s="97"/>
-      <c r="AR13" s="119"/>
-      <c r="AS13" s="119"/>
-      <c r="AT13" s="119"/>
-      <c r="AU13" s="121"/>
-      <c r="AV13" s="121"/>
-      <c r="AW13" s="121"/>
-      <c r="AX13" s="119"/>
-      <c r="AY13" s="119"/>
-      <c r="AZ13" s="119"/>
-      <c r="BA13" s="121"/>
-      <c r="BB13" s="121"/>
-      <c r="BC13" s="123"/>
+      <c r="AR13" s="135"/>
+      <c r="AS13" s="135"/>
+      <c r="AT13" s="135"/>
+      <c r="AU13" s="137"/>
+      <c r="AV13" s="137"/>
+      <c r="AW13" s="137"/>
+      <c r="AX13" s="135"/>
+      <c r="AY13" s="135"/>
+      <c r="AZ13" s="135"/>
+      <c r="BA13" s="137"/>
+      <c r="BB13" s="137"/>
+      <c r="BC13" s="139"/>
       <c r="BD13" s="18"/>
       <c r="BE13" s="52"/>
     </row>
@@ -13181,52 +13431,52 @@
       <c r="K17" s="18"/>
       <c r="L17" s="50"/>
       <c r="M17" s="18"/>
-      <c r="N17" s="124" t="s">
+      <c r="N17" s="142" t="s">
         <v>39</v>
       </c>
-      <c r="O17" s="124"/>
-      <c r="P17" s="124"/>
-      <c r="Q17" s="124"/>
-      <c r="R17" s="124"/>
-      <c r="S17" s="124"/>
-      <c r="T17" s="124"/>
-      <c r="U17" s="124"/>
-      <c r="V17" s="124"/>
-      <c r="W17" s="124"/>
+      <c r="O17" s="142"/>
+      <c r="P17" s="142"/>
+      <c r="Q17" s="142"/>
+      <c r="R17" s="142"/>
+      <c r="S17" s="142"/>
+      <c r="T17" s="142"/>
+      <c r="U17" s="142"/>
+      <c r="V17" s="142"/>
+      <c r="W17" s="142"/>
       <c r="X17" s="63"/>
       <c r="Y17" s="64"/>
       <c r="Z17" s="65"/>
       <c r="AA17" s="66"/>
       <c r="AB17" s="67"/>
-      <c r="AC17" s="124" t="s">
+      <c r="AC17" s="142" t="s">
         <v>48</v>
       </c>
-      <c r="AD17" s="124"/>
-      <c r="AE17" s="124"/>
-      <c r="AF17" s="124"/>
-      <c r="AG17" s="124"/>
-      <c r="AH17" s="124"/>
-      <c r="AI17" s="124"/>
-      <c r="AJ17" s="124"/>
-      <c r="AK17" s="124"/>
-      <c r="AL17" s="124"/>
+      <c r="AD17" s="142"/>
+      <c r="AE17" s="142"/>
+      <c r="AF17" s="142"/>
+      <c r="AG17" s="142"/>
+      <c r="AH17" s="142"/>
+      <c r="AI17" s="142"/>
+      <c r="AJ17" s="142"/>
+      <c r="AK17" s="142"/>
+      <c r="AL17" s="142"/>
       <c r="AM17" s="67"/>
       <c r="AN17" s="64"/>
       <c r="AO17" s="65"/>
       <c r="AP17" s="66"/>
       <c r="AQ17" s="67"/>
-      <c r="AR17" s="124" t="s">
+      <c r="AR17" s="142" t="s">
         <v>27</v>
       </c>
-      <c r="AS17" s="125"/>
-      <c r="AT17" s="125"/>
-      <c r="AU17" s="125"/>
-      <c r="AV17" s="125"/>
-      <c r="AW17" s="125"/>
-      <c r="AX17" s="125"/>
-      <c r="AY17" s="125"/>
-      <c r="AZ17" s="125"/>
-      <c r="BA17" s="125"/>
+      <c r="AS17" s="149"/>
+      <c r="AT17" s="149"/>
+      <c r="AU17" s="149"/>
+      <c r="AV17" s="149"/>
+      <c r="AW17" s="149"/>
+      <c r="AX17" s="149"/>
+      <c r="AY17" s="149"/>
+      <c r="AZ17" s="149"/>
+      <c r="BA17" s="149"/>
       <c r="BB17" s="44"/>
       <c r="BC17" s="52"/>
       <c r="BD17" s="18"/>
@@ -13246,46 +13496,46 @@
       <c r="K18" s="18"/>
       <c r="L18" s="50"/>
       <c r="M18" s="24"/>
-      <c r="N18" s="124"/>
-      <c r="O18" s="124"/>
-      <c r="P18" s="124"/>
-      <c r="Q18" s="124"/>
-      <c r="R18" s="124"/>
-      <c r="S18" s="124"/>
-      <c r="T18" s="124"/>
-      <c r="U18" s="124"/>
-      <c r="V18" s="124"/>
-      <c r="W18" s="124"/>
+      <c r="N18" s="142"/>
+      <c r="O18" s="142"/>
+      <c r="P18" s="142"/>
+      <c r="Q18" s="142"/>
+      <c r="R18" s="142"/>
+      <c r="S18" s="142"/>
+      <c r="T18" s="142"/>
+      <c r="U18" s="142"/>
+      <c r="V18" s="142"/>
+      <c r="W18" s="142"/>
       <c r="X18" s="63"/>
       <c r="Y18" s="68"/>
       <c r="Z18" s="42"/>
       <c r="AA18" s="66"/>
       <c r="AB18" s="67"/>
-      <c r="AC18" s="124"/>
-      <c r="AD18" s="124"/>
-      <c r="AE18" s="124"/>
-      <c r="AF18" s="124"/>
-      <c r="AG18" s="124"/>
-      <c r="AH18" s="124"/>
-      <c r="AI18" s="124"/>
-      <c r="AJ18" s="124"/>
-      <c r="AK18" s="124"/>
-      <c r="AL18" s="124"/>
+      <c r="AC18" s="142"/>
+      <c r="AD18" s="142"/>
+      <c r="AE18" s="142"/>
+      <c r="AF18" s="142"/>
+      <c r="AG18" s="142"/>
+      <c r="AH18" s="142"/>
+      <c r="AI18" s="142"/>
+      <c r="AJ18" s="142"/>
+      <c r="AK18" s="142"/>
+      <c r="AL18" s="142"/>
       <c r="AM18" s="67"/>
       <c r="AN18" s="68"/>
       <c r="AO18" s="65"/>
       <c r="AP18" s="66"/>
       <c r="AQ18" s="67"/>
-      <c r="AR18" s="125"/>
-      <c r="AS18" s="125"/>
-      <c r="AT18" s="125"/>
-      <c r="AU18" s="125"/>
-      <c r="AV18" s="125"/>
-      <c r="AW18" s="125"/>
-      <c r="AX18" s="125"/>
-      <c r="AY18" s="125"/>
-      <c r="AZ18" s="125"/>
-      <c r="BA18" s="125"/>
+      <c r="AR18" s="149"/>
+      <c r="AS18" s="149"/>
+      <c r="AT18" s="149"/>
+      <c r="AU18" s="149"/>
+      <c r="AV18" s="149"/>
+      <c r="AW18" s="149"/>
+      <c r="AX18" s="149"/>
+      <c r="AY18" s="149"/>
+      <c r="AZ18" s="149"/>
+      <c r="BA18" s="149"/>
       <c r="BB18" s="44"/>
       <c r="BC18" s="23"/>
       <c r="BD18" s="18"/>
@@ -13305,46 +13555,46 @@
       <c r="K19" s="18"/>
       <c r="L19" s="50"/>
       <c r="M19" s="24"/>
-      <c r="N19" s="124"/>
-      <c r="O19" s="124"/>
-      <c r="P19" s="124"/>
-      <c r="Q19" s="124"/>
-      <c r="R19" s="124"/>
-      <c r="S19" s="124"/>
-      <c r="T19" s="124"/>
-      <c r="U19" s="124"/>
-      <c r="V19" s="124"/>
-      <c r="W19" s="124"/>
+      <c r="N19" s="142"/>
+      <c r="O19" s="142"/>
+      <c r="P19" s="142"/>
+      <c r="Q19" s="142"/>
+      <c r="R19" s="142"/>
+      <c r="S19" s="142"/>
+      <c r="T19" s="142"/>
+      <c r="U19" s="142"/>
+      <c r="V19" s="142"/>
+      <c r="W19" s="142"/>
       <c r="X19" s="63"/>
       <c r="Y19" s="68"/>
       <c r="Z19" s="42"/>
       <c r="AA19" s="66"/>
       <c r="AB19" s="67"/>
-      <c r="AC19" s="124"/>
-      <c r="AD19" s="124"/>
-      <c r="AE19" s="124"/>
-      <c r="AF19" s="124"/>
-      <c r="AG19" s="124"/>
-      <c r="AH19" s="124"/>
-      <c r="AI19" s="124"/>
-      <c r="AJ19" s="124"/>
-      <c r="AK19" s="124"/>
-      <c r="AL19" s="124"/>
+      <c r="AC19" s="142"/>
+      <c r="AD19" s="142"/>
+      <c r="AE19" s="142"/>
+      <c r="AF19" s="142"/>
+      <c r="AG19" s="142"/>
+      <c r="AH19" s="142"/>
+      <c r="AI19" s="142"/>
+      <c r="AJ19" s="142"/>
+      <c r="AK19" s="142"/>
+      <c r="AL19" s="142"/>
       <c r="AM19" s="67"/>
       <c r="AN19" s="68"/>
       <c r="AO19" s="69"/>
       <c r="AP19" s="66"/>
       <c r="AQ19" s="67"/>
-      <c r="AR19" s="125"/>
-      <c r="AS19" s="125"/>
-      <c r="AT19" s="125"/>
-      <c r="AU19" s="125"/>
-      <c r="AV19" s="125"/>
-      <c r="AW19" s="125"/>
-      <c r="AX19" s="125"/>
-      <c r="AY19" s="125"/>
-      <c r="AZ19" s="125"/>
-      <c r="BA19" s="125"/>
+      <c r="AR19" s="149"/>
+      <c r="AS19" s="149"/>
+      <c r="AT19" s="149"/>
+      <c r="AU19" s="149"/>
+      <c r="AV19" s="149"/>
+      <c r="AW19" s="149"/>
+      <c r="AX19" s="149"/>
+      <c r="AY19" s="149"/>
+      <c r="AZ19" s="149"/>
+      <c r="BA19" s="149"/>
       <c r="BB19" s="44"/>
       <c r="BC19" s="23"/>
       <c r="BD19" s="18"/>
@@ -13717,54 +13967,54 @@
       <c r="J26" s="27"/>
       <c r="K26" s="18"/>
       <c r="L26" s="18"/>
-      <c r="M26" s="115" t="s">
+      <c r="M26" s="144" t="s">
         <v>29</v>
       </c>
-      <c r="N26" s="115"/>
-      <c r="O26" s="115"/>
-      <c r="P26" s="115"/>
-      <c r="Q26" s="115"/>
-      <c r="R26" s="115"/>
-      <c r="S26" s="115"/>
-      <c r="T26" s="115"/>
-      <c r="U26" s="115"/>
-      <c r="V26" s="115"/>
-      <c r="W26" s="115"/>
-      <c r="X26" s="115"/>
+      <c r="N26" s="144"/>
+      <c r="O26" s="144"/>
+      <c r="P26" s="144"/>
+      <c r="Q26" s="144"/>
+      <c r="R26" s="144"/>
+      <c r="S26" s="144"/>
+      <c r="T26" s="144"/>
+      <c r="U26" s="144"/>
+      <c r="V26" s="144"/>
+      <c r="W26" s="144"/>
+      <c r="X26" s="144"/>
       <c r="Y26" s="18"/>
       <c r="Z26" s="18"/>
       <c r="AA26" s="18"/>
-      <c r="AB26" s="126" t="s">
+      <c r="AB26" s="150" t="s">
         <v>57</v>
       </c>
-      <c r="AC26" s="126"/>
-      <c r="AD26" s="126"/>
-      <c r="AE26" s="126"/>
-      <c r="AF26" s="126"/>
-      <c r="AG26" s="126"/>
-      <c r="AH26" s="126"/>
-      <c r="AI26" s="126"/>
-      <c r="AJ26" s="126"/>
-      <c r="AK26" s="126"/>
-      <c r="AL26" s="126"/>
-      <c r="AM26" s="126"/>
+      <c r="AC26" s="150"/>
+      <c r="AD26" s="150"/>
+      <c r="AE26" s="150"/>
+      <c r="AF26" s="150"/>
+      <c r="AG26" s="150"/>
+      <c r="AH26" s="150"/>
+      <c r="AI26" s="150"/>
+      <c r="AJ26" s="150"/>
+      <c r="AK26" s="150"/>
+      <c r="AL26" s="150"/>
+      <c r="AM26" s="150"/>
       <c r="AN26" s="18"/>
       <c r="AO26" s="18"/>
       <c r="AP26" s="18"/>
-      <c r="AQ26" s="115" t="s">
+      <c r="AQ26" s="144" t="s">
         <v>26</v>
       </c>
-      <c r="AR26" s="115"/>
-      <c r="AS26" s="115"/>
-      <c r="AT26" s="115"/>
-      <c r="AU26" s="115"/>
-      <c r="AV26" s="115"/>
-      <c r="AW26" s="115"/>
-      <c r="AX26" s="115"/>
-      <c r="AY26" s="115"/>
-      <c r="AZ26" s="115"/>
-      <c r="BA26" s="115"/>
-      <c r="BB26" s="115"/>
+      <c r="AR26" s="144"/>
+      <c r="AS26" s="144"/>
+      <c r="AT26" s="144"/>
+      <c r="AU26" s="144"/>
+      <c r="AV26" s="144"/>
+      <c r="AW26" s="144"/>
+      <c r="AX26" s="144"/>
+      <c r="AY26" s="144"/>
+      <c r="AZ26" s="144"/>
+      <c r="BA26" s="144"/>
+      <c r="BB26" s="144"/>
       <c r="BC26" s="38"/>
       <c r="BD26" s="18"/>
       <c r="BE26" s="52"/>
@@ -14792,19 +15042,21 @@
     </row>
   </sheetData>
   <mergeCells count="42">
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="F1:L1"/>
-    <mergeCell ref="M1:P1"/>
-    <mergeCell ref="Q1:W1"/>
-    <mergeCell ref="A2:E2"/>
-    <mergeCell ref="F2:L2"/>
-    <mergeCell ref="M2:P2"/>
-    <mergeCell ref="Q2:W2"/>
-    <mergeCell ref="M3:P3"/>
-    <mergeCell ref="Q3:W3"/>
-    <mergeCell ref="M4:P4"/>
-    <mergeCell ref="Q4:W4"/>
-    <mergeCell ref="B7:I7"/>
+    <mergeCell ref="BA12:BC13"/>
+    <mergeCell ref="AR17:BA19"/>
+    <mergeCell ref="M26:X26"/>
+    <mergeCell ref="AB26:AM26"/>
+    <mergeCell ref="AQ26:BB26"/>
+    <mergeCell ref="AR12:AT13"/>
+    <mergeCell ref="AU12:AW13"/>
+    <mergeCell ref="AX12:AZ13"/>
+    <mergeCell ref="AO8:AT8"/>
+    <mergeCell ref="Z9:AE9"/>
+    <mergeCell ref="L10:Q10"/>
+    <mergeCell ref="C8:D9"/>
+    <mergeCell ref="E8:F9"/>
+    <mergeCell ref="G8:H9"/>
+    <mergeCell ref="I8:J9"/>
     <mergeCell ref="C11:I12"/>
     <mergeCell ref="AL12:AN13"/>
     <mergeCell ref="N17:W19"/>
@@ -14819,21 +15071,19 @@
     <mergeCell ref="L12:M13"/>
     <mergeCell ref="N12:P13"/>
     <mergeCell ref="Q12:S13"/>
-    <mergeCell ref="AO8:AT8"/>
-    <mergeCell ref="Z9:AE9"/>
-    <mergeCell ref="L10:Q10"/>
-    <mergeCell ref="C8:D9"/>
-    <mergeCell ref="E8:F9"/>
-    <mergeCell ref="G8:H9"/>
-    <mergeCell ref="I8:J9"/>
-    <mergeCell ref="BA12:BC13"/>
-    <mergeCell ref="AR17:BA19"/>
-    <mergeCell ref="M26:X26"/>
-    <mergeCell ref="AB26:AM26"/>
-    <mergeCell ref="AQ26:BB26"/>
-    <mergeCell ref="AR12:AT13"/>
-    <mergeCell ref="AU12:AW13"/>
-    <mergeCell ref="AX12:AZ13"/>
+    <mergeCell ref="M3:P3"/>
+    <mergeCell ref="Q3:W3"/>
+    <mergeCell ref="M4:P4"/>
+    <mergeCell ref="Q4:W4"/>
+    <mergeCell ref="B7:I7"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="F1:L1"/>
+    <mergeCell ref="M1:P1"/>
+    <mergeCell ref="Q1:W1"/>
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="F2:L2"/>
+    <mergeCell ref="M2:P2"/>
+    <mergeCell ref="Q2:W2"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -14857,104 +15107,104 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:54" x14ac:dyDescent="0.15">
-      <c r="A1" s="107" t="s">
+      <c r="A1" s="87" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="107"/>
-      <c r="C1" s="107"/>
-      <c r="D1" s="107"/>
-      <c r="E1" s="107"/>
-      <c r="F1" s="108" t="s">
+      <c r="B1" s="87"/>
+      <c r="C1" s="87"/>
+      <c r="D1" s="87"/>
+      <c r="E1" s="87"/>
+      <c r="F1" s="88" t="s">
         <v>7</v>
       </c>
-      <c r="G1" s="108"/>
-      <c r="H1" s="108"/>
-      <c r="I1" s="108"/>
-      <c r="J1" s="108"/>
-      <c r="K1" s="108"/>
-      <c r="L1" s="108"/>
-      <c r="M1" s="107" t="s">
+      <c r="G1" s="88"/>
+      <c r="H1" s="88"/>
+      <c r="I1" s="88"/>
+      <c r="J1" s="88"/>
+      <c r="K1" s="88"/>
+      <c r="L1" s="88"/>
+      <c r="M1" s="87" t="s">
         <v>1</v>
       </c>
-      <c r="N1" s="107"/>
-      <c r="O1" s="107"/>
-      <c r="P1" s="107"/>
-      <c r="Q1" s="108" t="s">
+      <c r="N1" s="87"/>
+      <c r="O1" s="87"/>
+      <c r="P1" s="87"/>
+      <c r="Q1" s="88" t="s">
         <v>9</v>
       </c>
-      <c r="R1" s="108"/>
-      <c r="S1" s="108"/>
-      <c r="T1" s="108"/>
-      <c r="U1" s="108"/>
-      <c r="V1" s="108"/>
-      <c r="W1" s="108"/>
+      <c r="R1" s="88"/>
+      <c r="S1" s="88"/>
+      <c r="T1" s="88"/>
+      <c r="U1" s="88"/>
+      <c r="V1" s="88"/>
+      <c r="W1" s="88"/>
     </row>
     <row r="2" spans="1:54" x14ac:dyDescent="0.15">
-      <c r="A2" s="107" t="s">
+      <c r="A2" s="87" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="107"/>
-      <c r="C2" s="107"/>
-      <c r="D2" s="107"/>
-      <c r="E2" s="107"/>
-      <c r="F2" s="108" t="s">
+      <c r="B2" s="87"/>
+      <c r="C2" s="87"/>
+      <c r="D2" s="87"/>
+      <c r="E2" s="87"/>
+      <c r="F2" s="88" t="s">
         <v>8</v>
       </c>
-      <c r="G2" s="108"/>
-      <c r="H2" s="108"/>
-      <c r="I2" s="108"/>
-      <c r="J2" s="108"/>
-      <c r="K2" s="108"/>
-      <c r="L2" s="108"/>
-      <c r="M2" s="107" t="s">
+      <c r="G2" s="88"/>
+      <c r="H2" s="88"/>
+      <c r="I2" s="88"/>
+      <c r="J2" s="88"/>
+      <c r="K2" s="88"/>
+      <c r="L2" s="88"/>
+      <c r="M2" s="87" t="s">
         <v>3</v>
       </c>
-      <c r="N2" s="107"/>
-      <c r="O2" s="107"/>
-      <c r="P2" s="107"/>
-      <c r="Q2" s="108" t="s">
+      <c r="N2" s="87"/>
+      <c r="O2" s="87"/>
+      <c r="P2" s="87"/>
+      <c r="Q2" s="88" t="s">
         <v>10</v>
       </c>
-      <c r="R2" s="108"/>
-      <c r="S2" s="108"/>
-      <c r="T2" s="108"/>
-      <c r="U2" s="108"/>
-      <c r="V2" s="108"/>
-      <c r="W2" s="108"/>
+      <c r="R2" s="88"/>
+      <c r="S2" s="88"/>
+      <c r="T2" s="88"/>
+      <c r="U2" s="88"/>
+      <c r="V2" s="88"/>
+      <c r="W2" s="88"/>
     </row>
     <row r="3" spans="1:54" x14ac:dyDescent="0.15">
-      <c r="M3" s="107" t="s">
+      <c r="M3" s="87" t="s">
         <v>4</v>
       </c>
-      <c r="N3" s="107"/>
-      <c r="O3" s="107"/>
-      <c r="P3" s="107"/>
-      <c r="Q3" s="108" t="s">
+      <c r="N3" s="87"/>
+      <c r="O3" s="87"/>
+      <c r="P3" s="87"/>
+      <c r="Q3" s="88" t="s">
         <v>9</v>
       </c>
-      <c r="R3" s="108"/>
-      <c r="S3" s="108"/>
-      <c r="T3" s="108"/>
-      <c r="U3" s="108"/>
-      <c r="V3" s="108"/>
-      <c r="W3" s="108"/>
+      <c r="R3" s="88"/>
+      <c r="S3" s="88"/>
+      <c r="T3" s="88"/>
+      <c r="U3" s="88"/>
+      <c r="V3" s="88"/>
+      <c r="W3" s="88"/>
     </row>
     <row r="4" spans="1:54" x14ac:dyDescent="0.15">
-      <c r="M4" s="107" t="s">
+      <c r="M4" s="87" t="s">
         <v>5</v>
       </c>
-      <c r="N4" s="107"/>
-      <c r="O4" s="107"/>
-      <c r="P4" s="107"/>
-      <c r="Q4" s="108" t="s">
+      <c r="N4" s="87"/>
+      <c r="O4" s="87"/>
+      <c r="P4" s="87"/>
+      <c r="Q4" s="88" t="s">
         <v>33</v>
       </c>
-      <c r="R4" s="108"/>
-      <c r="S4" s="108"/>
-      <c r="T4" s="108"/>
-      <c r="U4" s="108"/>
-      <c r="V4" s="108"/>
-      <c r="W4" s="108"/>
+      <c r="R4" s="88"/>
+      <c r="S4" s="88"/>
+      <c r="T4" s="88"/>
+      <c r="U4" s="88"/>
+      <c r="V4" s="88"/>
+      <c r="W4" s="88"/>
     </row>
     <row r="5" spans="1:54" ht="28.5" x14ac:dyDescent="0.15">
       <c r="A5" s="2" t="s">
@@ -15026,17 +15276,17 @@
     </row>
     <row r="7" spans="1:54" x14ac:dyDescent="0.15">
       <c r="A7" s="6"/>
-      <c r="B7" s="85" t="s">
+      <c r="B7" s="92" t="s">
         <v>66</v>
       </c>
-      <c r="C7" s="85"/>
-      <c r="D7" s="85"/>
-      <c r="E7" s="85"/>
-      <c r="F7" s="85"/>
-      <c r="G7" s="85"/>
-      <c r="H7" s="85"/>
-      <c r="I7" s="85"/>
-      <c r="J7" s="85"/>
+      <c r="C7" s="92"/>
+      <c r="D7" s="92"/>
+      <c r="E7" s="92"/>
+      <c r="F7" s="92"/>
+      <c r="G7" s="92"/>
+      <c r="H7" s="92"/>
+      <c r="I7" s="92"/>
+      <c r="J7" s="92"/>
       <c r="K7" s="18"/>
       <c r="L7" s="18"/>
       <c r="M7" s="18"/>
@@ -15052,16 +15302,16 @@
       <c r="W7" s="18"/>
       <c r="X7" s="18"/>
       <c r="Y7" s="18"/>
-      <c r="Z7" s="110" t="s">
+      <c r="Z7" s="116" t="s">
         <v>51</v>
       </c>
-      <c r="AA7" s="110"/>
-      <c r="AB7" s="110"/>
-      <c r="AC7" s="110"/>
-      <c r="AD7" s="110"/>
-      <c r="AE7" s="110"/>
-      <c r="AF7" s="110"/>
-      <c r="AG7" s="110"/>
+      <c r="AA7" s="116"/>
+      <c r="AB7" s="116"/>
+      <c r="AC7" s="116"/>
+      <c r="AD7" s="116"/>
+      <c r="AE7" s="116"/>
+      <c r="AF7" s="116"/>
+      <c r="AG7" s="116"/>
       <c r="AH7" s="32"/>
       <c r="AI7" s="32"/>
       <c r="AJ7" s="32"/>
@@ -15087,22 +15337,22 @@
     <row r="8" spans="1:54" x14ac:dyDescent="0.15">
       <c r="A8" s="6"/>
       <c r="B8" s="19"/>
-      <c r="C8" s="127" t="s">
+      <c r="C8" s="143" t="s">
         <v>38</v>
       </c>
-      <c r="D8" s="115"/>
-      <c r="E8" s="118" t="s">
+      <c r="D8" s="144"/>
+      <c r="E8" s="134" t="s">
         <v>12</v>
       </c>
-      <c r="F8" s="118"/>
-      <c r="G8" s="118" t="s">
+      <c r="F8" s="134"/>
+      <c r="G8" s="134" t="s">
         <v>15</v>
       </c>
-      <c r="H8" s="118"/>
-      <c r="I8" s="128" t="s">
+      <c r="H8" s="134"/>
+      <c r="I8" s="145" t="s">
         <v>36</v>
       </c>
-      <c r="J8" s="129"/>
+      <c r="J8" s="146"/>
       <c r="K8" s="18"/>
       <c r="L8" s="18"/>
       <c r="M8" s="18"/>
@@ -15151,14 +15401,14 @@
     <row r="9" spans="1:54" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A9" s="6"/>
       <c r="B9" s="56"/>
-      <c r="C9" s="85"/>
-      <c r="D9" s="85"/>
-      <c r="E9" s="119"/>
-      <c r="F9" s="119"/>
-      <c r="G9" s="119"/>
-      <c r="H9" s="119"/>
-      <c r="I9" s="130"/>
-      <c r="J9" s="131"/>
+      <c r="C9" s="92"/>
+      <c r="D9" s="92"/>
+      <c r="E9" s="135"/>
+      <c r="F9" s="135"/>
+      <c r="G9" s="135"/>
+      <c r="H9" s="135"/>
+      <c r="I9" s="147"/>
+      <c r="J9" s="148"/>
       <c r="K9" s="18"/>
       <c r="L9" s="18"/>
       <c r="M9" s="18"/>
@@ -15217,16 +15467,16 @@
       <c r="J10" s="57"/>
       <c r="K10" s="43"/>
       <c r="L10" s="43"/>
-      <c r="M10" s="110" t="s">
+      <c r="M10" s="116" t="s">
         <v>50</v>
       </c>
-      <c r="N10" s="110"/>
-      <c r="O10" s="110"/>
-      <c r="P10" s="110"/>
-      <c r="Q10" s="110"/>
-      <c r="R10" s="110"/>
-      <c r="S10" s="110"/>
-      <c r="T10" s="110"/>
+      <c r="N10" s="116"/>
+      <c r="O10" s="116"/>
+      <c r="P10" s="116"/>
+      <c r="Q10" s="116"/>
+      <c r="R10" s="116"/>
+      <c r="S10" s="116"/>
+      <c r="T10" s="116"/>
       <c r="U10" s="39"/>
       <c r="V10" s="24"/>
       <c r="W10" s="18"/>
@@ -15265,15 +15515,15 @@
     <row r="11" spans="1:54" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="6"/>
       <c r="B11" s="22"/>
-      <c r="C11" s="132" t="s">
+      <c r="C11" s="141" t="s">
         <v>37</v>
       </c>
-      <c r="D11" s="133"/>
-      <c r="E11" s="133"/>
-      <c r="F11" s="133"/>
-      <c r="G11" s="133"/>
-      <c r="H11" s="133"/>
-      <c r="I11" s="133"/>
+      <c r="D11" s="132"/>
+      <c r="E11" s="132"/>
+      <c r="F11" s="132"/>
+      <c r="G11" s="132"/>
+      <c r="H11" s="132"/>
+      <c r="I11" s="132"/>
       <c r="J11" s="57"/>
       <c r="K11" s="43"/>
       <c r="L11" s="43"/>
@@ -15323,13 +15573,13 @@
     <row r="12" spans="1:54" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="6"/>
       <c r="B12" s="12"/>
-      <c r="C12" s="133"/>
-      <c r="D12" s="133"/>
-      <c r="E12" s="133"/>
-      <c r="F12" s="133"/>
-      <c r="G12" s="133"/>
-      <c r="H12" s="133"/>
-      <c r="I12" s="133"/>
+      <c r="C12" s="132"/>
+      <c r="D12" s="132"/>
+      <c r="E12" s="132"/>
+      <c r="F12" s="132"/>
+      <c r="G12" s="132"/>
+      <c r="H12" s="132"/>
+      <c r="I12" s="132"/>
       <c r="J12" s="52"/>
       <c r="K12" s="18"/>
       <c r="L12" s="18"/>
@@ -15390,28 +15640,28 @@
       <c r="K13" s="18"/>
       <c r="L13" s="18"/>
       <c r="M13" s="18"/>
-      <c r="N13" s="116"/>
-      <c r="O13" s="96"/>
-      <c r="P13" s="118" t="s">
+      <c r="N13" s="133"/>
+      <c r="O13" s="95"/>
+      <c r="P13" s="134" t="s">
         <v>31</v>
       </c>
-      <c r="Q13" s="118"/>
-      <c r="R13" s="118"/>
-      <c r="S13" s="120" t="s">
+      <c r="Q13" s="134"/>
+      <c r="R13" s="134"/>
+      <c r="S13" s="136" t="s">
         <v>12</v>
       </c>
-      <c r="T13" s="120"/>
-      <c r="U13" s="120"/>
-      <c r="V13" s="118" t="s">
+      <c r="T13" s="136"/>
+      <c r="U13" s="136"/>
+      <c r="V13" s="134" t="s">
         <v>15</v>
       </c>
-      <c r="W13" s="118"/>
-      <c r="X13" s="118"/>
-      <c r="Y13" s="120" t="s">
+      <c r="W13" s="134"/>
+      <c r="X13" s="134"/>
+      <c r="Y13" s="136" t="s">
         <v>36</v>
       </c>
-      <c r="Z13" s="120"/>
-      <c r="AA13" s="122"/>
+      <c r="Z13" s="136"/>
+      <c r="AA13" s="138"/>
       <c r="AB13" s="25"/>
       <c r="AC13" s="25"/>
       <c r="AD13" s="18"/>
@@ -15421,28 +15671,28 @@
       <c r="AH13" s="25"/>
       <c r="AI13" s="18"/>
       <c r="AJ13" s="18"/>
-      <c r="AK13" s="116"/>
-      <c r="AL13" s="96"/>
-      <c r="AM13" s="118" t="s">
+      <c r="AK13" s="133"/>
+      <c r="AL13" s="95"/>
+      <c r="AM13" s="134" t="s">
         <v>31</v>
       </c>
-      <c r="AN13" s="118"/>
-      <c r="AO13" s="118"/>
-      <c r="AP13" s="120" t="s">
+      <c r="AN13" s="134"/>
+      <c r="AO13" s="134"/>
+      <c r="AP13" s="136" t="s">
         <v>12</v>
       </c>
-      <c r="AQ13" s="120"/>
-      <c r="AR13" s="120"/>
-      <c r="AS13" s="118" t="s">
+      <c r="AQ13" s="136"/>
+      <c r="AR13" s="136"/>
+      <c r="AS13" s="134" t="s">
         <v>15</v>
       </c>
-      <c r="AT13" s="118"/>
-      <c r="AU13" s="118"/>
-      <c r="AV13" s="120" t="s">
+      <c r="AT13" s="134"/>
+      <c r="AU13" s="134"/>
+      <c r="AV13" s="136" t="s">
         <v>36</v>
       </c>
-      <c r="AW13" s="120"/>
-      <c r="AX13" s="122"/>
+      <c r="AW13" s="136"/>
+      <c r="AX13" s="138"/>
       <c r="AY13" s="18"/>
       <c r="AZ13" s="18"/>
       <c r="BA13" s="18"/>
@@ -15462,20 +15712,20 @@
       <c r="K14" s="18"/>
       <c r="L14" s="18"/>
       <c r="M14" s="18"/>
-      <c r="N14" s="117"/>
+      <c r="N14" s="115"/>
       <c r="O14" s="97"/>
-      <c r="P14" s="119"/>
-      <c r="Q14" s="119"/>
-      <c r="R14" s="119"/>
-      <c r="S14" s="121"/>
-      <c r="T14" s="121"/>
-      <c r="U14" s="121"/>
-      <c r="V14" s="119"/>
-      <c r="W14" s="119"/>
-      <c r="X14" s="119"/>
-      <c r="Y14" s="121"/>
-      <c r="Z14" s="121"/>
-      <c r="AA14" s="123"/>
+      <c r="P14" s="135"/>
+      <c r="Q14" s="135"/>
+      <c r="R14" s="135"/>
+      <c r="S14" s="137"/>
+      <c r="T14" s="137"/>
+      <c r="U14" s="137"/>
+      <c r="V14" s="135"/>
+      <c r="W14" s="135"/>
+      <c r="X14" s="135"/>
+      <c r="Y14" s="137"/>
+      <c r="Z14" s="137"/>
+      <c r="AA14" s="139"/>
       <c r="AB14" s="24"/>
       <c r="AC14" s="24"/>
       <c r="AD14" s="24"/>
@@ -15485,20 +15735,20 @@
       <c r="AH14" s="24"/>
       <c r="AI14" s="18"/>
       <c r="AJ14" s="18"/>
-      <c r="AK14" s="117"/>
+      <c r="AK14" s="115"/>
       <c r="AL14" s="97"/>
-      <c r="AM14" s="119"/>
-      <c r="AN14" s="119"/>
-      <c r="AO14" s="119"/>
-      <c r="AP14" s="121"/>
-      <c r="AQ14" s="121"/>
-      <c r="AR14" s="121"/>
-      <c r="AS14" s="119"/>
-      <c r="AT14" s="119"/>
-      <c r="AU14" s="119"/>
-      <c r="AV14" s="121"/>
-      <c r="AW14" s="121"/>
-      <c r="AX14" s="123"/>
+      <c r="AM14" s="135"/>
+      <c r="AN14" s="135"/>
+      <c r="AO14" s="135"/>
+      <c r="AP14" s="137"/>
+      <c r="AQ14" s="137"/>
+      <c r="AR14" s="137"/>
+      <c r="AS14" s="135"/>
+      <c r="AT14" s="135"/>
+      <c r="AU14" s="135"/>
+      <c r="AV14" s="137"/>
+      <c r="AW14" s="137"/>
+      <c r="AX14" s="139"/>
       <c r="AY14" s="18"/>
       <c r="AZ14" s="18"/>
       <c r="BA14" s="18"/>
@@ -15674,18 +15924,18 @@
       <c r="M18" s="18"/>
       <c r="N18" s="66"/>
       <c r="O18" s="67"/>
-      <c r="P18" s="124" t="s">
+      <c r="P18" s="142" t="s">
         <v>47</v>
       </c>
-      <c r="Q18" s="124"/>
-      <c r="R18" s="124"/>
-      <c r="S18" s="124"/>
-      <c r="T18" s="124"/>
-      <c r="U18" s="124"/>
-      <c r="V18" s="124"/>
-      <c r="W18" s="124"/>
-      <c r="X18" s="124"/>
-      <c r="Y18" s="124"/>
+      <c r="Q18" s="142"/>
+      <c r="R18" s="142"/>
+      <c r="S18" s="142"/>
+      <c r="T18" s="142"/>
+      <c r="U18" s="142"/>
+      <c r="V18" s="142"/>
+      <c r="W18" s="142"/>
+      <c r="X18" s="142"/>
+      <c r="Y18" s="142"/>
       <c r="Z18" s="67"/>
       <c r="AA18" s="64"/>
       <c r="AB18" s="18"/>
@@ -15699,18 +15949,18 @@
       <c r="AJ18" s="18"/>
       <c r="AK18" s="66"/>
       <c r="AL18" s="67"/>
-      <c r="AM18" s="124" t="s">
+      <c r="AM18" s="142" t="s">
         <v>49</v>
       </c>
-      <c r="AN18" s="124"/>
-      <c r="AO18" s="124"/>
-      <c r="AP18" s="124"/>
-      <c r="AQ18" s="124"/>
-      <c r="AR18" s="124"/>
-      <c r="AS18" s="124"/>
-      <c r="AT18" s="124"/>
-      <c r="AU18" s="124"/>
-      <c r="AV18" s="124"/>
+      <c r="AN18" s="142"/>
+      <c r="AO18" s="142"/>
+      <c r="AP18" s="142"/>
+      <c r="AQ18" s="142"/>
+      <c r="AR18" s="142"/>
+      <c r="AS18" s="142"/>
+      <c r="AT18" s="142"/>
+      <c r="AU18" s="142"/>
+      <c r="AV18" s="142"/>
       <c r="AW18" s="67"/>
       <c r="AX18" s="64"/>
       <c r="AY18" s="18"/>
@@ -15727,16 +15977,16 @@
       <c r="M19" s="18"/>
       <c r="N19" s="66"/>
       <c r="O19" s="67"/>
-      <c r="P19" s="124"/>
-      <c r="Q19" s="124"/>
-      <c r="R19" s="124"/>
-      <c r="S19" s="124"/>
-      <c r="T19" s="124"/>
-      <c r="U19" s="124"/>
-      <c r="V19" s="124"/>
-      <c r="W19" s="124"/>
-      <c r="X19" s="124"/>
-      <c r="Y19" s="124"/>
+      <c r="P19" s="142"/>
+      <c r="Q19" s="142"/>
+      <c r="R19" s="142"/>
+      <c r="S19" s="142"/>
+      <c r="T19" s="142"/>
+      <c r="U19" s="142"/>
+      <c r="V19" s="142"/>
+      <c r="W19" s="142"/>
+      <c r="X19" s="142"/>
+      <c r="Y19" s="142"/>
       <c r="Z19" s="67"/>
       <c r="AA19" s="68"/>
       <c r="AB19" s="24"/>
@@ -15750,16 +16000,16 @@
       <c r="AJ19" s="18"/>
       <c r="AK19" s="66"/>
       <c r="AL19" s="67"/>
-      <c r="AM19" s="124"/>
-      <c r="AN19" s="124"/>
-      <c r="AO19" s="124"/>
-      <c r="AP19" s="124"/>
-      <c r="AQ19" s="124"/>
-      <c r="AR19" s="124"/>
-      <c r="AS19" s="124"/>
-      <c r="AT19" s="124"/>
-      <c r="AU19" s="124"/>
-      <c r="AV19" s="124"/>
+      <c r="AM19" s="142"/>
+      <c r="AN19" s="142"/>
+      <c r="AO19" s="142"/>
+      <c r="AP19" s="142"/>
+      <c r="AQ19" s="142"/>
+      <c r="AR19" s="142"/>
+      <c r="AS19" s="142"/>
+      <c r="AT19" s="142"/>
+      <c r="AU19" s="142"/>
+      <c r="AV19" s="142"/>
       <c r="AW19" s="67"/>
       <c r="AX19" s="68"/>
       <c r="AY19" s="18"/>
@@ -15776,16 +16026,16 @@
       <c r="M20" s="18"/>
       <c r="N20" s="66"/>
       <c r="O20" s="67"/>
-      <c r="P20" s="124"/>
-      <c r="Q20" s="124"/>
-      <c r="R20" s="124"/>
-      <c r="S20" s="124"/>
-      <c r="T20" s="124"/>
-      <c r="U20" s="124"/>
-      <c r="V20" s="124"/>
-      <c r="W20" s="124"/>
-      <c r="X20" s="124"/>
-      <c r="Y20" s="124"/>
+      <c r="P20" s="142"/>
+      <c r="Q20" s="142"/>
+      <c r="R20" s="142"/>
+      <c r="S20" s="142"/>
+      <c r="T20" s="142"/>
+      <c r="U20" s="142"/>
+      <c r="V20" s="142"/>
+      <c r="W20" s="142"/>
+      <c r="X20" s="142"/>
+      <c r="Y20" s="142"/>
       <c r="Z20" s="67"/>
       <c r="AA20" s="68"/>
       <c r="AB20" s="24"/>
@@ -15799,16 +16049,16 @@
       <c r="AJ20" s="18"/>
       <c r="AK20" s="66"/>
       <c r="AL20" s="67"/>
-      <c r="AM20" s="124"/>
-      <c r="AN20" s="124"/>
-      <c r="AO20" s="124"/>
-      <c r="AP20" s="124"/>
-      <c r="AQ20" s="124"/>
-      <c r="AR20" s="124"/>
-      <c r="AS20" s="124"/>
-      <c r="AT20" s="124"/>
-      <c r="AU20" s="124"/>
-      <c r="AV20" s="124"/>
+      <c r="AM20" s="142"/>
+      <c r="AN20" s="142"/>
+      <c r="AO20" s="142"/>
+      <c r="AP20" s="142"/>
+      <c r="AQ20" s="142"/>
+      <c r="AR20" s="142"/>
+      <c r="AS20" s="142"/>
+      <c r="AT20" s="142"/>
+      <c r="AU20" s="142"/>
+      <c r="AV20" s="142"/>
       <c r="AW20" s="67"/>
       <c r="AX20" s="68"/>
       <c r="AY20" s="18"/>
@@ -16113,20 +16363,20 @@
       <c r="L27" s="30"/>
       <c r="M27" s="30"/>
       <c r="N27" s="30"/>
-      <c r="O27" s="134" t="s">
+      <c r="O27" s="151" t="s">
         <v>25</v>
       </c>
-      <c r="P27" s="134"/>
-      <c r="Q27" s="134"/>
-      <c r="R27" s="134"/>
-      <c r="S27" s="134"/>
-      <c r="T27" s="134"/>
-      <c r="U27" s="134"/>
-      <c r="V27" s="134"/>
-      <c r="W27" s="134"/>
-      <c r="X27" s="134"/>
-      <c r="Y27" s="134"/>
-      <c r="Z27" s="134"/>
+      <c r="P27" s="151"/>
+      <c r="Q27" s="151"/>
+      <c r="R27" s="151"/>
+      <c r="S27" s="151"/>
+      <c r="T27" s="151"/>
+      <c r="U27" s="151"/>
+      <c r="V27" s="151"/>
+      <c r="W27" s="151"/>
+      <c r="X27" s="151"/>
+      <c r="Y27" s="151"/>
+      <c r="Z27" s="151"/>
       <c r="AA27" s="53"/>
       <c r="AB27" s="53"/>
       <c r="AC27" s="53"/>
@@ -16138,20 +16388,20 @@
       <c r="AI27" s="30"/>
       <c r="AJ27" s="30"/>
       <c r="AK27" s="30"/>
-      <c r="AL27" s="113" t="s">
+      <c r="AL27" s="121" t="s">
         <v>52</v>
       </c>
-      <c r="AM27" s="114"/>
-      <c r="AN27" s="114"/>
-      <c r="AO27" s="114"/>
-      <c r="AP27" s="114"/>
-      <c r="AQ27" s="114"/>
-      <c r="AR27" s="114"/>
-      <c r="AS27" s="114"/>
-      <c r="AT27" s="114"/>
-      <c r="AU27" s="114"/>
-      <c r="AV27" s="114"/>
-      <c r="AW27" s="114"/>
+      <c r="AM27" s="118"/>
+      <c r="AN27" s="118"/>
+      <c r="AO27" s="118"/>
+      <c r="AP27" s="118"/>
+      <c r="AQ27" s="118"/>
+      <c r="AR27" s="118"/>
+      <c r="AS27" s="118"/>
+      <c r="AT27" s="118"/>
+      <c r="AU27" s="118"/>
+      <c r="AV27" s="118"/>
+      <c r="AW27" s="118"/>
       <c r="AX27" s="30"/>
       <c r="AY27" s="30"/>
       <c r="AZ27" s="30"/>
@@ -17738,18 +17988,15 @@
     </row>
   </sheetData>
   <mergeCells count="34">
-    <mergeCell ref="M3:P3"/>
-    <mergeCell ref="Q3:W3"/>
-    <mergeCell ref="M4:P4"/>
-    <mergeCell ref="Q4:W4"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="F1:L1"/>
-    <mergeCell ref="M1:P1"/>
-    <mergeCell ref="Q1:W1"/>
-    <mergeCell ref="A2:E2"/>
-    <mergeCell ref="F2:L2"/>
-    <mergeCell ref="M2:P2"/>
-    <mergeCell ref="Q2:W2"/>
+    <mergeCell ref="C11:I12"/>
+    <mergeCell ref="B7:J7"/>
+    <mergeCell ref="M10:T10"/>
+    <mergeCell ref="Z7:AG7"/>
+    <mergeCell ref="AK13:AL14"/>
+    <mergeCell ref="C8:D9"/>
+    <mergeCell ref="E8:F9"/>
+    <mergeCell ref="G8:H9"/>
+    <mergeCell ref="I8:J9"/>
     <mergeCell ref="O27:Z27"/>
     <mergeCell ref="AL27:AW27"/>
     <mergeCell ref="N13:O14"/>
@@ -17763,15 +18010,18 @@
     <mergeCell ref="AS13:AU14"/>
     <mergeCell ref="AV13:AX14"/>
     <mergeCell ref="AM18:AV20"/>
-    <mergeCell ref="C11:I12"/>
-    <mergeCell ref="B7:J7"/>
-    <mergeCell ref="M10:T10"/>
-    <mergeCell ref="Z7:AG7"/>
-    <mergeCell ref="AK13:AL14"/>
-    <mergeCell ref="C8:D9"/>
-    <mergeCell ref="E8:F9"/>
-    <mergeCell ref="G8:H9"/>
-    <mergeCell ref="I8:J9"/>
+    <mergeCell ref="M3:P3"/>
+    <mergeCell ref="Q3:W3"/>
+    <mergeCell ref="M4:P4"/>
+    <mergeCell ref="Q4:W4"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="F1:L1"/>
+    <mergeCell ref="M1:P1"/>
+    <mergeCell ref="Q1:W1"/>
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="F2:L2"/>
+    <mergeCell ref="M2:P2"/>
+    <mergeCell ref="Q2:W2"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -17795,104 +18045,104 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:57" x14ac:dyDescent="0.15">
-      <c r="A1" s="107" t="s">
+      <c r="A1" s="87" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="107"/>
-      <c r="C1" s="107"/>
-      <c r="D1" s="107"/>
-      <c r="E1" s="107"/>
-      <c r="F1" s="108" t="s">
+      <c r="B1" s="87"/>
+      <c r="C1" s="87"/>
+      <c r="D1" s="87"/>
+      <c r="E1" s="87"/>
+      <c r="F1" s="88" t="s">
         <v>7</v>
       </c>
-      <c r="G1" s="108"/>
-      <c r="H1" s="108"/>
-      <c r="I1" s="108"/>
-      <c r="J1" s="108"/>
-      <c r="K1" s="108"/>
-      <c r="L1" s="108"/>
-      <c r="M1" s="107" t="s">
+      <c r="G1" s="88"/>
+      <c r="H1" s="88"/>
+      <c r="I1" s="88"/>
+      <c r="J1" s="88"/>
+      <c r="K1" s="88"/>
+      <c r="L1" s="88"/>
+      <c r="M1" s="87" t="s">
         <v>1</v>
       </c>
-      <c r="N1" s="107"/>
-      <c r="O1" s="107"/>
-      <c r="P1" s="107"/>
-      <c r="Q1" s="108" t="s">
+      <c r="N1" s="87"/>
+      <c r="O1" s="87"/>
+      <c r="P1" s="87"/>
+      <c r="Q1" s="88" t="s">
         <v>9</v>
       </c>
-      <c r="R1" s="108"/>
-      <c r="S1" s="108"/>
-      <c r="T1" s="108"/>
-      <c r="U1" s="108"/>
-      <c r="V1" s="108"/>
-      <c r="W1" s="108"/>
+      <c r="R1" s="88"/>
+      <c r="S1" s="88"/>
+      <c r="T1" s="88"/>
+      <c r="U1" s="88"/>
+      <c r="V1" s="88"/>
+      <c r="W1" s="88"/>
     </row>
     <row r="2" spans="1:57" x14ac:dyDescent="0.15">
-      <c r="A2" s="107" t="s">
+      <c r="A2" s="87" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="107"/>
-      <c r="C2" s="107"/>
-      <c r="D2" s="107"/>
-      <c r="E2" s="107"/>
-      <c r="F2" s="108" t="s">
+      <c r="B2" s="87"/>
+      <c r="C2" s="87"/>
+      <c r="D2" s="87"/>
+      <c r="E2" s="87"/>
+      <c r="F2" s="88" t="s">
         <v>8</v>
       </c>
-      <c r="G2" s="108"/>
-      <c r="H2" s="108"/>
-      <c r="I2" s="108"/>
-      <c r="J2" s="108"/>
-      <c r="K2" s="108"/>
-      <c r="L2" s="108"/>
-      <c r="M2" s="107" t="s">
+      <c r="G2" s="88"/>
+      <c r="H2" s="88"/>
+      <c r="I2" s="88"/>
+      <c r="J2" s="88"/>
+      <c r="K2" s="88"/>
+      <c r="L2" s="88"/>
+      <c r="M2" s="87" t="s">
         <v>3</v>
       </c>
-      <c r="N2" s="107"/>
-      <c r="O2" s="107"/>
-      <c r="P2" s="107"/>
-      <c r="Q2" s="108" t="s">
+      <c r="N2" s="87"/>
+      <c r="O2" s="87"/>
+      <c r="P2" s="87"/>
+      <c r="Q2" s="88" t="s">
         <v>10</v>
       </c>
-      <c r="R2" s="108"/>
-      <c r="S2" s="108"/>
-      <c r="T2" s="108"/>
-      <c r="U2" s="108"/>
-      <c r="V2" s="108"/>
-      <c r="W2" s="108"/>
+      <c r="R2" s="88"/>
+      <c r="S2" s="88"/>
+      <c r="T2" s="88"/>
+      <c r="U2" s="88"/>
+      <c r="V2" s="88"/>
+      <c r="W2" s="88"/>
     </row>
     <row r="3" spans="1:57" x14ac:dyDescent="0.15">
-      <c r="M3" s="107" t="s">
+      <c r="M3" s="87" t="s">
         <v>4</v>
       </c>
-      <c r="N3" s="107"/>
-      <c r="O3" s="107"/>
-      <c r="P3" s="107"/>
-      <c r="Q3" s="108" t="s">
+      <c r="N3" s="87"/>
+      <c r="O3" s="87"/>
+      <c r="P3" s="87"/>
+      <c r="Q3" s="88" t="s">
         <v>9</v>
       </c>
-      <c r="R3" s="108"/>
-      <c r="S3" s="108"/>
-      <c r="T3" s="108"/>
-      <c r="U3" s="108"/>
-      <c r="V3" s="108"/>
-      <c r="W3" s="108"/>
+      <c r="R3" s="88"/>
+      <c r="S3" s="88"/>
+      <c r="T3" s="88"/>
+      <c r="U3" s="88"/>
+      <c r="V3" s="88"/>
+      <c r="W3" s="88"/>
     </row>
     <row r="4" spans="1:57" x14ac:dyDescent="0.15">
-      <c r="M4" s="107" t="s">
+      <c r="M4" s="87" t="s">
         <v>5</v>
       </c>
-      <c r="N4" s="107"/>
-      <c r="O4" s="107"/>
-      <c r="P4" s="107"/>
-      <c r="Q4" s="108" t="s">
+      <c r="N4" s="87"/>
+      <c r="O4" s="87"/>
+      <c r="P4" s="87"/>
+      <c r="Q4" s="88" t="s">
         <v>33</v>
       </c>
-      <c r="R4" s="108"/>
-      <c r="S4" s="108"/>
-      <c r="T4" s="108"/>
-      <c r="U4" s="108"/>
-      <c r="V4" s="108"/>
-      <c r="W4" s="108"/>
+      <c r="R4" s="88"/>
+      <c r="S4" s="88"/>
+      <c r="T4" s="88"/>
+      <c r="U4" s="88"/>
+      <c r="V4" s="88"/>
+      <c r="W4" s="88"/>
     </row>
     <row r="5" spans="1:57" ht="28.5" x14ac:dyDescent="0.15">
       <c r="A5" s="2" t="s">
@@ -17967,16 +18217,16 @@
     </row>
     <row r="7" spans="1:57" x14ac:dyDescent="0.15">
       <c r="A7" s="6"/>
-      <c r="B7" s="109" t="s">
+      <c r="B7" s="140" t="s">
         <v>66</v>
       </c>
-      <c r="C7" s="109"/>
-      <c r="D7" s="109"/>
-      <c r="E7" s="109"/>
-      <c r="F7" s="109"/>
-      <c r="G7" s="109"/>
-      <c r="H7" s="109"/>
-      <c r="I7" s="109"/>
+      <c r="C7" s="140"/>
+      <c r="D7" s="140"/>
+      <c r="E7" s="140"/>
+      <c r="F7" s="140"/>
+      <c r="G7" s="140"/>
+      <c r="H7" s="140"/>
+      <c r="I7" s="140"/>
       <c r="J7" s="25"/>
       <c r="K7" s="18"/>
       <c r="L7" s="18"/>
@@ -18029,22 +18279,22 @@
     <row r="8" spans="1:57" x14ac:dyDescent="0.15">
       <c r="A8" s="6"/>
       <c r="B8" s="19"/>
-      <c r="C8" s="127" t="s">
+      <c r="C8" s="143" t="s">
         <v>38</v>
       </c>
-      <c r="D8" s="115"/>
-      <c r="E8" s="118" t="s">
+      <c r="D8" s="144"/>
+      <c r="E8" s="134" t="s">
         <v>30</v>
       </c>
-      <c r="F8" s="118"/>
-      <c r="G8" s="118" t="s">
+      <c r="F8" s="134"/>
+      <c r="G8" s="134" t="s">
         <v>15</v>
       </c>
-      <c r="H8" s="118"/>
-      <c r="I8" s="128" t="s">
+      <c r="H8" s="134"/>
+      <c r="I8" s="145" t="s">
         <v>36</v>
       </c>
-      <c r="J8" s="129"/>
+      <c r="J8" s="146"/>
       <c r="K8" s="18"/>
       <c r="L8" s="18"/>
       <c r="M8" s="18"/>
@@ -18075,14 +18325,14 @@
       <c r="AL8" s="18"/>
       <c r="AM8" s="24"/>
       <c r="AN8" s="24"/>
-      <c r="AO8" s="110" t="s">
+      <c r="AO8" s="116" t="s">
         <v>41</v>
       </c>
-      <c r="AP8" s="110"/>
-      <c r="AQ8" s="110"/>
-      <c r="AR8" s="110"/>
-      <c r="AS8" s="110"/>
-      <c r="AT8" s="110"/>
+      <c r="AP8" s="116"/>
+      <c r="AQ8" s="116"/>
+      <c r="AR8" s="116"/>
+      <c r="AS8" s="116"/>
+      <c r="AT8" s="116"/>
       <c r="AU8" s="18"/>
       <c r="AV8" s="18"/>
       <c r="AW8" s="18"/>
@@ -18098,14 +18348,14 @@
     <row r="9" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A9" s="6"/>
       <c r="B9" s="56"/>
-      <c r="C9" s="85"/>
-      <c r="D9" s="85"/>
-      <c r="E9" s="119"/>
-      <c r="F9" s="119"/>
-      <c r="G9" s="119"/>
-      <c r="H9" s="119"/>
-      <c r="I9" s="130"/>
-      <c r="J9" s="131"/>
+      <c r="C9" s="92"/>
+      <c r="D9" s="92"/>
+      <c r="E9" s="135"/>
+      <c r="F9" s="135"/>
+      <c r="G9" s="135"/>
+      <c r="H9" s="135"/>
+      <c r="I9" s="147"/>
+      <c r="J9" s="148"/>
       <c r="K9" s="18"/>
       <c r="L9" s="18"/>
       <c r="M9" s="18"/>
@@ -18121,14 +18371,14 @@
       <c r="W9" s="18"/>
       <c r="X9" s="18"/>
       <c r="Y9" s="18"/>
-      <c r="Z9" s="110" t="s">
+      <c r="Z9" s="116" t="s">
         <v>42</v>
       </c>
-      <c r="AA9" s="110"/>
-      <c r="AB9" s="110"/>
-      <c r="AC9" s="110"/>
-      <c r="AD9" s="110"/>
-      <c r="AE9" s="110"/>
+      <c r="AA9" s="116"/>
+      <c r="AB9" s="116"/>
+      <c r="AC9" s="116"/>
+      <c r="AD9" s="116"/>
+      <c r="AE9" s="116"/>
       <c r="AF9" s="24"/>
       <c r="AG9" s="24"/>
       <c r="AH9" s="24"/>
@@ -18168,14 +18418,14 @@
       <c r="I10" s="24"/>
       <c r="J10" s="57"/>
       <c r="K10" s="43"/>
-      <c r="L10" s="110" t="s">
+      <c r="L10" s="116" t="s">
         <v>43</v>
       </c>
-      <c r="M10" s="110"/>
-      <c r="N10" s="110"/>
-      <c r="O10" s="110"/>
-      <c r="P10" s="110"/>
-      <c r="Q10" s="110"/>
+      <c r="M10" s="116"/>
+      <c r="N10" s="116"/>
+      <c r="O10" s="116"/>
+      <c r="P10" s="116"/>
+      <c r="Q10" s="116"/>
       <c r="R10" s="37"/>
       <c r="S10" s="37"/>
       <c r="T10" s="37"/>
@@ -18220,15 +18470,15 @@
     <row r="11" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="6"/>
       <c r="B11" s="22"/>
-      <c r="C11" s="132" t="s">
+      <c r="C11" s="141" t="s">
         <v>40</v>
       </c>
-      <c r="D11" s="133"/>
-      <c r="E11" s="133"/>
-      <c r="F11" s="133"/>
-      <c r="G11" s="133"/>
-      <c r="H11" s="133"/>
-      <c r="I11" s="133"/>
+      <c r="D11" s="132"/>
+      <c r="E11" s="132"/>
+      <c r="F11" s="132"/>
+      <c r="G11" s="132"/>
+      <c r="H11" s="132"/>
+      <c r="I11" s="132"/>
       <c r="J11" s="57"/>
       <c r="K11" s="43"/>
       <c r="L11" s="43"/>
@@ -18281,83 +18531,83 @@
     <row r="12" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="6"/>
       <c r="B12" s="12"/>
-      <c r="C12" s="133"/>
-      <c r="D12" s="133"/>
-      <c r="E12" s="133"/>
-      <c r="F12" s="133"/>
-      <c r="G12" s="133"/>
-      <c r="H12" s="133"/>
-      <c r="I12" s="133"/>
+      <c r="C12" s="132"/>
+      <c r="D12" s="132"/>
+      <c r="E12" s="132"/>
+      <c r="F12" s="132"/>
+      <c r="G12" s="132"/>
+      <c r="H12" s="132"/>
+      <c r="I12" s="132"/>
       <c r="J12" s="52"/>
       <c r="K12" s="18"/>
-      <c r="L12" s="116"/>
-      <c r="M12" s="96"/>
-      <c r="N12" s="118" t="s">
+      <c r="L12" s="133"/>
+      <c r="M12" s="95"/>
+      <c r="N12" s="134" t="s">
         <v>31</v>
       </c>
-      <c r="O12" s="118"/>
-      <c r="P12" s="118"/>
-      <c r="Q12" s="120" t="s">
+      <c r="O12" s="134"/>
+      <c r="P12" s="134"/>
+      <c r="Q12" s="136" t="s">
         <v>30</v>
       </c>
-      <c r="R12" s="120"/>
-      <c r="S12" s="120"/>
-      <c r="T12" s="118" t="s">
+      <c r="R12" s="136"/>
+      <c r="S12" s="136"/>
+      <c r="T12" s="134" t="s">
         <v>15</v>
       </c>
-      <c r="U12" s="118"/>
-      <c r="V12" s="118"/>
-      <c r="W12" s="120" t="s">
+      <c r="U12" s="134"/>
+      <c r="V12" s="134"/>
+      <c r="W12" s="136" t="s">
         <v>36</v>
       </c>
-      <c r="X12" s="120"/>
-      <c r="Y12" s="122"/>
+      <c r="X12" s="136"/>
+      <c r="Y12" s="138"/>
       <c r="Z12" s="18"/>
-      <c r="AA12" s="116"/>
-      <c r="AB12" s="96"/>
-      <c r="AC12" s="118" t="s">
+      <c r="AA12" s="133"/>
+      <c r="AB12" s="95"/>
+      <c r="AC12" s="134" t="s">
         <v>31</v>
       </c>
-      <c r="AD12" s="118"/>
-      <c r="AE12" s="118"/>
-      <c r="AF12" s="120" t="s">
+      <c r="AD12" s="134"/>
+      <c r="AE12" s="134"/>
+      <c r="AF12" s="136" t="s">
         <v>30</v>
       </c>
-      <c r="AG12" s="120"/>
-      <c r="AH12" s="120"/>
-      <c r="AI12" s="118" t="s">
+      <c r="AG12" s="136"/>
+      <c r="AH12" s="136"/>
+      <c r="AI12" s="134" t="s">
         <v>15</v>
       </c>
-      <c r="AJ12" s="118"/>
-      <c r="AK12" s="118"/>
-      <c r="AL12" s="120" t="s">
+      <c r="AJ12" s="134"/>
+      <c r="AK12" s="134"/>
+      <c r="AL12" s="136" t="s">
         <v>36</v>
       </c>
-      <c r="AM12" s="120"/>
-      <c r="AN12" s="122"/>
+      <c r="AM12" s="136"/>
+      <c r="AN12" s="138"/>
       <c r="AO12" s="18"/>
-      <c r="AP12" s="116"/>
-      <c r="AQ12" s="96"/>
-      <c r="AR12" s="118" t="s">
+      <c r="AP12" s="133"/>
+      <c r="AQ12" s="95"/>
+      <c r="AR12" s="134" t="s">
         <v>31</v>
       </c>
-      <c r="AS12" s="118"/>
-      <c r="AT12" s="118"/>
-      <c r="AU12" s="120" t="s">
+      <c r="AS12" s="134"/>
+      <c r="AT12" s="134"/>
+      <c r="AU12" s="136" t="s">
         <v>30</v>
       </c>
-      <c r="AV12" s="120"/>
-      <c r="AW12" s="120"/>
-      <c r="AX12" s="118" t="s">
+      <c r="AV12" s="136"/>
+      <c r="AW12" s="136"/>
+      <c r="AX12" s="134" t="s">
         <v>15</v>
       </c>
-      <c r="AY12" s="118"/>
-      <c r="AZ12" s="118"/>
-      <c r="BA12" s="120" t="s">
+      <c r="AY12" s="134"/>
+      <c r="AZ12" s="134"/>
+      <c r="BA12" s="136" t="s">
         <v>36</v>
       </c>
-      <c r="BB12" s="120"/>
-      <c r="BC12" s="122"/>
+      <c r="BB12" s="136"/>
+      <c r="BC12" s="138"/>
       <c r="BD12" s="18"/>
       <c r="BE12" s="52"/>
     </row>
@@ -18373,50 +18623,50 @@
       <c r="I13" s="25"/>
       <c r="J13" s="52"/>
       <c r="K13" s="18"/>
-      <c r="L13" s="117"/>
+      <c r="L13" s="115"/>
       <c r="M13" s="97"/>
-      <c r="N13" s="119"/>
-      <c r="O13" s="119"/>
-      <c r="P13" s="119"/>
-      <c r="Q13" s="121"/>
-      <c r="R13" s="121"/>
-      <c r="S13" s="121"/>
-      <c r="T13" s="119"/>
-      <c r="U13" s="119"/>
-      <c r="V13" s="119"/>
-      <c r="W13" s="121"/>
-      <c r="X13" s="121"/>
-      <c r="Y13" s="123"/>
+      <c r="N13" s="135"/>
+      <c r="O13" s="135"/>
+      <c r="P13" s="135"/>
+      <c r="Q13" s="137"/>
+      <c r="R13" s="137"/>
+      <c r="S13" s="137"/>
+      <c r="T13" s="135"/>
+      <c r="U13" s="135"/>
+      <c r="V13" s="135"/>
+      <c r="W13" s="137"/>
+      <c r="X13" s="137"/>
+      <c r="Y13" s="139"/>
       <c r="Z13" s="18"/>
-      <c r="AA13" s="117"/>
+      <c r="AA13" s="115"/>
       <c r="AB13" s="97"/>
-      <c r="AC13" s="119"/>
-      <c r="AD13" s="119"/>
-      <c r="AE13" s="119"/>
-      <c r="AF13" s="121"/>
-      <c r="AG13" s="121"/>
-      <c r="AH13" s="121"/>
-      <c r="AI13" s="119"/>
-      <c r="AJ13" s="119"/>
-      <c r="AK13" s="119"/>
-      <c r="AL13" s="121"/>
-      <c r="AM13" s="121"/>
-      <c r="AN13" s="123"/>
+      <c r="AC13" s="135"/>
+      <c r="AD13" s="135"/>
+      <c r="AE13" s="135"/>
+      <c r="AF13" s="137"/>
+      <c r="AG13" s="137"/>
+      <c r="AH13" s="137"/>
+      <c r="AI13" s="135"/>
+      <c r="AJ13" s="135"/>
+      <c r="AK13" s="135"/>
+      <c r="AL13" s="137"/>
+      <c r="AM13" s="137"/>
+      <c r="AN13" s="139"/>
       <c r="AO13" s="18"/>
-      <c r="AP13" s="117"/>
+      <c r="AP13" s="115"/>
       <c r="AQ13" s="97"/>
-      <c r="AR13" s="119"/>
-      <c r="AS13" s="119"/>
-      <c r="AT13" s="119"/>
-      <c r="AU13" s="121"/>
-      <c r="AV13" s="121"/>
-      <c r="AW13" s="121"/>
-      <c r="AX13" s="119"/>
-      <c r="AY13" s="119"/>
-      <c r="AZ13" s="119"/>
-      <c r="BA13" s="121"/>
-      <c r="BB13" s="121"/>
-      <c r="BC13" s="123"/>
+      <c r="AR13" s="135"/>
+      <c r="AS13" s="135"/>
+      <c r="AT13" s="135"/>
+      <c r="AU13" s="137"/>
+      <c r="AV13" s="137"/>
+      <c r="AW13" s="137"/>
+      <c r="AX13" s="135"/>
+      <c r="AY13" s="135"/>
+      <c r="AZ13" s="135"/>
+      <c r="BA13" s="137"/>
+      <c r="BB13" s="137"/>
+      <c r="BC13" s="139"/>
       <c r="BD13" s="18"/>
       <c r="BE13" s="52"/>
     </row>
@@ -18611,52 +18861,52 @@
       <c r="K17" s="18"/>
       <c r="L17" s="50"/>
       <c r="M17" s="18"/>
-      <c r="N17" s="124" t="s">
+      <c r="N17" s="142" t="s">
         <v>39</v>
       </c>
-      <c r="O17" s="124"/>
-      <c r="P17" s="124"/>
-      <c r="Q17" s="124"/>
-      <c r="R17" s="124"/>
-      <c r="S17" s="124"/>
-      <c r="T17" s="124"/>
-      <c r="U17" s="124"/>
-      <c r="V17" s="124"/>
-      <c r="W17" s="124"/>
+      <c r="O17" s="142"/>
+      <c r="P17" s="142"/>
+      <c r="Q17" s="142"/>
+      <c r="R17" s="142"/>
+      <c r="S17" s="142"/>
+      <c r="T17" s="142"/>
+      <c r="U17" s="142"/>
+      <c r="V17" s="142"/>
+      <c r="W17" s="142"/>
       <c r="X17" s="63"/>
       <c r="Y17" s="64"/>
       <c r="Z17" s="65"/>
       <c r="AA17" s="66"/>
       <c r="AB17" s="67"/>
-      <c r="AC17" s="124" t="s">
+      <c r="AC17" s="142" t="s">
         <v>23</v>
       </c>
-      <c r="AD17" s="125"/>
-      <c r="AE17" s="125"/>
-      <c r="AF17" s="125"/>
-      <c r="AG17" s="125"/>
-      <c r="AH17" s="125"/>
-      <c r="AI17" s="125"/>
-      <c r="AJ17" s="125"/>
-      <c r="AK17" s="125"/>
-      <c r="AL17" s="125"/>
+      <c r="AD17" s="149"/>
+      <c r="AE17" s="149"/>
+      <c r="AF17" s="149"/>
+      <c r="AG17" s="149"/>
+      <c r="AH17" s="149"/>
+      <c r="AI17" s="149"/>
+      <c r="AJ17" s="149"/>
+      <c r="AK17" s="149"/>
+      <c r="AL17" s="149"/>
       <c r="AM17" s="67"/>
       <c r="AN17" s="64"/>
       <c r="AO17" s="65"/>
       <c r="AP17" s="66"/>
       <c r="AQ17" s="67"/>
-      <c r="AR17" s="124" t="s">
+      <c r="AR17" s="142" t="s">
         <v>27</v>
       </c>
-      <c r="AS17" s="125"/>
-      <c r="AT17" s="125"/>
-      <c r="AU17" s="125"/>
-      <c r="AV17" s="125"/>
-      <c r="AW17" s="125"/>
-      <c r="AX17" s="125"/>
-      <c r="AY17" s="125"/>
-      <c r="AZ17" s="125"/>
-      <c r="BA17" s="125"/>
+      <c r="AS17" s="149"/>
+      <c r="AT17" s="149"/>
+      <c r="AU17" s="149"/>
+      <c r="AV17" s="149"/>
+      <c r="AW17" s="149"/>
+      <c r="AX17" s="149"/>
+      <c r="AY17" s="149"/>
+      <c r="AZ17" s="149"/>
+      <c r="BA17" s="149"/>
       <c r="BB17" s="44"/>
       <c r="BC17" s="52"/>
       <c r="BD17" s="18"/>
@@ -18676,46 +18926,46 @@
       <c r="K18" s="18"/>
       <c r="L18" s="50"/>
       <c r="M18" s="24"/>
-      <c r="N18" s="124"/>
-      <c r="O18" s="124"/>
-      <c r="P18" s="124"/>
-      <c r="Q18" s="124"/>
-      <c r="R18" s="124"/>
-      <c r="S18" s="124"/>
-      <c r="T18" s="124"/>
-      <c r="U18" s="124"/>
-      <c r="V18" s="124"/>
-      <c r="W18" s="124"/>
+      <c r="N18" s="142"/>
+      <c r="O18" s="142"/>
+      <c r="P18" s="142"/>
+      <c r="Q18" s="142"/>
+      <c r="R18" s="142"/>
+      <c r="S18" s="142"/>
+      <c r="T18" s="142"/>
+      <c r="U18" s="142"/>
+      <c r="V18" s="142"/>
+      <c r="W18" s="142"/>
       <c r="X18" s="63"/>
       <c r="Y18" s="68"/>
       <c r="Z18" s="42"/>
       <c r="AA18" s="66"/>
       <c r="AB18" s="67"/>
-      <c r="AC18" s="125"/>
-      <c r="AD18" s="125"/>
-      <c r="AE18" s="125"/>
-      <c r="AF18" s="125"/>
-      <c r="AG18" s="125"/>
-      <c r="AH18" s="125"/>
-      <c r="AI18" s="125"/>
-      <c r="AJ18" s="125"/>
-      <c r="AK18" s="125"/>
-      <c r="AL18" s="125"/>
+      <c r="AC18" s="149"/>
+      <c r="AD18" s="149"/>
+      <c r="AE18" s="149"/>
+      <c r="AF18" s="149"/>
+      <c r="AG18" s="149"/>
+      <c r="AH18" s="149"/>
+      <c r="AI18" s="149"/>
+      <c r="AJ18" s="149"/>
+      <c r="AK18" s="149"/>
+      <c r="AL18" s="149"/>
       <c r="AM18" s="67"/>
       <c r="AN18" s="68"/>
       <c r="AO18" s="65"/>
       <c r="AP18" s="66"/>
       <c r="AQ18" s="67"/>
-      <c r="AR18" s="125"/>
-      <c r="AS18" s="125"/>
-      <c r="AT18" s="125"/>
-      <c r="AU18" s="125"/>
-      <c r="AV18" s="125"/>
-      <c r="AW18" s="125"/>
-      <c r="AX18" s="125"/>
-      <c r="AY18" s="125"/>
-      <c r="AZ18" s="125"/>
-      <c r="BA18" s="125"/>
+      <c r="AR18" s="149"/>
+      <c r="AS18" s="149"/>
+      <c r="AT18" s="149"/>
+      <c r="AU18" s="149"/>
+      <c r="AV18" s="149"/>
+      <c r="AW18" s="149"/>
+      <c r="AX18" s="149"/>
+      <c r="AY18" s="149"/>
+      <c r="AZ18" s="149"/>
+      <c r="BA18" s="149"/>
       <c r="BB18" s="44"/>
       <c r="BC18" s="23"/>
       <c r="BD18" s="18"/>
@@ -18735,46 +18985,46 @@
       <c r="K19" s="18"/>
       <c r="L19" s="50"/>
       <c r="M19" s="24"/>
-      <c r="N19" s="124"/>
-      <c r="O19" s="124"/>
-      <c r="P19" s="124"/>
-      <c r="Q19" s="124"/>
-      <c r="R19" s="124"/>
-      <c r="S19" s="124"/>
-      <c r="T19" s="124"/>
-      <c r="U19" s="124"/>
-      <c r="V19" s="124"/>
-      <c r="W19" s="124"/>
+      <c r="N19" s="142"/>
+      <c r="O19" s="142"/>
+      <c r="P19" s="142"/>
+      <c r="Q19" s="142"/>
+      <c r="R19" s="142"/>
+      <c r="S19" s="142"/>
+      <c r="T19" s="142"/>
+      <c r="U19" s="142"/>
+      <c r="V19" s="142"/>
+      <c r="W19" s="142"/>
       <c r="X19" s="63"/>
       <c r="Y19" s="68"/>
       <c r="Z19" s="42"/>
       <c r="AA19" s="66"/>
       <c r="AB19" s="67"/>
-      <c r="AC19" s="125"/>
-      <c r="AD19" s="125"/>
-      <c r="AE19" s="125"/>
-      <c r="AF19" s="125"/>
-      <c r="AG19" s="125"/>
-      <c r="AH19" s="125"/>
-      <c r="AI19" s="125"/>
-      <c r="AJ19" s="125"/>
-      <c r="AK19" s="125"/>
-      <c r="AL19" s="125"/>
+      <c r="AC19" s="149"/>
+      <c r="AD19" s="149"/>
+      <c r="AE19" s="149"/>
+      <c r="AF19" s="149"/>
+      <c r="AG19" s="149"/>
+      <c r="AH19" s="149"/>
+      <c r="AI19" s="149"/>
+      <c r="AJ19" s="149"/>
+      <c r="AK19" s="149"/>
+      <c r="AL19" s="149"/>
       <c r="AM19" s="67"/>
       <c r="AN19" s="68"/>
       <c r="AO19" s="69"/>
       <c r="AP19" s="66"/>
       <c r="AQ19" s="67"/>
-      <c r="AR19" s="125"/>
-      <c r="AS19" s="125"/>
-      <c r="AT19" s="125"/>
-      <c r="AU19" s="125"/>
-      <c r="AV19" s="125"/>
-      <c r="AW19" s="125"/>
-      <c r="AX19" s="125"/>
-      <c r="AY19" s="125"/>
-      <c r="AZ19" s="125"/>
-      <c r="BA19" s="125"/>
+      <c r="AR19" s="149"/>
+      <c r="AS19" s="149"/>
+      <c r="AT19" s="149"/>
+      <c r="AU19" s="149"/>
+      <c r="AV19" s="149"/>
+      <c r="AW19" s="149"/>
+      <c r="AX19" s="149"/>
+      <c r="AY19" s="149"/>
+      <c r="AZ19" s="149"/>
+      <c r="BA19" s="149"/>
       <c r="BB19" s="44"/>
       <c r="BC19" s="23"/>
       <c r="BD19" s="18"/>
@@ -18901,15 +19151,15 @@
     <row r="22" spans="1:60" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="6"/>
       <c r="B22" s="24"/>
-      <c r="C22" s="138" t="s">
+      <c r="C22" s="155" t="s">
         <v>58</v>
       </c>
-      <c r="D22" s="138"/>
-      <c r="E22" s="138"/>
-      <c r="F22" s="138"/>
-      <c r="G22" s="138"/>
-      <c r="H22" s="138"/>
-      <c r="I22" s="138"/>
+      <c r="D22" s="155"/>
+      <c r="E22" s="155"/>
+      <c r="F22" s="155"/>
+      <c r="G22" s="155"/>
+      <c r="H22" s="155"/>
+      <c r="I22" s="155"/>
       <c r="J22" s="18"/>
       <c r="K22" s="18"/>
       <c r="L22" s="50"/>
@@ -18989,12 +19239,12 @@
       <c r="AE23" s="18"/>
       <c r="AF23" s="18"/>
       <c r="AG23" s="18"/>
-      <c r="AH23" s="135" t="s">
+      <c r="AH23" s="152" t="s">
         <v>55</v>
       </c>
-      <c r="AI23" s="136"/>
-      <c r="AJ23" s="136"/>
-      <c r="AK23" s="137"/>
+      <c r="AI23" s="153"/>
+      <c r="AJ23" s="153"/>
+      <c r="AK23" s="154"/>
       <c r="AL23" s="18"/>
       <c r="AM23" s="18"/>
       <c r="AN23" s="13"/>
@@ -19050,12 +19300,12 @@
       <c r="AE24" s="24"/>
       <c r="AF24" s="24"/>
       <c r="AG24" s="24"/>
-      <c r="AH24" s="135" t="s">
+      <c r="AH24" s="152" t="s">
         <v>53</v>
       </c>
-      <c r="AI24" s="136"/>
-      <c r="AJ24" s="136"/>
-      <c r="AK24" s="137"/>
+      <c r="AI24" s="153"/>
+      <c r="AJ24" s="153"/>
+      <c r="AK24" s="154"/>
       <c r="AL24" s="18"/>
       <c r="AM24" s="18"/>
       <c r="AN24" s="23"/>
@@ -19111,12 +19361,12 @@
       <c r="AE25" s="15"/>
       <c r="AF25" s="15"/>
       <c r="AG25" s="15"/>
-      <c r="AH25" s="135" t="s">
+      <c r="AH25" s="152" t="s">
         <v>54</v>
       </c>
-      <c r="AI25" s="136"/>
-      <c r="AJ25" s="136"/>
-      <c r="AK25" s="137"/>
+      <c r="AI25" s="153"/>
+      <c r="AJ25" s="153"/>
+      <c r="AK25" s="154"/>
       <c r="AL25" s="30"/>
       <c r="AM25" s="30"/>
       <c r="AN25" s="16"/>
@@ -19151,54 +19401,54 @@
       <c r="J26" s="78"/>
       <c r="K26" s="18"/>
       <c r="L26" s="18"/>
-      <c r="M26" s="115" t="s">
+      <c r="M26" s="144" t="s">
         <v>29</v>
       </c>
-      <c r="N26" s="115"/>
-      <c r="O26" s="115"/>
-      <c r="P26" s="115"/>
-      <c r="Q26" s="115"/>
-      <c r="R26" s="115"/>
-      <c r="S26" s="115"/>
-      <c r="T26" s="115"/>
-      <c r="U26" s="115"/>
-      <c r="V26" s="115"/>
-      <c r="W26" s="115"/>
-      <c r="X26" s="115"/>
+      <c r="N26" s="144"/>
+      <c r="O26" s="144"/>
+      <c r="P26" s="144"/>
+      <c r="Q26" s="144"/>
+      <c r="R26" s="144"/>
+      <c r="S26" s="144"/>
+      <c r="T26" s="144"/>
+      <c r="U26" s="144"/>
+      <c r="V26" s="144"/>
+      <c r="W26" s="144"/>
+      <c r="X26" s="144"/>
       <c r="Y26" s="18"/>
       <c r="Z26" s="18"/>
       <c r="AA26" s="18"/>
-      <c r="AB26" s="115" t="s">
+      <c r="AB26" s="144" t="s">
         <v>24</v>
       </c>
-      <c r="AC26" s="115"/>
-      <c r="AD26" s="115"/>
-      <c r="AE26" s="115"/>
-      <c r="AF26" s="115"/>
-      <c r="AG26" s="115"/>
-      <c r="AH26" s="115"/>
-      <c r="AI26" s="115"/>
-      <c r="AJ26" s="115"/>
-      <c r="AK26" s="115"/>
-      <c r="AL26" s="115"/>
-      <c r="AM26" s="115"/>
+      <c r="AC26" s="144"/>
+      <c r="AD26" s="144"/>
+      <c r="AE26" s="144"/>
+      <c r="AF26" s="144"/>
+      <c r="AG26" s="144"/>
+      <c r="AH26" s="144"/>
+      <c r="AI26" s="144"/>
+      <c r="AJ26" s="144"/>
+      <c r="AK26" s="144"/>
+      <c r="AL26" s="144"/>
+      <c r="AM26" s="144"/>
       <c r="AN26" s="18"/>
       <c r="AO26" s="18"/>
       <c r="AP26" s="18"/>
-      <c r="AQ26" s="115" t="s">
+      <c r="AQ26" s="144" t="s">
         <v>26</v>
       </c>
-      <c r="AR26" s="115"/>
-      <c r="AS26" s="115"/>
-      <c r="AT26" s="115"/>
-      <c r="AU26" s="115"/>
-      <c r="AV26" s="115"/>
-      <c r="AW26" s="115"/>
-      <c r="AX26" s="115"/>
-      <c r="AY26" s="115"/>
-      <c r="AZ26" s="115"/>
-      <c r="BA26" s="115"/>
-      <c r="BB26" s="115"/>
+      <c r="AR26" s="144"/>
+      <c r="AS26" s="144"/>
+      <c r="AT26" s="144"/>
+      <c r="AU26" s="144"/>
+      <c r="AV26" s="144"/>
+      <c r="AW26" s="144"/>
+      <c r="AX26" s="144"/>
+      <c r="AY26" s="144"/>
+      <c r="AZ26" s="144"/>
+      <c r="BA26" s="144"/>
+      <c r="BB26" s="144"/>
       <c r="BC26" s="38"/>
       <c r="BD26" s="18"/>
       <c r="BE26" s="52"/>
@@ -20226,34 +20476,13 @@
     </row>
   </sheetData>
   <mergeCells count="46">
-    <mergeCell ref="M1:P1"/>
-    <mergeCell ref="Q1:W1"/>
-    <mergeCell ref="A2:E2"/>
-    <mergeCell ref="F2:L2"/>
-    <mergeCell ref="M2:P2"/>
-    <mergeCell ref="Q2:W2"/>
-    <mergeCell ref="C8:D9"/>
-    <mergeCell ref="E8:F9"/>
-    <mergeCell ref="G8:H9"/>
-    <mergeCell ref="I8:J9"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="F1:L1"/>
-    <mergeCell ref="M3:P3"/>
-    <mergeCell ref="Q3:W3"/>
-    <mergeCell ref="M4:P4"/>
-    <mergeCell ref="Q4:W4"/>
-    <mergeCell ref="B7:I7"/>
-    <mergeCell ref="C11:I12"/>
-    <mergeCell ref="L12:M13"/>
-    <mergeCell ref="N12:P13"/>
-    <mergeCell ref="Q12:S13"/>
-    <mergeCell ref="T12:V13"/>
-    <mergeCell ref="AO8:AT8"/>
-    <mergeCell ref="AR12:AT13"/>
-    <mergeCell ref="AU12:AW13"/>
-    <mergeCell ref="AX12:AZ13"/>
-    <mergeCell ref="BA12:BC13"/>
-    <mergeCell ref="AP12:AQ13"/>
+    <mergeCell ref="AH23:AK23"/>
+    <mergeCell ref="C22:I22"/>
+    <mergeCell ref="M26:X26"/>
+    <mergeCell ref="AB26:AM26"/>
+    <mergeCell ref="AQ26:BB26"/>
+    <mergeCell ref="AH24:AK24"/>
+    <mergeCell ref="AH25:AK25"/>
     <mergeCell ref="L10:Q10"/>
     <mergeCell ref="Z9:AE9"/>
     <mergeCell ref="N17:W19"/>
@@ -20265,13 +20494,34 @@
     <mergeCell ref="AI12:AK13"/>
     <mergeCell ref="AL12:AN13"/>
     <mergeCell ref="W12:Y13"/>
-    <mergeCell ref="AH23:AK23"/>
-    <mergeCell ref="C22:I22"/>
-    <mergeCell ref="M26:X26"/>
-    <mergeCell ref="AB26:AM26"/>
-    <mergeCell ref="AQ26:BB26"/>
-    <mergeCell ref="AH24:AK24"/>
-    <mergeCell ref="AH25:AK25"/>
+    <mergeCell ref="AO8:AT8"/>
+    <mergeCell ref="AR12:AT13"/>
+    <mergeCell ref="AU12:AW13"/>
+    <mergeCell ref="AX12:AZ13"/>
+    <mergeCell ref="BA12:BC13"/>
+    <mergeCell ref="AP12:AQ13"/>
+    <mergeCell ref="C11:I12"/>
+    <mergeCell ref="L12:M13"/>
+    <mergeCell ref="N12:P13"/>
+    <mergeCell ref="Q12:S13"/>
+    <mergeCell ref="T12:V13"/>
+    <mergeCell ref="M3:P3"/>
+    <mergeCell ref="Q3:W3"/>
+    <mergeCell ref="M4:P4"/>
+    <mergeCell ref="Q4:W4"/>
+    <mergeCell ref="B7:I7"/>
+    <mergeCell ref="C8:D9"/>
+    <mergeCell ref="E8:F9"/>
+    <mergeCell ref="G8:H9"/>
+    <mergeCell ref="I8:J9"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="F1:L1"/>
+    <mergeCell ref="M1:P1"/>
+    <mergeCell ref="Q1:W1"/>
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="F2:L2"/>
+    <mergeCell ref="M2:P2"/>
+    <mergeCell ref="Q2:W2"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -20295,104 +20545,104 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:66" x14ac:dyDescent="0.15">
-      <c r="A1" s="107" t="s">
+      <c r="A1" s="87" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="107"/>
-      <c r="C1" s="107"/>
-      <c r="D1" s="107"/>
-      <c r="E1" s="107"/>
-      <c r="F1" s="108" t="s">
+      <c r="B1" s="87"/>
+      <c r="C1" s="87"/>
+      <c r="D1" s="87"/>
+      <c r="E1" s="87"/>
+      <c r="F1" s="88" t="s">
         <v>7</v>
       </c>
-      <c r="G1" s="108"/>
-      <c r="H1" s="108"/>
-      <c r="I1" s="108"/>
-      <c r="J1" s="108"/>
-      <c r="K1" s="108"/>
-      <c r="L1" s="108"/>
-      <c r="M1" s="107" t="s">
+      <c r="G1" s="88"/>
+      <c r="H1" s="88"/>
+      <c r="I1" s="88"/>
+      <c r="J1" s="88"/>
+      <c r="K1" s="88"/>
+      <c r="L1" s="88"/>
+      <c r="M1" s="87" t="s">
         <v>1</v>
       </c>
-      <c r="N1" s="107"/>
-      <c r="O1" s="107"/>
-      <c r="P1" s="107"/>
-      <c r="Q1" s="108" t="s">
+      <c r="N1" s="87"/>
+      <c r="O1" s="87"/>
+      <c r="P1" s="87"/>
+      <c r="Q1" s="88" t="s">
         <v>9</v>
       </c>
-      <c r="R1" s="108"/>
-      <c r="S1" s="108"/>
-      <c r="T1" s="108"/>
-      <c r="U1" s="108"/>
-      <c r="V1" s="108"/>
-      <c r="W1" s="108"/>
+      <c r="R1" s="88"/>
+      <c r="S1" s="88"/>
+      <c r="T1" s="88"/>
+      <c r="U1" s="88"/>
+      <c r="V1" s="88"/>
+      <c r="W1" s="88"/>
     </row>
     <row r="2" spans="1:66" x14ac:dyDescent="0.15">
-      <c r="A2" s="107" t="s">
+      <c r="A2" s="87" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="107"/>
-      <c r="C2" s="107"/>
-      <c r="D2" s="107"/>
-      <c r="E2" s="107"/>
-      <c r="F2" s="108" t="s">
+      <c r="B2" s="87"/>
+      <c r="C2" s="87"/>
+      <c r="D2" s="87"/>
+      <c r="E2" s="87"/>
+      <c r="F2" s="88" t="s">
         <v>8</v>
       </c>
-      <c r="G2" s="108"/>
-      <c r="H2" s="108"/>
-      <c r="I2" s="108"/>
-      <c r="J2" s="108"/>
-      <c r="K2" s="108"/>
-      <c r="L2" s="108"/>
-      <c r="M2" s="107" t="s">
+      <c r="G2" s="88"/>
+      <c r="H2" s="88"/>
+      <c r="I2" s="88"/>
+      <c r="J2" s="88"/>
+      <c r="K2" s="88"/>
+      <c r="L2" s="88"/>
+      <c r="M2" s="87" t="s">
         <v>3</v>
       </c>
-      <c r="N2" s="107"/>
-      <c r="O2" s="107"/>
-      <c r="P2" s="107"/>
-      <c r="Q2" s="108" t="s">
+      <c r="N2" s="87"/>
+      <c r="O2" s="87"/>
+      <c r="P2" s="87"/>
+      <c r="Q2" s="88" t="s">
         <v>10</v>
       </c>
-      <c r="R2" s="108"/>
-      <c r="S2" s="108"/>
-      <c r="T2" s="108"/>
-      <c r="U2" s="108"/>
-      <c r="V2" s="108"/>
-      <c r="W2" s="108"/>
+      <c r="R2" s="88"/>
+      <c r="S2" s="88"/>
+      <c r="T2" s="88"/>
+      <c r="U2" s="88"/>
+      <c r="V2" s="88"/>
+      <c r="W2" s="88"/>
     </row>
     <row r="3" spans="1:66" x14ac:dyDescent="0.15">
-      <c r="M3" s="107" t="s">
+      <c r="M3" s="87" t="s">
         <v>4</v>
       </c>
-      <c r="N3" s="107"/>
-      <c r="O3" s="107"/>
-      <c r="P3" s="107"/>
-      <c r="Q3" s="108" t="s">
+      <c r="N3" s="87"/>
+      <c r="O3" s="87"/>
+      <c r="P3" s="87"/>
+      <c r="Q3" s="88" t="s">
         <v>9</v>
       </c>
-      <c r="R3" s="108"/>
-      <c r="S3" s="108"/>
-      <c r="T3" s="108"/>
-      <c r="U3" s="108"/>
-      <c r="V3" s="108"/>
-      <c r="W3" s="108"/>
+      <c r="R3" s="88"/>
+      <c r="S3" s="88"/>
+      <c r="T3" s="88"/>
+      <c r="U3" s="88"/>
+      <c r="V3" s="88"/>
+      <c r="W3" s="88"/>
     </row>
     <row r="4" spans="1:66" x14ac:dyDescent="0.15">
-      <c r="M4" s="107" t="s">
+      <c r="M4" s="87" t="s">
         <v>5</v>
       </c>
-      <c r="N4" s="107"/>
-      <c r="O4" s="107"/>
-      <c r="P4" s="107"/>
-      <c r="Q4" s="108" t="s">
+      <c r="N4" s="87"/>
+      <c r="O4" s="87"/>
+      <c r="P4" s="87"/>
+      <c r="Q4" s="88" t="s">
         <v>33</v>
       </c>
-      <c r="R4" s="108"/>
-      <c r="S4" s="108"/>
-      <c r="T4" s="108"/>
-      <c r="U4" s="108"/>
-      <c r="V4" s="108"/>
-      <c r="W4" s="108"/>
+      <c r="R4" s="88"/>
+      <c r="S4" s="88"/>
+      <c r="T4" s="88"/>
+      <c r="U4" s="88"/>
+      <c r="V4" s="88"/>
+      <c r="W4" s="88"/>
     </row>
     <row r="5" spans="1:66" ht="28.5" x14ac:dyDescent="0.15">
       <c r="A5" s="2" t="s">
@@ -20467,16 +20717,16 @@
     </row>
     <row r="7" spans="1:66" x14ac:dyDescent="0.15">
       <c r="A7" s="6"/>
-      <c r="B7" s="109" t="s">
+      <c r="B7" s="140" t="s">
         <v>66</v>
       </c>
-      <c r="C7" s="109"/>
-      <c r="D7" s="109"/>
-      <c r="E7" s="109"/>
-      <c r="F7" s="109"/>
-      <c r="G7" s="109"/>
-      <c r="H7" s="109"/>
-      <c r="I7" s="109"/>
+      <c r="C7" s="140"/>
+      <c r="D7" s="140"/>
+      <c r="E7" s="140"/>
+      <c r="F7" s="140"/>
+      <c r="G7" s="140"/>
+      <c r="H7" s="140"/>
+      <c r="I7" s="140"/>
       <c r="J7" s="25"/>
       <c r="K7" s="18"/>
       <c r="L7" s="18"/>
@@ -20529,22 +20779,22 @@
     <row r="8" spans="1:66" x14ac:dyDescent="0.15">
       <c r="A8" s="6"/>
       <c r="B8" s="19"/>
-      <c r="C8" s="127" t="s">
+      <c r="C8" s="143" t="s">
         <v>38</v>
       </c>
-      <c r="D8" s="115"/>
-      <c r="E8" s="118" t="s">
+      <c r="D8" s="144"/>
+      <c r="E8" s="134" t="s">
         <v>30</v>
       </c>
-      <c r="F8" s="118"/>
-      <c r="G8" s="118" t="s">
+      <c r="F8" s="134"/>
+      <c r="G8" s="134" t="s">
         <v>15</v>
       </c>
-      <c r="H8" s="118"/>
-      <c r="I8" s="128" t="s">
+      <c r="H8" s="134"/>
+      <c r="I8" s="145" t="s">
         <v>36</v>
       </c>
-      <c r="J8" s="129"/>
+      <c r="J8" s="146"/>
       <c r="K8" s="18"/>
       <c r="L8" s="18"/>
       <c r="M8" s="18"/>
@@ -20573,16 +20823,16 @@
       <c r="AJ8" s="18"/>
       <c r="AK8" s="18"/>
       <c r="AL8" s="18"/>
-      <c r="AM8" s="110" t="s">
+      <c r="AM8" s="116" t="s">
         <v>64</v>
       </c>
-      <c r="AN8" s="110"/>
-      <c r="AO8" s="110"/>
-      <c r="AP8" s="110"/>
-      <c r="AQ8" s="110"/>
-      <c r="AR8" s="110"/>
-      <c r="AS8" s="110"/>
-      <c r="AT8" s="110"/>
+      <c r="AN8" s="116"/>
+      <c r="AO8" s="116"/>
+      <c r="AP8" s="116"/>
+      <c r="AQ8" s="116"/>
+      <c r="AR8" s="116"/>
+      <c r="AS8" s="116"/>
+      <c r="AT8" s="116"/>
       <c r="AU8" s="18"/>
       <c r="AV8" s="18"/>
       <c r="AW8" s="18"/>
@@ -20598,14 +20848,14 @@
     <row r="9" spans="1:66" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A9" s="6"/>
       <c r="B9" s="56"/>
-      <c r="C9" s="85"/>
-      <c r="D9" s="85"/>
-      <c r="E9" s="119"/>
-      <c r="F9" s="119"/>
-      <c r="G9" s="119"/>
-      <c r="H9" s="119"/>
-      <c r="I9" s="130"/>
-      <c r="J9" s="131"/>
+      <c r="C9" s="92"/>
+      <c r="D9" s="92"/>
+      <c r="E9" s="135"/>
+      <c r="F9" s="135"/>
+      <c r="G9" s="135"/>
+      <c r="H9" s="135"/>
+      <c r="I9" s="147"/>
+      <c r="J9" s="148"/>
       <c r="K9" s="18"/>
       <c r="L9" s="18"/>
       <c r="M9" s="18"/>
@@ -20619,16 +20869,16 @@
       <c r="U9" s="39"/>
       <c r="V9" s="24"/>
       <c r="W9" s="18"/>
-      <c r="X9" s="110" t="s">
+      <c r="X9" s="116" t="s">
         <v>63</v>
       </c>
-      <c r="Y9" s="110"/>
-      <c r="Z9" s="110"/>
-      <c r="AA9" s="110"/>
-      <c r="AB9" s="110"/>
-      <c r="AC9" s="110"/>
-      <c r="AD9" s="110"/>
-      <c r="AE9" s="110"/>
+      <c r="Y9" s="116"/>
+      <c r="Z9" s="116"/>
+      <c r="AA9" s="116"/>
+      <c r="AB9" s="116"/>
+      <c r="AC9" s="116"/>
+      <c r="AD9" s="116"/>
+      <c r="AE9" s="116"/>
       <c r="AF9" s="24"/>
       <c r="AG9" s="24"/>
       <c r="AH9" s="24"/>
@@ -20668,15 +20918,15 @@
       <c r="I10" s="24"/>
       <c r="J10" s="57"/>
       <c r="K10" s="43"/>
-      <c r="L10" s="111" t="s">
+      <c r="L10" s="127" t="s">
         <v>62</v>
       </c>
-      <c r="M10" s="110"/>
-      <c r="N10" s="110"/>
-      <c r="O10" s="110"/>
-      <c r="P10" s="110"/>
-      <c r="Q10" s="110"/>
-      <c r="R10" s="110"/>
+      <c r="M10" s="116"/>
+      <c r="N10" s="116"/>
+      <c r="O10" s="116"/>
+      <c r="P10" s="116"/>
+      <c r="Q10" s="116"/>
+      <c r="R10" s="116"/>
       <c r="S10" s="37"/>
       <c r="T10" s="37"/>
       <c r="U10" s="37"/>
@@ -20720,15 +20970,15 @@
     <row r="11" spans="1:66" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="6"/>
       <c r="B11" s="22"/>
-      <c r="C11" s="132" t="s">
+      <c r="C11" s="141" t="s">
         <v>23</v>
       </c>
-      <c r="D11" s="133"/>
-      <c r="E11" s="133"/>
-      <c r="F11" s="133"/>
-      <c r="G11" s="133"/>
-      <c r="H11" s="133"/>
-      <c r="I11" s="133"/>
+      <c r="D11" s="132"/>
+      <c r="E11" s="132"/>
+      <c r="F11" s="132"/>
+      <c r="G11" s="132"/>
+      <c r="H11" s="132"/>
+      <c r="I11" s="132"/>
       <c r="J11" s="57"/>
       <c r="K11" s="43"/>
       <c r="L11" s="97"/>
@@ -20781,13 +21031,13 @@
     <row r="12" spans="1:66" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="6"/>
       <c r="B12" s="12"/>
-      <c r="C12" s="133"/>
-      <c r="D12" s="133"/>
-      <c r="E12" s="133"/>
-      <c r="F12" s="133"/>
-      <c r="G12" s="133"/>
-      <c r="H12" s="133"/>
-      <c r="I12" s="133"/>
+      <c r="C12" s="132"/>
+      <c r="D12" s="132"/>
+      <c r="E12" s="132"/>
+      <c r="F12" s="132"/>
+      <c r="G12" s="132"/>
+      <c r="H12" s="132"/>
+      <c r="I12" s="132"/>
       <c r="J12" s="52"/>
       <c r="K12" s="18"/>
       <c r="L12" s="70"/>
@@ -20842,63 +21092,63 @@
       <c r="B13" s="12"/>
       <c r="C13" s="25"/>
       <c r="D13" s="25"/>
-      <c r="E13" s="135" t="s">
+      <c r="E13" s="152" t="s">
         <v>55</v>
       </c>
-      <c r="F13" s="136"/>
-      <c r="G13" s="136"/>
-      <c r="H13" s="137"/>
+      <c r="F13" s="153"/>
+      <c r="G13" s="153"/>
+      <c r="H13" s="154"/>
       <c r="I13" s="25"/>
       <c r="J13" s="52"/>
       <c r="K13" s="18"/>
       <c r="L13" s="75"/>
       <c r="M13" s="37"/>
-      <c r="N13" s="124" t="s">
+      <c r="N13" s="142" t="s">
         <v>55</v>
       </c>
-      <c r="O13" s="124"/>
-      <c r="P13" s="124"/>
-      <c r="Q13" s="124"/>
-      <c r="R13" s="124"/>
-      <c r="S13" s="124"/>
-      <c r="T13" s="124"/>
-      <c r="U13" s="124"/>
-      <c r="V13" s="124"/>
-      <c r="W13" s="124"/>
+      <c r="O13" s="142"/>
+      <c r="P13" s="142"/>
+      <c r="Q13" s="142"/>
+      <c r="R13" s="142"/>
+      <c r="S13" s="142"/>
+      <c r="T13" s="142"/>
+      <c r="U13" s="142"/>
+      <c r="V13" s="142"/>
+      <c r="W13" s="142"/>
       <c r="X13" s="74"/>
       <c r="Y13" s="76"/>
       <c r="Z13" s="18"/>
       <c r="AA13" s="75"/>
       <c r="AB13" s="37"/>
-      <c r="AC13" s="124" t="s">
+      <c r="AC13" s="142" t="s">
         <v>53</v>
       </c>
-      <c r="AD13" s="125"/>
-      <c r="AE13" s="125"/>
-      <c r="AF13" s="125"/>
-      <c r="AG13" s="125"/>
-      <c r="AH13" s="125"/>
-      <c r="AI13" s="125"/>
-      <c r="AJ13" s="125"/>
-      <c r="AK13" s="125"/>
-      <c r="AL13" s="125"/>
+      <c r="AD13" s="149"/>
+      <c r="AE13" s="149"/>
+      <c r="AF13" s="149"/>
+      <c r="AG13" s="149"/>
+      <c r="AH13" s="149"/>
+      <c r="AI13" s="149"/>
+      <c r="AJ13" s="149"/>
+      <c r="AK13" s="149"/>
+      <c r="AL13" s="149"/>
       <c r="AM13" s="74"/>
       <c r="AN13" s="76"/>
       <c r="AO13" s="18"/>
       <c r="AP13" s="75"/>
       <c r="AQ13" s="37"/>
-      <c r="AR13" s="124" t="s">
+      <c r="AR13" s="142" t="s">
         <v>56</v>
       </c>
-      <c r="AS13" s="125"/>
-      <c r="AT13" s="125"/>
-      <c r="AU13" s="125"/>
-      <c r="AV13" s="125"/>
-      <c r="AW13" s="125"/>
-      <c r="AX13" s="125"/>
-      <c r="AY13" s="125"/>
-      <c r="AZ13" s="125"/>
-      <c r="BA13" s="125"/>
+      <c r="AS13" s="149"/>
+      <c r="AT13" s="149"/>
+      <c r="AU13" s="149"/>
+      <c r="AV13" s="149"/>
+      <c r="AW13" s="149"/>
+      <c r="AX13" s="149"/>
+      <c r="AY13" s="149"/>
+      <c r="AZ13" s="149"/>
+      <c r="BA13" s="149"/>
       <c r="BB13" s="74"/>
       <c r="BC13" s="76"/>
       <c r="BD13" s="18"/>
@@ -20909,57 +21159,57 @@
       <c r="B14" s="22"/>
       <c r="C14" s="24"/>
       <c r="D14" s="24"/>
-      <c r="E14" s="135" t="s">
+      <c r="E14" s="152" t="s">
         <v>53</v>
       </c>
-      <c r="F14" s="136"/>
-      <c r="G14" s="136"/>
-      <c r="H14" s="137"/>
+      <c r="F14" s="153"/>
+      <c r="G14" s="153"/>
+      <c r="H14" s="154"/>
       <c r="I14" s="24"/>
       <c r="J14" s="52"/>
       <c r="K14" s="18"/>
       <c r="L14" s="50"/>
       <c r="M14" s="25"/>
-      <c r="N14" s="124"/>
-      <c r="O14" s="124"/>
-      <c r="P14" s="124"/>
-      <c r="Q14" s="124"/>
-      <c r="R14" s="124"/>
-      <c r="S14" s="124"/>
-      <c r="T14" s="124"/>
-      <c r="U14" s="124"/>
-      <c r="V14" s="124"/>
-      <c r="W14" s="124"/>
+      <c r="N14" s="142"/>
+      <c r="O14" s="142"/>
+      <c r="P14" s="142"/>
+      <c r="Q14" s="142"/>
+      <c r="R14" s="142"/>
+      <c r="S14" s="142"/>
+      <c r="T14" s="142"/>
+      <c r="U14" s="142"/>
+      <c r="V14" s="142"/>
+      <c r="W14" s="142"/>
       <c r="X14" s="18"/>
       <c r="Y14" s="13"/>
       <c r="Z14" s="18"/>
       <c r="AA14" s="50"/>
       <c r="AB14" s="25"/>
-      <c r="AC14" s="125"/>
-      <c r="AD14" s="125"/>
-      <c r="AE14" s="125"/>
-      <c r="AF14" s="125"/>
-      <c r="AG14" s="125"/>
-      <c r="AH14" s="125"/>
-      <c r="AI14" s="125"/>
-      <c r="AJ14" s="125"/>
-      <c r="AK14" s="125"/>
-      <c r="AL14" s="125"/>
+      <c r="AC14" s="149"/>
+      <c r="AD14" s="149"/>
+      <c r="AE14" s="149"/>
+      <c r="AF14" s="149"/>
+      <c r="AG14" s="149"/>
+      <c r="AH14" s="149"/>
+      <c r="AI14" s="149"/>
+      <c r="AJ14" s="149"/>
+      <c r="AK14" s="149"/>
+      <c r="AL14" s="149"/>
       <c r="AM14" s="18"/>
       <c r="AN14" s="13"/>
       <c r="AO14" s="18"/>
       <c r="AP14" s="50"/>
       <c r="AQ14" s="25"/>
-      <c r="AR14" s="125"/>
-      <c r="AS14" s="125"/>
-      <c r="AT14" s="125"/>
-      <c r="AU14" s="125"/>
-      <c r="AV14" s="125"/>
-      <c r="AW14" s="125"/>
-      <c r="AX14" s="125"/>
-      <c r="AY14" s="125"/>
-      <c r="AZ14" s="125"/>
-      <c r="BA14" s="125"/>
+      <c r="AR14" s="149"/>
+      <c r="AS14" s="149"/>
+      <c r="AT14" s="149"/>
+      <c r="AU14" s="149"/>
+      <c r="AV14" s="149"/>
+      <c r="AW14" s="149"/>
+      <c r="AX14" s="149"/>
+      <c r="AY14" s="149"/>
+      <c r="AZ14" s="149"/>
+      <c r="BA14" s="149"/>
       <c r="BB14" s="18"/>
       <c r="BC14" s="13"/>
       <c r="BD14" s="18"/>
@@ -20977,57 +21227,57 @@
       <c r="B15" s="14"/>
       <c r="C15" s="15"/>
       <c r="D15" s="15"/>
-      <c r="E15" s="135" t="s">
+      <c r="E15" s="152" t="s">
         <v>54</v>
       </c>
-      <c r="F15" s="136"/>
-      <c r="G15" s="136"/>
-      <c r="H15" s="137"/>
+      <c r="F15" s="153"/>
+      <c r="G15" s="153"/>
+      <c r="H15" s="154"/>
       <c r="I15" s="15"/>
       <c r="J15" s="58"/>
       <c r="K15" s="18"/>
       <c r="L15" s="51"/>
       <c r="M15" s="37"/>
-      <c r="N15" s="124"/>
-      <c r="O15" s="124"/>
-      <c r="P15" s="124"/>
-      <c r="Q15" s="124"/>
-      <c r="R15" s="124"/>
-      <c r="S15" s="124"/>
-      <c r="T15" s="124"/>
-      <c r="U15" s="124"/>
-      <c r="V15" s="124"/>
-      <c r="W15" s="124"/>
+      <c r="N15" s="142"/>
+      <c r="O15" s="142"/>
+      <c r="P15" s="142"/>
+      <c r="Q15" s="142"/>
+      <c r="R15" s="142"/>
+      <c r="S15" s="142"/>
+      <c r="T15" s="142"/>
+      <c r="U15" s="142"/>
+      <c r="V15" s="142"/>
+      <c r="W15" s="142"/>
       <c r="X15" s="18"/>
       <c r="Y15" s="52"/>
       <c r="Z15" s="18"/>
       <c r="AA15" s="51"/>
       <c r="AB15" s="37"/>
-      <c r="AC15" s="125"/>
-      <c r="AD15" s="125"/>
-      <c r="AE15" s="125"/>
-      <c r="AF15" s="125"/>
-      <c r="AG15" s="125"/>
-      <c r="AH15" s="125"/>
-      <c r="AI15" s="125"/>
-      <c r="AJ15" s="125"/>
-      <c r="AK15" s="125"/>
-      <c r="AL15" s="125"/>
+      <c r="AC15" s="149"/>
+      <c r="AD15" s="149"/>
+      <c r="AE15" s="149"/>
+      <c r="AF15" s="149"/>
+      <c r="AG15" s="149"/>
+      <c r="AH15" s="149"/>
+      <c r="AI15" s="149"/>
+      <c r="AJ15" s="149"/>
+      <c r="AK15" s="149"/>
+      <c r="AL15" s="149"/>
       <c r="AM15" s="18"/>
       <c r="AN15" s="52"/>
       <c r="AO15" s="18"/>
       <c r="AP15" s="51"/>
       <c r="AQ15" s="37"/>
-      <c r="AR15" s="125"/>
-      <c r="AS15" s="125"/>
-      <c r="AT15" s="125"/>
-      <c r="AU15" s="125"/>
-      <c r="AV15" s="125"/>
-      <c r="AW15" s="125"/>
-      <c r="AX15" s="125"/>
-      <c r="AY15" s="125"/>
-      <c r="AZ15" s="125"/>
-      <c r="BA15" s="125"/>
+      <c r="AR15" s="149"/>
+      <c r="AS15" s="149"/>
+      <c r="AT15" s="149"/>
+      <c r="AU15" s="149"/>
+      <c r="AV15" s="149"/>
+      <c r="AW15" s="149"/>
+      <c r="AX15" s="149"/>
+      <c r="AY15" s="149"/>
+      <c r="AZ15" s="149"/>
+      <c r="BA15" s="149"/>
       <c r="BB15" s="18"/>
       <c r="BC15" s="52"/>
       <c r="BD15" s="18"/>
@@ -21120,46 +21370,46 @@
       <c r="K17" s="18"/>
       <c r="L17" s="50"/>
       <c r="M17" s="18"/>
-      <c r="N17" s="139"/>
-      <c r="O17" s="140"/>
-      <c r="P17" s="140"/>
-      <c r="Q17" s="140"/>
-      <c r="R17" s="140"/>
-      <c r="S17" s="140"/>
-      <c r="T17" s="140"/>
-      <c r="U17" s="140"/>
-      <c r="V17" s="140"/>
-      <c r="W17" s="141"/>
+      <c r="N17" s="156"/>
+      <c r="O17" s="157"/>
+      <c r="P17" s="157"/>
+      <c r="Q17" s="157"/>
+      <c r="R17" s="157"/>
+      <c r="S17" s="157"/>
+      <c r="T17" s="157"/>
+      <c r="U17" s="157"/>
+      <c r="V17" s="157"/>
+      <c r="W17" s="158"/>
       <c r="X17" s="63"/>
       <c r="Y17" s="64"/>
       <c r="Z17" s="65"/>
       <c r="AA17" s="66"/>
       <c r="AB17" s="67"/>
-      <c r="AC17" s="139"/>
-      <c r="AD17" s="140"/>
-      <c r="AE17" s="140"/>
-      <c r="AF17" s="140"/>
-      <c r="AG17" s="140"/>
-      <c r="AH17" s="140"/>
-      <c r="AI17" s="140"/>
-      <c r="AJ17" s="140"/>
-      <c r="AK17" s="140"/>
-      <c r="AL17" s="141"/>
+      <c r="AC17" s="156"/>
+      <c r="AD17" s="157"/>
+      <c r="AE17" s="157"/>
+      <c r="AF17" s="157"/>
+      <c r="AG17" s="157"/>
+      <c r="AH17" s="157"/>
+      <c r="AI17" s="157"/>
+      <c r="AJ17" s="157"/>
+      <c r="AK17" s="157"/>
+      <c r="AL17" s="158"/>
       <c r="AM17" s="67"/>
       <c r="AN17" s="64"/>
       <c r="AO17" s="65"/>
       <c r="AP17" s="66"/>
       <c r="AQ17" s="67"/>
-      <c r="AR17" s="139"/>
-      <c r="AS17" s="140"/>
-      <c r="AT17" s="140"/>
-      <c r="AU17" s="140"/>
-      <c r="AV17" s="140"/>
-      <c r="AW17" s="140"/>
-      <c r="AX17" s="140"/>
-      <c r="AY17" s="140"/>
-      <c r="AZ17" s="140"/>
-      <c r="BA17" s="141"/>
+      <c r="AR17" s="156"/>
+      <c r="AS17" s="157"/>
+      <c r="AT17" s="157"/>
+      <c r="AU17" s="157"/>
+      <c r="AV17" s="157"/>
+      <c r="AW17" s="157"/>
+      <c r="AX17" s="157"/>
+      <c r="AY17" s="157"/>
+      <c r="AZ17" s="157"/>
+      <c r="BA17" s="158"/>
       <c r="BB17" s="44"/>
       <c r="BC17" s="52"/>
       <c r="BD17" s="18"/>
@@ -21186,46 +21436,46 @@
       <c r="K18" s="18"/>
       <c r="L18" s="50"/>
       <c r="M18" s="24"/>
-      <c r="N18" s="139"/>
-      <c r="O18" s="140"/>
-      <c r="P18" s="140"/>
-      <c r="Q18" s="140"/>
-      <c r="R18" s="140"/>
-      <c r="S18" s="140"/>
-      <c r="T18" s="140"/>
-      <c r="U18" s="140"/>
-      <c r="V18" s="140"/>
-      <c r="W18" s="141"/>
+      <c r="N18" s="156"/>
+      <c r="O18" s="157"/>
+      <c r="P18" s="157"/>
+      <c r="Q18" s="157"/>
+      <c r="R18" s="157"/>
+      <c r="S18" s="157"/>
+      <c r="T18" s="157"/>
+      <c r="U18" s="157"/>
+      <c r="V18" s="157"/>
+      <c r="W18" s="158"/>
       <c r="X18" s="63"/>
       <c r="Y18" s="68"/>
       <c r="Z18" s="42"/>
       <c r="AA18" s="66"/>
       <c r="AB18" s="67"/>
-      <c r="AC18" s="139"/>
-      <c r="AD18" s="140"/>
-      <c r="AE18" s="140"/>
-      <c r="AF18" s="140"/>
-      <c r="AG18" s="140"/>
-      <c r="AH18" s="140"/>
-      <c r="AI18" s="140"/>
-      <c r="AJ18" s="140"/>
-      <c r="AK18" s="140"/>
-      <c r="AL18" s="141"/>
+      <c r="AC18" s="156"/>
+      <c r="AD18" s="157"/>
+      <c r="AE18" s="157"/>
+      <c r="AF18" s="157"/>
+      <c r="AG18" s="157"/>
+      <c r="AH18" s="157"/>
+      <c r="AI18" s="157"/>
+      <c r="AJ18" s="157"/>
+      <c r="AK18" s="157"/>
+      <c r="AL18" s="158"/>
       <c r="AM18" s="67"/>
       <c r="AN18" s="68"/>
       <c r="AO18" s="65"/>
       <c r="AP18" s="66"/>
       <c r="AQ18" s="67"/>
-      <c r="AR18" s="139"/>
-      <c r="AS18" s="140"/>
-      <c r="AT18" s="140"/>
-      <c r="AU18" s="140"/>
-      <c r="AV18" s="140"/>
-      <c r="AW18" s="140"/>
-      <c r="AX18" s="140"/>
-      <c r="AY18" s="140"/>
-      <c r="AZ18" s="140"/>
-      <c r="BA18" s="141"/>
+      <c r="AR18" s="156"/>
+      <c r="AS18" s="157"/>
+      <c r="AT18" s="157"/>
+      <c r="AU18" s="157"/>
+      <c r="AV18" s="157"/>
+      <c r="AW18" s="157"/>
+      <c r="AX18" s="157"/>
+      <c r="AY18" s="157"/>
+      <c r="AZ18" s="157"/>
+      <c r="BA18" s="158"/>
       <c r="BB18" s="44"/>
       <c r="BC18" s="23"/>
       <c r="BD18" s="18"/>
@@ -21252,46 +21502,46 @@
       <c r="K19" s="18"/>
       <c r="L19" s="50"/>
       <c r="M19" s="24"/>
-      <c r="N19" s="139"/>
-      <c r="O19" s="140"/>
-      <c r="P19" s="140"/>
-      <c r="Q19" s="140"/>
-      <c r="R19" s="140"/>
-      <c r="S19" s="140"/>
-      <c r="T19" s="140"/>
-      <c r="U19" s="140"/>
-      <c r="V19" s="140"/>
-      <c r="W19" s="141"/>
+      <c r="N19" s="156"/>
+      <c r="O19" s="157"/>
+      <c r="P19" s="157"/>
+      <c r="Q19" s="157"/>
+      <c r="R19" s="157"/>
+      <c r="S19" s="157"/>
+      <c r="T19" s="157"/>
+      <c r="U19" s="157"/>
+      <c r="V19" s="157"/>
+      <c r="W19" s="158"/>
       <c r="X19" s="63"/>
       <c r="Y19" s="68"/>
       <c r="Z19" s="42"/>
       <c r="AA19" s="66"/>
       <c r="AB19" s="67"/>
-      <c r="AC19" s="139"/>
-      <c r="AD19" s="140"/>
-      <c r="AE19" s="140"/>
-      <c r="AF19" s="140"/>
-      <c r="AG19" s="140"/>
-      <c r="AH19" s="140"/>
-      <c r="AI19" s="140"/>
-      <c r="AJ19" s="140"/>
-      <c r="AK19" s="140"/>
-      <c r="AL19" s="141"/>
+      <c r="AC19" s="156"/>
+      <c r="AD19" s="157"/>
+      <c r="AE19" s="157"/>
+      <c r="AF19" s="157"/>
+      <c r="AG19" s="157"/>
+      <c r="AH19" s="157"/>
+      <c r="AI19" s="157"/>
+      <c r="AJ19" s="157"/>
+      <c r="AK19" s="157"/>
+      <c r="AL19" s="158"/>
       <c r="AM19" s="67"/>
       <c r="AN19" s="68"/>
       <c r="AO19" s="69"/>
       <c r="AP19" s="66"/>
       <c r="AQ19" s="67"/>
-      <c r="AR19" s="139"/>
-      <c r="AS19" s="140"/>
-      <c r="AT19" s="140"/>
-      <c r="AU19" s="140"/>
-      <c r="AV19" s="140"/>
-      <c r="AW19" s="140"/>
-      <c r="AX19" s="140"/>
-      <c r="AY19" s="140"/>
-      <c r="AZ19" s="140"/>
-      <c r="BA19" s="141"/>
+      <c r="AR19" s="156"/>
+      <c r="AS19" s="157"/>
+      <c r="AT19" s="157"/>
+      <c r="AU19" s="157"/>
+      <c r="AV19" s="157"/>
+      <c r="AW19" s="157"/>
+      <c r="AX19" s="157"/>
+      <c r="AY19" s="157"/>
+      <c r="AZ19" s="157"/>
+      <c r="BA19" s="158"/>
       <c r="BB19" s="44"/>
       <c r="BC19" s="23"/>
       <c r="BD19" s="18"/>
@@ -21318,46 +21568,46 @@
       <c r="K20" s="18"/>
       <c r="L20" s="50"/>
       <c r="M20" s="24"/>
-      <c r="N20" s="139"/>
-      <c r="O20" s="140"/>
-      <c r="P20" s="140"/>
-      <c r="Q20" s="140"/>
-      <c r="R20" s="140"/>
-      <c r="S20" s="140"/>
-      <c r="T20" s="140"/>
-      <c r="U20" s="140"/>
-      <c r="V20" s="140"/>
-      <c r="W20" s="141"/>
+      <c r="N20" s="156"/>
+      <c r="O20" s="157"/>
+      <c r="P20" s="157"/>
+      <c r="Q20" s="157"/>
+      <c r="R20" s="157"/>
+      <c r="S20" s="157"/>
+      <c r="T20" s="157"/>
+      <c r="U20" s="157"/>
+      <c r="V20" s="157"/>
+      <c r="W20" s="158"/>
       <c r="X20" s="18"/>
       <c r="Y20" s="23"/>
       <c r="Z20" s="17"/>
       <c r="AA20" s="50"/>
       <c r="AB20" s="24"/>
-      <c r="AC20" s="139"/>
-      <c r="AD20" s="140"/>
-      <c r="AE20" s="140"/>
-      <c r="AF20" s="140"/>
-      <c r="AG20" s="140"/>
-      <c r="AH20" s="140"/>
-      <c r="AI20" s="140"/>
-      <c r="AJ20" s="140"/>
-      <c r="AK20" s="140"/>
-      <c r="AL20" s="141"/>
+      <c r="AC20" s="156"/>
+      <c r="AD20" s="157"/>
+      <c r="AE20" s="157"/>
+      <c r="AF20" s="157"/>
+      <c r="AG20" s="157"/>
+      <c r="AH20" s="157"/>
+      <c r="AI20" s="157"/>
+      <c r="AJ20" s="157"/>
+      <c r="AK20" s="157"/>
+      <c r="AL20" s="158"/>
       <c r="AM20" s="18"/>
       <c r="AN20" s="23"/>
       <c r="AO20" s="17"/>
       <c r="AP20" s="50"/>
       <c r="AQ20" s="24"/>
-      <c r="AR20" s="139"/>
-      <c r="AS20" s="140"/>
-      <c r="AT20" s="140"/>
-      <c r="AU20" s="140"/>
-      <c r="AV20" s="140"/>
-      <c r="AW20" s="140"/>
-      <c r="AX20" s="140"/>
-      <c r="AY20" s="140"/>
-      <c r="AZ20" s="140"/>
-      <c r="BA20" s="141"/>
+      <c r="AR20" s="156"/>
+      <c r="AS20" s="157"/>
+      <c r="AT20" s="157"/>
+      <c r="AU20" s="157"/>
+      <c r="AV20" s="157"/>
+      <c r="AW20" s="157"/>
+      <c r="AX20" s="157"/>
+      <c r="AY20" s="157"/>
+      <c r="AZ20" s="157"/>
+      <c r="BA20" s="158"/>
       <c r="BB20" s="18"/>
       <c r="BC20" s="23"/>
       <c r="BD20" s="18"/>
@@ -21377,46 +21627,46 @@
       <c r="K21" s="18"/>
       <c r="L21" s="50"/>
       <c r="M21" s="24"/>
-      <c r="N21" s="139"/>
-      <c r="O21" s="140"/>
-      <c r="P21" s="140"/>
-      <c r="Q21" s="140"/>
-      <c r="R21" s="140"/>
-      <c r="S21" s="140"/>
-      <c r="T21" s="140"/>
-      <c r="U21" s="140"/>
-      <c r="V21" s="140"/>
-      <c r="W21" s="141"/>
+      <c r="N21" s="156"/>
+      <c r="O21" s="157"/>
+      <c r="P21" s="157"/>
+      <c r="Q21" s="157"/>
+      <c r="R21" s="157"/>
+      <c r="S21" s="157"/>
+      <c r="T21" s="157"/>
+      <c r="U21" s="157"/>
+      <c r="V21" s="157"/>
+      <c r="W21" s="158"/>
       <c r="X21" s="18"/>
       <c r="Y21" s="23"/>
       <c r="Z21" s="17"/>
       <c r="AA21" s="50"/>
       <c r="AB21" s="24"/>
-      <c r="AC21" s="139"/>
-      <c r="AD21" s="140"/>
-      <c r="AE21" s="140"/>
-      <c r="AF21" s="140"/>
-      <c r="AG21" s="140"/>
-      <c r="AH21" s="140"/>
-      <c r="AI21" s="140"/>
-      <c r="AJ21" s="140"/>
-      <c r="AK21" s="140"/>
-      <c r="AL21" s="141"/>
+      <c r="AC21" s="156"/>
+      <c r="AD21" s="157"/>
+      <c r="AE21" s="157"/>
+      <c r="AF21" s="157"/>
+      <c r="AG21" s="157"/>
+      <c r="AH21" s="157"/>
+      <c r="AI21" s="157"/>
+      <c r="AJ21" s="157"/>
+      <c r="AK21" s="157"/>
+      <c r="AL21" s="158"/>
       <c r="AM21" s="18"/>
       <c r="AN21" s="23"/>
       <c r="AO21" s="17"/>
       <c r="AP21" s="50"/>
       <c r="AQ21" s="24"/>
-      <c r="AR21" s="139"/>
-      <c r="AS21" s="140"/>
-      <c r="AT21" s="140"/>
-      <c r="AU21" s="140"/>
-      <c r="AV21" s="140"/>
-      <c r="AW21" s="140"/>
-      <c r="AX21" s="140"/>
-      <c r="AY21" s="140"/>
-      <c r="AZ21" s="140"/>
-      <c r="BA21" s="141"/>
+      <c r="AR21" s="156"/>
+      <c r="AS21" s="157"/>
+      <c r="AT21" s="157"/>
+      <c r="AU21" s="157"/>
+      <c r="AV21" s="157"/>
+      <c r="AW21" s="157"/>
+      <c r="AX21" s="157"/>
+      <c r="AY21" s="157"/>
+      <c r="AZ21" s="157"/>
+      <c r="BA21" s="158"/>
       <c r="BB21" s="18"/>
       <c r="BC21" s="23"/>
       <c r="BD21" s="18"/>
@@ -21436,46 +21686,46 @@
       <c r="K22" s="18"/>
       <c r="L22" s="50"/>
       <c r="M22" s="25"/>
-      <c r="N22" s="139"/>
-      <c r="O22" s="140"/>
-      <c r="P22" s="140"/>
-      <c r="Q22" s="140"/>
-      <c r="R22" s="140"/>
-      <c r="S22" s="140"/>
-      <c r="T22" s="140"/>
-      <c r="U22" s="140"/>
-      <c r="V22" s="140"/>
-      <c r="W22" s="141"/>
+      <c r="N22" s="156"/>
+      <c r="O22" s="157"/>
+      <c r="P22" s="157"/>
+      <c r="Q22" s="157"/>
+      <c r="R22" s="157"/>
+      <c r="S22" s="157"/>
+      <c r="T22" s="157"/>
+      <c r="U22" s="157"/>
+      <c r="V22" s="157"/>
+      <c r="W22" s="158"/>
       <c r="X22" s="18"/>
       <c r="Y22" s="13"/>
       <c r="Z22" s="17"/>
       <c r="AA22" s="50"/>
       <c r="AB22" s="25"/>
-      <c r="AC22" s="139"/>
-      <c r="AD22" s="140"/>
-      <c r="AE22" s="140"/>
-      <c r="AF22" s="140"/>
-      <c r="AG22" s="140"/>
-      <c r="AH22" s="140"/>
-      <c r="AI22" s="140"/>
-      <c r="AJ22" s="140"/>
-      <c r="AK22" s="140"/>
-      <c r="AL22" s="141"/>
+      <c r="AC22" s="156"/>
+      <c r="AD22" s="157"/>
+      <c r="AE22" s="157"/>
+      <c r="AF22" s="157"/>
+      <c r="AG22" s="157"/>
+      <c r="AH22" s="157"/>
+      <c r="AI22" s="157"/>
+      <c r="AJ22" s="157"/>
+      <c r="AK22" s="157"/>
+      <c r="AL22" s="158"/>
       <c r="AM22" s="18"/>
       <c r="AN22" s="13"/>
       <c r="AO22" s="17"/>
       <c r="AP22" s="50"/>
       <c r="AQ22" s="25"/>
-      <c r="AR22" s="139"/>
-      <c r="AS22" s="140"/>
-      <c r="AT22" s="140"/>
-      <c r="AU22" s="140"/>
-      <c r="AV22" s="140"/>
-      <c r="AW22" s="140"/>
-      <c r="AX22" s="140"/>
-      <c r="AY22" s="140"/>
-      <c r="AZ22" s="140"/>
-      <c r="BA22" s="141"/>
+      <c r="AR22" s="156"/>
+      <c r="AS22" s="157"/>
+      <c r="AT22" s="157"/>
+      <c r="AU22" s="157"/>
+      <c r="AV22" s="157"/>
+      <c r="AW22" s="157"/>
+      <c r="AX22" s="157"/>
+      <c r="AY22" s="157"/>
+      <c r="AZ22" s="157"/>
+      <c r="BA22" s="158"/>
       <c r="BB22" s="18"/>
       <c r="BC22" s="13"/>
       <c r="BD22" s="18"/>
@@ -21495,46 +21745,46 @@
       <c r="K23" s="18"/>
       <c r="L23" s="50"/>
       <c r="M23" s="25"/>
-      <c r="N23" s="139"/>
-      <c r="O23" s="140"/>
-      <c r="P23" s="140"/>
-      <c r="Q23" s="140"/>
-      <c r="R23" s="140"/>
-      <c r="S23" s="140"/>
-      <c r="T23" s="140"/>
-      <c r="U23" s="140"/>
-      <c r="V23" s="140"/>
-      <c r="W23" s="141"/>
+      <c r="N23" s="156"/>
+      <c r="O23" s="157"/>
+      <c r="P23" s="157"/>
+      <c r="Q23" s="157"/>
+      <c r="R23" s="157"/>
+      <c r="S23" s="157"/>
+      <c r="T23" s="157"/>
+      <c r="U23" s="157"/>
+      <c r="V23" s="157"/>
+      <c r="W23" s="158"/>
       <c r="X23" s="18"/>
       <c r="Y23" s="13"/>
       <c r="Z23" s="17"/>
       <c r="AA23" s="50"/>
       <c r="AB23" s="25"/>
-      <c r="AC23" s="139"/>
-      <c r="AD23" s="140"/>
-      <c r="AE23" s="140"/>
-      <c r="AF23" s="140"/>
-      <c r="AG23" s="140"/>
-      <c r="AH23" s="140"/>
-      <c r="AI23" s="140"/>
-      <c r="AJ23" s="140"/>
-      <c r="AK23" s="140"/>
-      <c r="AL23" s="141"/>
+      <c r="AC23" s="156"/>
+      <c r="AD23" s="157"/>
+      <c r="AE23" s="157"/>
+      <c r="AF23" s="157"/>
+      <c r="AG23" s="157"/>
+      <c r="AH23" s="157"/>
+      <c r="AI23" s="157"/>
+      <c r="AJ23" s="157"/>
+      <c r="AK23" s="157"/>
+      <c r="AL23" s="158"/>
       <c r="AM23" s="18"/>
       <c r="AN23" s="13"/>
       <c r="AO23" s="17"/>
       <c r="AP23" s="50"/>
       <c r="AQ23" s="25"/>
-      <c r="AR23" s="139"/>
-      <c r="AS23" s="140"/>
-      <c r="AT23" s="140"/>
-      <c r="AU23" s="140"/>
-      <c r="AV23" s="140"/>
-      <c r="AW23" s="140"/>
-      <c r="AX23" s="140"/>
-      <c r="AY23" s="140"/>
-      <c r="AZ23" s="140"/>
-      <c r="BA23" s="141"/>
+      <c r="AR23" s="156"/>
+      <c r="AS23" s="157"/>
+      <c r="AT23" s="157"/>
+      <c r="AU23" s="157"/>
+      <c r="AV23" s="157"/>
+      <c r="AW23" s="157"/>
+      <c r="AX23" s="157"/>
+      <c r="AY23" s="157"/>
+      <c r="AZ23" s="157"/>
+      <c r="BA23" s="158"/>
       <c r="BB23" s="18"/>
       <c r="BC23" s="13"/>
       <c r="BD23" s="18"/>
@@ -21554,46 +21804,46 @@
       <c r="K24" s="18"/>
       <c r="L24" s="50"/>
       <c r="M24" s="24"/>
-      <c r="N24" s="139"/>
-      <c r="O24" s="140"/>
-      <c r="P24" s="140"/>
-      <c r="Q24" s="140"/>
-      <c r="R24" s="140"/>
-      <c r="S24" s="140"/>
-      <c r="T24" s="140"/>
-      <c r="U24" s="140"/>
-      <c r="V24" s="140"/>
-      <c r="W24" s="141"/>
+      <c r="N24" s="156"/>
+      <c r="O24" s="157"/>
+      <c r="P24" s="157"/>
+      <c r="Q24" s="157"/>
+      <c r="R24" s="157"/>
+      <c r="S24" s="157"/>
+      <c r="T24" s="157"/>
+      <c r="U24" s="157"/>
+      <c r="V24" s="157"/>
+      <c r="W24" s="158"/>
       <c r="X24" s="18"/>
       <c r="Y24" s="23"/>
       <c r="Z24" s="17"/>
       <c r="AA24" s="50"/>
       <c r="AB24" s="24"/>
-      <c r="AC24" s="139"/>
-      <c r="AD24" s="140"/>
-      <c r="AE24" s="140"/>
-      <c r="AF24" s="140"/>
-      <c r="AG24" s="140"/>
-      <c r="AH24" s="140"/>
-      <c r="AI24" s="140"/>
-      <c r="AJ24" s="140"/>
-      <c r="AK24" s="140"/>
-      <c r="AL24" s="141"/>
+      <c r="AC24" s="156"/>
+      <c r="AD24" s="157"/>
+      <c r="AE24" s="157"/>
+      <c r="AF24" s="157"/>
+      <c r="AG24" s="157"/>
+      <c r="AH24" s="157"/>
+      <c r="AI24" s="157"/>
+      <c r="AJ24" s="157"/>
+      <c r="AK24" s="157"/>
+      <c r="AL24" s="158"/>
       <c r="AM24" s="18"/>
       <c r="AN24" s="23"/>
       <c r="AO24" s="17"/>
       <c r="AP24" s="50"/>
       <c r="AQ24" s="24"/>
-      <c r="AR24" s="139"/>
-      <c r="AS24" s="140"/>
-      <c r="AT24" s="140"/>
-      <c r="AU24" s="140"/>
-      <c r="AV24" s="140"/>
-      <c r="AW24" s="140"/>
-      <c r="AX24" s="140"/>
-      <c r="AY24" s="140"/>
-      <c r="AZ24" s="140"/>
-      <c r="BA24" s="141"/>
+      <c r="AR24" s="156"/>
+      <c r="AS24" s="157"/>
+      <c r="AT24" s="157"/>
+      <c r="AU24" s="157"/>
+      <c r="AV24" s="157"/>
+      <c r="AW24" s="157"/>
+      <c r="AX24" s="157"/>
+      <c r="AY24" s="157"/>
+      <c r="AZ24" s="157"/>
+      <c r="BA24" s="158"/>
       <c r="BB24" s="18"/>
       <c r="BC24" s="23"/>
       <c r="BD24" s="18"/>
@@ -21671,54 +21921,54 @@
       <c r="J26" s="78"/>
       <c r="K26" s="18"/>
       <c r="L26" s="18"/>
-      <c r="M26" s="115" t="s">
+      <c r="M26" s="144" t="s">
         <v>59</v>
       </c>
-      <c r="N26" s="115"/>
-      <c r="O26" s="115"/>
-      <c r="P26" s="115"/>
-      <c r="Q26" s="115"/>
-      <c r="R26" s="115"/>
-      <c r="S26" s="115"/>
-      <c r="T26" s="115"/>
-      <c r="U26" s="115"/>
-      <c r="V26" s="115"/>
-      <c r="W26" s="115"/>
-      <c r="X26" s="115"/>
+      <c r="N26" s="144"/>
+      <c r="O26" s="144"/>
+      <c r="P26" s="144"/>
+      <c r="Q26" s="144"/>
+      <c r="R26" s="144"/>
+      <c r="S26" s="144"/>
+      <c r="T26" s="144"/>
+      <c r="U26" s="144"/>
+      <c r="V26" s="144"/>
+      <c r="W26" s="144"/>
+      <c r="X26" s="144"/>
       <c r="Y26" s="18"/>
       <c r="Z26" s="18"/>
       <c r="AA26" s="18"/>
-      <c r="AB26" s="109" t="s">
+      <c r="AB26" s="140" t="s">
         <v>60</v>
       </c>
-      <c r="AC26" s="109"/>
-      <c r="AD26" s="109"/>
-      <c r="AE26" s="109"/>
-      <c r="AF26" s="109"/>
-      <c r="AG26" s="109"/>
-      <c r="AH26" s="109"/>
-      <c r="AI26" s="109"/>
-      <c r="AJ26" s="109"/>
-      <c r="AK26" s="109"/>
-      <c r="AL26" s="109"/>
-      <c r="AM26" s="109"/>
+      <c r="AC26" s="140"/>
+      <c r="AD26" s="140"/>
+      <c r="AE26" s="140"/>
+      <c r="AF26" s="140"/>
+      <c r="AG26" s="140"/>
+      <c r="AH26" s="140"/>
+      <c r="AI26" s="140"/>
+      <c r="AJ26" s="140"/>
+      <c r="AK26" s="140"/>
+      <c r="AL26" s="140"/>
+      <c r="AM26" s="140"/>
       <c r="AN26" s="18"/>
       <c r="AO26" s="18"/>
       <c r="AP26" s="18"/>
-      <c r="AQ26" s="115" t="s">
+      <c r="AQ26" s="144" t="s">
         <v>61</v>
       </c>
-      <c r="AR26" s="115"/>
-      <c r="AS26" s="115"/>
-      <c r="AT26" s="115"/>
-      <c r="AU26" s="115"/>
-      <c r="AV26" s="115"/>
-      <c r="AW26" s="115"/>
-      <c r="AX26" s="115"/>
-      <c r="AY26" s="115"/>
-      <c r="AZ26" s="115"/>
-      <c r="BA26" s="115"/>
-      <c r="BB26" s="115"/>
+      <c r="AR26" s="144"/>
+      <c r="AS26" s="144"/>
+      <c r="AT26" s="144"/>
+      <c r="AU26" s="144"/>
+      <c r="AV26" s="144"/>
+      <c r="AW26" s="144"/>
+      <c r="AX26" s="144"/>
+      <c r="AY26" s="144"/>
+      <c r="AZ26" s="144"/>
+      <c r="BA26" s="144"/>
+      <c r="BB26" s="144"/>
       <c r="BC26" s="38"/>
       <c r="BD26" s="18"/>
       <c r="BE26" s="52"/>
@@ -22746,24 +22996,26 @@
     </row>
   </sheetData>
   <mergeCells count="54">
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="F1:L1"/>
-    <mergeCell ref="M1:P1"/>
-    <mergeCell ref="Q1:W1"/>
-    <mergeCell ref="A2:E2"/>
-    <mergeCell ref="F2:L2"/>
-    <mergeCell ref="M2:P2"/>
-    <mergeCell ref="Q2:W2"/>
-    <mergeCell ref="C11:I12"/>
-    <mergeCell ref="M3:P3"/>
-    <mergeCell ref="Q3:W3"/>
-    <mergeCell ref="M4:P4"/>
-    <mergeCell ref="Q4:W4"/>
-    <mergeCell ref="B7:I7"/>
-    <mergeCell ref="C8:D9"/>
-    <mergeCell ref="E8:F9"/>
-    <mergeCell ref="G8:H9"/>
-    <mergeCell ref="I8:J9"/>
+    <mergeCell ref="AR24:BA24"/>
+    <mergeCell ref="L10:R11"/>
+    <mergeCell ref="X9:AE9"/>
+    <mergeCell ref="AM8:AT8"/>
+    <mergeCell ref="AR17:BA17"/>
+    <mergeCell ref="AR18:BA18"/>
+    <mergeCell ref="AR19:BA19"/>
+    <mergeCell ref="AR20:BA20"/>
+    <mergeCell ref="AR21:BA21"/>
+    <mergeCell ref="AR22:BA22"/>
+    <mergeCell ref="AC17:AL17"/>
+    <mergeCell ref="AC18:AL18"/>
+    <mergeCell ref="AC19:AL19"/>
+    <mergeCell ref="AC20:AL20"/>
+    <mergeCell ref="AC21:AL21"/>
+    <mergeCell ref="N19:W19"/>
+    <mergeCell ref="N20:W20"/>
+    <mergeCell ref="N21:W21"/>
+    <mergeCell ref="N22:W22"/>
+    <mergeCell ref="AR23:BA23"/>
     <mergeCell ref="N23:W23"/>
     <mergeCell ref="M26:X26"/>
     <mergeCell ref="AB26:AM26"/>
@@ -22780,26 +23032,24 @@
     <mergeCell ref="N17:W17"/>
     <mergeCell ref="AC22:AL22"/>
     <mergeCell ref="N18:W18"/>
-    <mergeCell ref="N19:W19"/>
-    <mergeCell ref="N20:W20"/>
-    <mergeCell ref="N21:W21"/>
-    <mergeCell ref="N22:W22"/>
-    <mergeCell ref="AR23:BA23"/>
-    <mergeCell ref="AR24:BA24"/>
-    <mergeCell ref="L10:R11"/>
-    <mergeCell ref="X9:AE9"/>
-    <mergeCell ref="AM8:AT8"/>
-    <mergeCell ref="AR17:BA17"/>
-    <mergeCell ref="AR18:BA18"/>
-    <mergeCell ref="AR19:BA19"/>
-    <mergeCell ref="AR20:BA20"/>
-    <mergeCell ref="AR21:BA21"/>
-    <mergeCell ref="AR22:BA22"/>
-    <mergeCell ref="AC17:AL17"/>
-    <mergeCell ref="AC18:AL18"/>
-    <mergeCell ref="AC19:AL19"/>
-    <mergeCell ref="AC20:AL20"/>
-    <mergeCell ref="AC21:AL21"/>
+    <mergeCell ref="C11:I12"/>
+    <mergeCell ref="M3:P3"/>
+    <mergeCell ref="Q3:W3"/>
+    <mergeCell ref="M4:P4"/>
+    <mergeCell ref="Q4:W4"/>
+    <mergeCell ref="B7:I7"/>
+    <mergeCell ref="C8:D9"/>
+    <mergeCell ref="E8:F9"/>
+    <mergeCell ref="G8:H9"/>
+    <mergeCell ref="I8:J9"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="F1:L1"/>
+    <mergeCell ref="M1:P1"/>
+    <mergeCell ref="Q1:W1"/>
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="F2:L2"/>
+    <mergeCell ref="M2:P2"/>
+    <mergeCell ref="Q2:W2"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -22812,7 +23062,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F8094F2-7784-44D3-BA31-9E170275EC75}">
   <dimension ref="A1:BH53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="AI22" sqref="AI22"/>
     </sheetView>
   </sheetViews>
@@ -22823,104 +23073,104 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:57" x14ac:dyDescent="0.15">
-      <c r="A1" s="107" t="s">
+      <c r="A1" s="87" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="107"/>
-      <c r="C1" s="107"/>
-      <c r="D1" s="107"/>
-      <c r="E1" s="107"/>
-      <c r="F1" s="108" t="s">
+      <c r="B1" s="87"/>
+      <c r="C1" s="87"/>
+      <c r="D1" s="87"/>
+      <c r="E1" s="87"/>
+      <c r="F1" s="88" t="s">
         <v>7</v>
       </c>
-      <c r="G1" s="108"/>
-      <c r="H1" s="108"/>
-      <c r="I1" s="108"/>
-      <c r="J1" s="108"/>
-      <c r="K1" s="108"/>
-      <c r="L1" s="108"/>
-      <c r="M1" s="107" t="s">
+      <c r="G1" s="88"/>
+      <c r="H1" s="88"/>
+      <c r="I1" s="88"/>
+      <c r="J1" s="88"/>
+      <c r="K1" s="88"/>
+      <c r="L1" s="88"/>
+      <c r="M1" s="87" t="s">
         <v>1</v>
       </c>
-      <c r="N1" s="107"/>
-      <c r="O1" s="107"/>
-      <c r="P1" s="107"/>
-      <c r="Q1" s="108" t="s">
+      <c r="N1" s="87"/>
+      <c r="O1" s="87"/>
+      <c r="P1" s="87"/>
+      <c r="Q1" s="88" t="s">
         <v>9</v>
       </c>
-      <c r="R1" s="108"/>
-      <c r="S1" s="108"/>
-      <c r="T1" s="108"/>
-      <c r="U1" s="108"/>
-      <c r="V1" s="108"/>
-      <c r="W1" s="108"/>
+      <c r="R1" s="88"/>
+      <c r="S1" s="88"/>
+      <c r="T1" s="88"/>
+      <c r="U1" s="88"/>
+      <c r="V1" s="88"/>
+      <c r="W1" s="88"/>
     </row>
     <row r="2" spans="1:57" x14ac:dyDescent="0.15">
-      <c r="A2" s="107" t="s">
+      <c r="A2" s="87" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="107"/>
-      <c r="C2" s="107"/>
-      <c r="D2" s="107"/>
-      <c r="E2" s="107"/>
-      <c r="F2" s="108" t="s">
+      <c r="B2" s="87"/>
+      <c r="C2" s="87"/>
+      <c r="D2" s="87"/>
+      <c r="E2" s="87"/>
+      <c r="F2" s="88" t="s">
         <v>8</v>
       </c>
-      <c r="G2" s="108"/>
-      <c r="H2" s="108"/>
-      <c r="I2" s="108"/>
-      <c r="J2" s="108"/>
-      <c r="K2" s="108"/>
-      <c r="L2" s="108"/>
-      <c r="M2" s="107" t="s">
+      <c r="G2" s="88"/>
+      <c r="H2" s="88"/>
+      <c r="I2" s="88"/>
+      <c r="J2" s="88"/>
+      <c r="K2" s="88"/>
+      <c r="L2" s="88"/>
+      <c r="M2" s="87" t="s">
         <v>3</v>
       </c>
-      <c r="N2" s="107"/>
-      <c r="O2" s="107"/>
-      <c r="P2" s="107"/>
-      <c r="Q2" s="108" t="s">
+      <c r="N2" s="87"/>
+      <c r="O2" s="87"/>
+      <c r="P2" s="87"/>
+      <c r="Q2" s="88" t="s">
         <v>10</v>
       </c>
-      <c r="R2" s="108"/>
-      <c r="S2" s="108"/>
-      <c r="T2" s="108"/>
-      <c r="U2" s="108"/>
-      <c r="V2" s="108"/>
-      <c r="W2" s="108"/>
+      <c r="R2" s="88"/>
+      <c r="S2" s="88"/>
+      <c r="T2" s="88"/>
+      <c r="U2" s="88"/>
+      <c r="V2" s="88"/>
+      <c r="W2" s="88"/>
     </row>
     <row r="3" spans="1:57" x14ac:dyDescent="0.15">
-      <c r="M3" s="107" t="s">
+      <c r="M3" s="87" t="s">
         <v>4</v>
       </c>
-      <c r="N3" s="107"/>
-      <c r="O3" s="107"/>
-      <c r="P3" s="107"/>
-      <c r="Q3" s="108" t="s">
+      <c r="N3" s="87"/>
+      <c r="O3" s="87"/>
+      <c r="P3" s="87"/>
+      <c r="Q3" s="88" t="s">
         <v>9</v>
       </c>
-      <c r="R3" s="108"/>
-      <c r="S3" s="108"/>
-      <c r="T3" s="108"/>
-      <c r="U3" s="108"/>
-      <c r="V3" s="108"/>
-      <c r="W3" s="108"/>
+      <c r="R3" s="88"/>
+      <c r="S3" s="88"/>
+      <c r="T3" s="88"/>
+      <c r="U3" s="88"/>
+      <c r="V3" s="88"/>
+      <c r="W3" s="88"/>
     </row>
     <row r="4" spans="1:57" x14ac:dyDescent="0.15">
-      <c r="M4" s="107" t="s">
+      <c r="M4" s="87" t="s">
         <v>5</v>
       </c>
-      <c r="N4" s="107"/>
-      <c r="O4" s="107"/>
-      <c r="P4" s="107"/>
-      <c r="Q4" s="108" t="s">
+      <c r="N4" s="87"/>
+      <c r="O4" s="87"/>
+      <c r="P4" s="87"/>
+      <c r="Q4" s="88" t="s">
         <v>33</v>
       </c>
-      <c r="R4" s="108"/>
-      <c r="S4" s="108"/>
-      <c r="T4" s="108"/>
-      <c r="U4" s="108"/>
-      <c r="V4" s="108"/>
-      <c r="W4" s="108"/>
+      <c r="R4" s="88"/>
+      <c r="S4" s="88"/>
+      <c r="T4" s="88"/>
+      <c r="U4" s="88"/>
+      <c r="V4" s="88"/>
+      <c r="W4" s="88"/>
     </row>
     <row r="5" spans="1:57" ht="28.5" x14ac:dyDescent="0.15">
       <c r="A5" s="2" t="s">
@@ -22995,16 +23245,16 @@
     </row>
     <row r="7" spans="1:57" x14ac:dyDescent="0.15">
       <c r="A7" s="6"/>
-      <c r="B7" s="109" t="s">
+      <c r="B7" s="140" t="s">
         <v>66</v>
       </c>
-      <c r="C7" s="109"/>
-      <c r="D7" s="109"/>
-      <c r="E7" s="109"/>
-      <c r="F7" s="109"/>
-      <c r="G7" s="109"/>
-      <c r="H7" s="109"/>
-      <c r="I7" s="109"/>
+      <c r="C7" s="140"/>
+      <c r="D7" s="140"/>
+      <c r="E7" s="140"/>
+      <c r="F7" s="140"/>
+      <c r="G7" s="140"/>
+      <c r="H7" s="140"/>
+      <c r="I7" s="140"/>
       <c r="J7" s="25"/>
       <c r="K7" s="18"/>
       <c r="L7" s="18"/>
@@ -23057,22 +23307,22 @@
     <row r="8" spans="1:57" x14ac:dyDescent="0.15">
       <c r="A8" s="6"/>
       <c r="B8" s="19"/>
-      <c r="C8" s="127" t="s">
+      <c r="C8" s="143" t="s">
         <v>38</v>
       </c>
-      <c r="D8" s="115"/>
-      <c r="E8" s="118" t="s">
+      <c r="D8" s="144"/>
+      <c r="E8" s="134" t="s">
         <v>12</v>
       </c>
-      <c r="F8" s="118"/>
-      <c r="G8" s="118" t="s">
+      <c r="F8" s="134"/>
+      <c r="G8" s="134" t="s">
         <v>15</v>
       </c>
-      <c r="H8" s="118"/>
-      <c r="I8" s="128" t="s">
+      <c r="H8" s="134"/>
+      <c r="I8" s="145" t="s">
         <v>36</v>
       </c>
-      <c r="J8" s="129"/>
+      <c r="J8" s="146"/>
       <c r="K8" s="18"/>
       <c r="L8" s="18"/>
       <c r="M8" s="18"/>
@@ -23110,14 +23360,14 @@
     <row r="9" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A9" s="6"/>
       <c r="B9" s="56"/>
-      <c r="C9" s="85"/>
-      <c r="D9" s="85"/>
-      <c r="E9" s="119"/>
-      <c r="F9" s="119"/>
-      <c r="G9" s="119"/>
-      <c r="H9" s="119"/>
-      <c r="I9" s="130"/>
-      <c r="J9" s="131"/>
+      <c r="C9" s="92"/>
+      <c r="D9" s="92"/>
+      <c r="E9" s="135"/>
+      <c r="F9" s="135"/>
+      <c r="G9" s="135"/>
+      <c r="H9" s="135"/>
+      <c r="I9" s="147"/>
+      <c r="J9" s="148"/>
       <c r="K9" s="18"/>
       <c r="L9" s="18"/>
       <c r="M9" s="18"/>
@@ -23170,22 +23420,22 @@
       <c r="O10" s="37"/>
       <c r="P10" s="37"/>
       <c r="Q10" s="37"/>
-      <c r="R10" s="116" t="s">
+      <c r="R10" s="133" t="s">
         <v>13</v>
       </c>
-      <c r="S10" s="96"/>
-      <c r="T10" s="96"/>
-      <c r="U10" s="96"/>
-      <c r="V10" s="96"/>
-      <c r="W10" s="96"/>
-      <c r="X10" s="96"/>
-      <c r="Y10" s="96"/>
-      <c r="Z10" s="96"/>
-      <c r="AA10" s="96"/>
-      <c r="AB10" s="96"/>
-      <c r="AC10" s="96"/>
-      <c r="AD10" s="96"/>
-      <c r="AE10" s="148"/>
+      <c r="S10" s="95"/>
+      <c r="T10" s="95"/>
+      <c r="U10" s="95"/>
+      <c r="V10" s="95"/>
+      <c r="W10" s="95"/>
+      <c r="X10" s="95"/>
+      <c r="Y10" s="95"/>
+      <c r="Z10" s="95"/>
+      <c r="AA10" s="95"/>
+      <c r="AB10" s="95"/>
+      <c r="AC10" s="95"/>
+      <c r="AD10" s="95"/>
+      <c r="AE10" s="167"/>
       <c r="AF10" s="24"/>
       <c r="AG10" s="24"/>
       <c r="AH10" s="24"/>
@@ -23193,37 +23443,37 @@
       <c r="AJ10" s="37"/>
       <c r="AK10" s="37"/>
       <c r="AL10" s="18"/>
-      <c r="AM10" s="116" t="s">
+      <c r="AM10" s="133" t="s">
         <v>13</v>
       </c>
-      <c r="AN10" s="96"/>
-      <c r="AO10" s="96"/>
-      <c r="AP10" s="96"/>
-      <c r="AQ10" s="96"/>
-      <c r="AR10" s="96"/>
-      <c r="AS10" s="96"/>
-      <c r="AT10" s="96"/>
-      <c r="AU10" s="96"/>
-      <c r="AV10" s="96"/>
-      <c r="AW10" s="96"/>
-      <c r="AX10" s="96"/>
-      <c r="AY10" s="96"/>
-      <c r="AZ10" s="148"/>
+      <c r="AN10" s="95"/>
+      <c r="AO10" s="95"/>
+      <c r="AP10" s="95"/>
+      <c r="AQ10" s="95"/>
+      <c r="AR10" s="95"/>
+      <c r="AS10" s="95"/>
+      <c r="AT10" s="95"/>
+      <c r="AU10" s="95"/>
+      <c r="AV10" s="95"/>
+      <c r="AW10" s="95"/>
+      <c r="AX10" s="95"/>
+      <c r="AY10" s="95"/>
+      <c r="AZ10" s="167"/>
       <c r="BD10" s="18"/>
       <c r="BE10" s="52"/>
     </row>
     <row r="11" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="6"/>
       <c r="B11" s="22"/>
-      <c r="C11" s="132" t="s">
+      <c r="C11" s="141" t="s">
         <v>20</v>
       </c>
-      <c r="D11" s="133"/>
-      <c r="E11" s="133"/>
-      <c r="F11" s="133"/>
-      <c r="G11" s="133"/>
-      <c r="H11" s="133"/>
-      <c r="I11" s="133"/>
+      <c r="D11" s="132"/>
+      <c r="E11" s="132"/>
+      <c r="F11" s="132"/>
+      <c r="G11" s="132"/>
+      <c r="H11" s="132"/>
+      <c r="I11" s="132"/>
       <c r="J11" s="57"/>
       <c r="K11" s="43"/>
       <c r="L11" s="43"/>
@@ -23232,20 +23482,20 @@
       <c r="O11" s="24"/>
       <c r="P11" s="40"/>
       <c r="Q11" s="40"/>
-      <c r="R11" s="87"/>
-      <c r="S11" s="110"/>
-      <c r="T11" s="110"/>
-      <c r="U11" s="110"/>
-      <c r="V11" s="110"/>
-      <c r="W11" s="110"/>
-      <c r="X11" s="110"/>
-      <c r="Y11" s="110"/>
-      <c r="Z11" s="110"/>
-      <c r="AA11" s="110"/>
-      <c r="AB11" s="110"/>
-      <c r="AC11" s="110"/>
-      <c r="AD11" s="110"/>
-      <c r="AE11" s="88"/>
+      <c r="R11" s="110"/>
+      <c r="S11" s="116"/>
+      <c r="T11" s="116"/>
+      <c r="U11" s="116"/>
+      <c r="V11" s="116"/>
+      <c r="W11" s="116"/>
+      <c r="X11" s="116"/>
+      <c r="Y11" s="116"/>
+      <c r="Z11" s="116"/>
+      <c r="AA11" s="116"/>
+      <c r="AB11" s="116"/>
+      <c r="AC11" s="116"/>
+      <c r="AD11" s="116"/>
+      <c r="AE11" s="111"/>
       <c r="AF11" s="40"/>
       <c r="AG11" s="40"/>
       <c r="AH11" s="24"/>
@@ -23253,33 +23503,33 @@
       <c r="AJ11" s="37"/>
       <c r="AK11" s="37"/>
       <c r="AL11" s="18"/>
-      <c r="AM11" s="87"/>
-      <c r="AN11" s="110"/>
-      <c r="AO11" s="110"/>
-      <c r="AP11" s="110"/>
-      <c r="AQ11" s="110"/>
-      <c r="AR11" s="110"/>
-      <c r="AS11" s="110"/>
-      <c r="AT11" s="110"/>
-      <c r="AU11" s="110"/>
-      <c r="AV11" s="110"/>
-      <c r="AW11" s="110"/>
-      <c r="AX11" s="110"/>
-      <c r="AY11" s="110"/>
-      <c r="AZ11" s="88"/>
+      <c r="AM11" s="110"/>
+      <c r="AN11" s="116"/>
+      <c r="AO11" s="116"/>
+      <c r="AP11" s="116"/>
+      <c r="AQ11" s="116"/>
+      <c r="AR11" s="116"/>
+      <c r="AS11" s="116"/>
+      <c r="AT11" s="116"/>
+      <c r="AU11" s="116"/>
+      <c r="AV11" s="116"/>
+      <c r="AW11" s="116"/>
+      <c r="AX11" s="116"/>
+      <c r="AY11" s="116"/>
+      <c r="AZ11" s="111"/>
       <c r="BD11" s="18"/>
       <c r="BE11" s="52"/>
     </row>
     <row r="12" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="6"/>
       <c r="B12" s="12"/>
-      <c r="C12" s="133"/>
-      <c r="D12" s="133"/>
-      <c r="E12" s="133"/>
-      <c r="F12" s="133"/>
-      <c r="G12" s="133"/>
-      <c r="H12" s="133"/>
-      <c r="I12" s="133"/>
+      <c r="C12" s="132"/>
+      <c r="D12" s="132"/>
+      <c r="E12" s="132"/>
+      <c r="F12" s="132"/>
+      <c r="G12" s="132"/>
+      <c r="H12" s="132"/>
+      <c r="I12" s="132"/>
       <c r="J12" s="52"/>
       <c r="K12" s="18"/>
       <c r="L12" s="37"/>
@@ -23288,34 +23538,34 @@
       <c r="O12" s="42"/>
       <c r="P12" s="42"/>
       <c r="Q12" s="74"/>
-      <c r="R12" s="87"/>
-      <c r="S12" s="110"/>
-      <c r="T12" s="110"/>
-      <c r="U12" s="110"/>
-      <c r="V12" s="110"/>
-      <c r="W12" s="110"/>
-      <c r="X12" s="110"/>
-      <c r="Y12" s="110"/>
-      <c r="Z12" s="110"/>
-      <c r="AA12" s="110"/>
-      <c r="AB12" s="110"/>
-      <c r="AC12" s="110"/>
-      <c r="AD12" s="110"/>
-      <c r="AE12" s="88"/>
-      <c r="AM12" s="87"/>
-      <c r="AN12" s="110"/>
-      <c r="AO12" s="110"/>
-      <c r="AP12" s="110"/>
-      <c r="AQ12" s="110"/>
-      <c r="AR12" s="110"/>
-      <c r="AS12" s="110"/>
-      <c r="AT12" s="110"/>
-      <c r="AU12" s="110"/>
-      <c r="AV12" s="110"/>
-      <c r="AW12" s="110"/>
-      <c r="AX12" s="110"/>
-      <c r="AY12" s="110"/>
-      <c r="AZ12" s="88"/>
+      <c r="R12" s="110"/>
+      <c r="S12" s="116"/>
+      <c r="T12" s="116"/>
+      <c r="U12" s="116"/>
+      <c r="V12" s="116"/>
+      <c r="W12" s="116"/>
+      <c r="X12" s="116"/>
+      <c r="Y12" s="116"/>
+      <c r="Z12" s="116"/>
+      <c r="AA12" s="116"/>
+      <c r="AB12" s="116"/>
+      <c r="AC12" s="116"/>
+      <c r="AD12" s="116"/>
+      <c r="AE12" s="111"/>
+      <c r="AM12" s="110"/>
+      <c r="AN12" s="116"/>
+      <c r="AO12" s="116"/>
+      <c r="AP12" s="116"/>
+      <c r="AQ12" s="116"/>
+      <c r="AR12" s="116"/>
+      <c r="AS12" s="116"/>
+      <c r="AT12" s="116"/>
+      <c r="AU12" s="116"/>
+      <c r="AV12" s="116"/>
+      <c r="AW12" s="116"/>
+      <c r="AX12" s="116"/>
+      <c r="AY12" s="116"/>
+      <c r="AZ12" s="111"/>
       <c r="BD12" s="18"/>
       <c r="BE12" s="52"/>
     </row>
@@ -23348,10 +23598,10 @@
       <c r="Z13" s="38"/>
       <c r="AA13" s="38"/>
       <c r="AB13" s="38"/>
-      <c r="AC13" s="157" t="s">
-        <v>73</v>
-      </c>
-      <c r="AD13" s="158"/>
+      <c r="AC13" s="128" t="s">
+        <v>71</v>
+      </c>
+      <c r="AD13" s="129"/>
       <c r="AE13" s="52"/>
       <c r="AM13" s="51"/>
       <c r="AN13" s="37"/>
@@ -23399,8 +23649,8 @@
       <c r="Z14" s="18"/>
       <c r="AA14" s="18"/>
       <c r="AB14" s="18"/>
-      <c r="AC14" s="159"/>
-      <c r="AD14" s="160"/>
+      <c r="AC14" s="130"/>
+      <c r="AD14" s="131"/>
       <c r="AE14" s="52"/>
       <c r="AM14" s="51"/>
       <c r="AN14" s="18"/>
@@ -23438,37 +23688,37 @@
       <c r="P15" s="18"/>
       <c r="Q15" s="18"/>
       <c r="R15" s="66"/>
-      <c r="S15" s="172"/>
-      <c r="T15" s="124" t="s">
+      <c r="S15" s="85"/>
+      <c r="T15" s="142" t="s">
         <v>45</v>
       </c>
-      <c r="U15" s="124"/>
-      <c r="V15" s="124"/>
-      <c r="W15" s="124"/>
-      <c r="X15" s="124"/>
-      <c r="Y15" s="124"/>
-      <c r="Z15" s="124"/>
-      <c r="AA15" s="124"/>
-      <c r="AB15" s="124"/>
-      <c r="AC15" s="124"/>
-      <c r="AD15" s="173"/>
+      <c r="U15" s="142"/>
+      <c r="V15" s="142"/>
+      <c r="W15" s="142"/>
+      <c r="X15" s="142"/>
+      <c r="Y15" s="142"/>
+      <c r="Z15" s="142"/>
+      <c r="AA15" s="142"/>
+      <c r="AB15" s="142"/>
+      <c r="AC15" s="142"/>
+      <c r="AD15" s="86"/>
       <c r="AE15" s="64"/>
       <c r="AM15" s="66"/>
       <c r="AN15" s="67"/>
-      <c r="AO15" s="142" t="s">
+      <c r="AO15" s="159" t="s">
         <v>65</v>
       </c>
-      <c r="AP15" s="143"/>
-      <c r="AQ15" s="143"/>
-      <c r="AR15" s="144"/>
+      <c r="AP15" s="160"/>
+      <c r="AQ15" s="160"/>
+      <c r="AR15" s="161"/>
       <c r="AS15" s="37"/>
       <c r="AT15" s="37"/>
-      <c r="AU15" s="142" t="s">
+      <c r="AU15" s="159" t="s">
         <v>14</v>
       </c>
-      <c r="AV15" s="143"/>
-      <c r="AW15" s="143"/>
-      <c r="AX15" s="144"/>
+      <c r="AV15" s="160"/>
+      <c r="AW15" s="160"/>
+      <c r="AX15" s="161"/>
       <c r="AY15" s="67"/>
       <c r="AZ15" s="64"/>
       <c r="BD15" s="18"/>
@@ -23486,40 +23736,40 @@
       <c r="I16" s="37"/>
       <c r="J16" s="18"/>
       <c r="K16" s="18"/>
-      <c r="L16" s="111" t="s">
+      <c r="L16" s="127" t="s">
         <v>46</v>
       </c>
-      <c r="M16" s="111"/>
-      <c r="N16" s="111"/>
-      <c r="O16" s="111"/>
-      <c r="P16" s="111"/>
+      <c r="M16" s="127"/>
+      <c r="N16" s="127"/>
+      <c r="O16" s="127"/>
+      <c r="P16" s="127"/>
       <c r="Q16" s="18"/>
       <c r="R16" s="66"/>
-      <c r="S16" s="172"/>
-      <c r="T16" s="124"/>
-      <c r="U16" s="124"/>
-      <c r="V16" s="124"/>
-      <c r="W16" s="124"/>
-      <c r="X16" s="124"/>
-      <c r="Y16" s="124"/>
-      <c r="Z16" s="124"/>
-      <c r="AA16" s="124"/>
-      <c r="AB16" s="124"/>
-      <c r="AC16" s="124"/>
-      <c r="AD16" s="173"/>
+      <c r="S16" s="85"/>
+      <c r="T16" s="142"/>
+      <c r="U16" s="142"/>
+      <c r="V16" s="142"/>
+      <c r="W16" s="142"/>
+      <c r="X16" s="142"/>
+      <c r="Y16" s="142"/>
+      <c r="Z16" s="142"/>
+      <c r="AA16" s="142"/>
+      <c r="AB16" s="142"/>
+      <c r="AC16" s="142"/>
+      <c r="AD16" s="86"/>
       <c r="AE16" s="68"/>
       <c r="AM16" s="66"/>
       <c r="AN16" s="67"/>
-      <c r="AO16" s="170"/>
-      <c r="AP16" s="124"/>
-      <c r="AQ16" s="124"/>
-      <c r="AR16" s="171"/>
+      <c r="AO16" s="162"/>
+      <c r="AP16" s="142"/>
+      <c r="AQ16" s="142"/>
+      <c r="AR16" s="163"/>
       <c r="AS16" s="67"/>
       <c r="AT16" s="67"/>
-      <c r="AU16" s="170"/>
-      <c r="AV16" s="124"/>
-      <c r="AW16" s="124"/>
-      <c r="AX16" s="171"/>
+      <c r="AU16" s="162"/>
+      <c r="AV16" s="142"/>
+      <c r="AW16" s="142"/>
+      <c r="AX16" s="163"/>
       <c r="AY16" s="67"/>
       <c r="AZ16" s="68"/>
       <c r="BD16" s="18"/>
@@ -23537,38 +23787,38 @@
       <c r="I17" s="32"/>
       <c r="J17" s="18"/>
       <c r="K17" s="18"/>
-      <c r="L17" s="111"/>
-      <c r="M17" s="111"/>
-      <c r="N17" s="111"/>
-      <c r="O17" s="111"/>
-      <c r="P17" s="111"/>
+      <c r="L17" s="127"/>
+      <c r="M17" s="127"/>
+      <c r="N17" s="127"/>
+      <c r="O17" s="127"/>
+      <c r="P17" s="127"/>
       <c r="Q17" s="67"/>
       <c r="R17" s="66"/>
-      <c r="S17" s="172"/>
-      <c r="T17" s="124"/>
-      <c r="U17" s="124"/>
-      <c r="V17" s="124"/>
-      <c r="W17" s="124"/>
-      <c r="X17" s="124"/>
-      <c r="Y17" s="124"/>
-      <c r="Z17" s="124"/>
-      <c r="AA17" s="124"/>
-      <c r="AB17" s="124"/>
-      <c r="AC17" s="124"/>
-      <c r="AD17" s="173"/>
+      <c r="S17" s="85"/>
+      <c r="T17" s="142"/>
+      <c r="U17" s="142"/>
+      <c r="V17" s="142"/>
+      <c r="W17" s="142"/>
+      <c r="X17" s="142"/>
+      <c r="Y17" s="142"/>
+      <c r="Z17" s="142"/>
+      <c r="AA17" s="142"/>
+      <c r="AB17" s="142"/>
+      <c r="AC17" s="142"/>
+      <c r="AD17" s="86"/>
       <c r="AE17" s="68"/>
       <c r="AM17" s="66"/>
       <c r="AN17" s="67"/>
-      <c r="AO17" s="170"/>
-      <c r="AP17" s="124"/>
-      <c r="AQ17" s="124"/>
-      <c r="AR17" s="171"/>
+      <c r="AO17" s="162"/>
+      <c r="AP17" s="142"/>
+      <c r="AQ17" s="142"/>
+      <c r="AR17" s="163"/>
       <c r="AS17" s="67"/>
       <c r="AT17" s="67"/>
-      <c r="AU17" s="170"/>
-      <c r="AV17" s="124"/>
-      <c r="AW17" s="124"/>
-      <c r="AX17" s="171"/>
+      <c r="AU17" s="162"/>
+      <c r="AV17" s="142"/>
+      <c r="AW17" s="142"/>
+      <c r="AX17" s="163"/>
       <c r="AY17" s="67"/>
       <c r="AZ17" s="68"/>
       <c r="BD17" s="18"/>
@@ -23583,8 +23833,8 @@
       <c r="F18" s="42"/>
       <c r="G18" s="42"/>
       <c r="H18" s="42"/>
-      <c r="I18" s="163"/>
-      <c r="J18" s="163"/>
+      <c r="I18" s="83"/>
+      <c r="J18" s="83"/>
       <c r="K18" s="18"/>
       <c r="L18" s="18"/>
       <c r="M18" s="24"/>
@@ -23594,37 +23844,37 @@
       <c r="Q18" s="67"/>
       <c r="R18" s="50"/>
       <c r="S18" s="22"/>
-      <c r="T18" s="124"/>
-      <c r="U18" s="124"/>
-      <c r="V18" s="124"/>
-      <c r="W18" s="124"/>
-      <c r="X18" s="124"/>
-      <c r="Y18" s="124"/>
-      <c r="Z18" s="124"/>
-      <c r="AA18" s="124"/>
-      <c r="AB18" s="124"/>
-      <c r="AC18" s="124"/>
+      <c r="T18" s="142"/>
+      <c r="U18" s="142"/>
+      <c r="V18" s="142"/>
+      <c r="W18" s="142"/>
+      <c r="X18" s="142"/>
+      <c r="Y18" s="142"/>
+      <c r="Z18" s="142"/>
+      <c r="AA18" s="142"/>
+      <c r="AB18" s="142"/>
+      <c r="AC18" s="142"/>
       <c r="AD18" s="52"/>
       <c r="AE18" s="23"/>
-      <c r="AG18" s="86" t="s">
-        <v>80</v>
-      </c>
-      <c r="AH18" s="86"/>
-      <c r="AI18" s="86"/>
-      <c r="AJ18" s="86"/>
-      <c r="AK18" s="86"/>
+      <c r="AG18" s="96" t="s">
+        <v>76</v>
+      </c>
+      <c r="AH18" s="96"/>
+      <c r="AI18" s="96"/>
+      <c r="AJ18" s="96"/>
+      <c r="AK18" s="96"/>
       <c r="AM18" s="50"/>
       <c r="AN18" s="24"/>
-      <c r="AO18" s="145"/>
-      <c r="AP18" s="146"/>
-      <c r="AQ18" s="146"/>
-      <c r="AR18" s="147"/>
+      <c r="AO18" s="164"/>
+      <c r="AP18" s="165"/>
+      <c r="AQ18" s="165"/>
+      <c r="AR18" s="166"/>
       <c r="AS18" s="67"/>
       <c r="AT18" s="67"/>
-      <c r="AU18" s="145"/>
-      <c r="AV18" s="146"/>
-      <c r="AW18" s="146"/>
-      <c r="AX18" s="147"/>
+      <c r="AU18" s="164"/>
+      <c r="AV18" s="165"/>
+      <c r="AW18" s="165"/>
+      <c r="AX18" s="166"/>
       <c r="AY18" s="18"/>
       <c r="AZ18" s="23"/>
       <c r="BD18" s="18"/>
@@ -23639,8 +23889,8 @@
       <c r="F19" s="42"/>
       <c r="G19" s="42"/>
       <c r="H19" s="42"/>
-      <c r="I19" s="163"/>
-      <c r="J19" s="163"/>
+      <c r="I19" s="83"/>
+      <c r="J19" s="83"/>
       <c r="K19" s="18"/>
       <c r="L19" s="18"/>
       <c r="M19" s="24"/>
@@ -23662,11 +23912,11 @@
       <c r="AC19" s="37"/>
       <c r="AD19" s="52"/>
       <c r="AE19" s="23"/>
-      <c r="AG19" s="86"/>
-      <c r="AH19" s="86"/>
-      <c r="AI19" s="86"/>
-      <c r="AJ19" s="86"/>
-      <c r="AK19" s="86"/>
+      <c r="AG19" s="96"/>
+      <c r="AH19" s="96"/>
+      <c r="AI19" s="96"/>
+      <c r="AJ19" s="96"/>
+      <c r="AK19" s="96"/>
       <c r="AM19" s="50"/>
       <c r="AN19" s="24"/>
       <c r="AO19" s="40"/>
@@ -23704,7 +23954,7 @@
       <c r="Q20" s="33"/>
       <c r="R20" s="50"/>
       <c r="S20" s="14"/>
-      <c r="T20" s="168"/>
+      <c r="T20" s="84"/>
       <c r="U20" s="53"/>
       <c r="V20" s="53"/>
       <c r="W20" s="53"/>
@@ -23907,27 +24157,27 @@
       <c r="R24" s="24"/>
       <c r="S24" s="24"/>
       <c r="T24" s="24"/>
-      <c r="U24" s="109" t="s">
+      <c r="U24" s="140" t="s">
         <v>17</v>
       </c>
-      <c r="V24" s="109"/>
-      <c r="W24" s="109"/>
-      <c r="X24" s="109"/>
-      <c r="Y24" s="109"/>
-      <c r="Z24" s="109"/>
-      <c r="AA24" s="109"/>
-      <c r="AB24" s="109"/>
+      <c r="V24" s="140"/>
+      <c r="W24" s="140"/>
+      <c r="X24" s="140"/>
+      <c r="Y24" s="140"/>
+      <c r="Z24" s="140"/>
+      <c r="AA24" s="140"/>
+      <c r="AB24" s="140"/>
       <c r="AO24" s="17"/>
-      <c r="AP24" s="109" t="s">
+      <c r="AP24" s="140" t="s">
         <v>17</v>
       </c>
-      <c r="AQ24" s="109"/>
-      <c r="AR24" s="109"/>
-      <c r="AS24" s="109"/>
-      <c r="AT24" s="109"/>
-      <c r="AU24" s="109"/>
-      <c r="AV24" s="109"/>
-      <c r="AW24" s="109"/>
+      <c r="AQ24" s="140"/>
+      <c r="AR24" s="140"/>
+      <c r="AS24" s="140"/>
+      <c r="AT24" s="140"/>
+      <c r="AU24" s="140"/>
+      <c r="AV24" s="140"/>
+      <c r="AW24" s="140"/>
       <c r="AX24" s="24"/>
       <c r="AY24" s="18"/>
       <c r="AZ24" s="18"/>
@@ -25076,19 +25326,6 @@
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="AG18:AK19"/>
-    <mergeCell ref="AO15:AR18"/>
-    <mergeCell ref="AU15:AX18"/>
-    <mergeCell ref="R10:AE12"/>
-    <mergeCell ref="AC13:AD14"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="F1:L1"/>
-    <mergeCell ref="M1:P1"/>
-    <mergeCell ref="Q1:W1"/>
-    <mergeCell ref="A2:E2"/>
-    <mergeCell ref="F2:L2"/>
-    <mergeCell ref="M2:P2"/>
-    <mergeCell ref="Q2:W2"/>
     <mergeCell ref="U24:AB24"/>
     <mergeCell ref="AP24:AW24"/>
     <mergeCell ref="C11:I12"/>
@@ -25104,6 +25341,19 @@
     <mergeCell ref="T15:AC18"/>
     <mergeCell ref="L16:P17"/>
     <mergeCell ref="AM10:AZ12"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="F1:L1"/>
+    <mergeCell ref="M1:P1"/>
+    <mergeCell ref="Q1:W1"/>
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="F2:L2"/>
+    <mergeCell ref="M2:P2"/>
+    <mergeCell ref="Q2:W2"/>
+    <mergeCell ref="AG18:AK19"/>
+    <mergeCell ref="AO15:AR18"/>
+    <mergeCell ref="AU15:AX18"/>
+    <mergeCell ref="R10:AE12"/>
+    <mergeCell ref="AC13:AD14"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
